--- a/ID_SanPham._ChanGa.xlsx
+++ b/ID_SanPham._ChanGa.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChanGa_Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41F1E51-8EA6-4402-898E-C7F8DCBF78C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B59992-AA11-4C6B-86C4-90AC07AD3C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{D6F5E742-A921-4C78-A2CA-E7DD1F27105C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6F5E742-A921-4C78-A2CA-E7DD1F27105C}"/>
   </bookViews>
   <sheets>
     <sheet name="SetChanGa" sheetId="1" r:id="rId1"/>
-    <sheet name="Chăn" sheetId="2" r:id="rId2"/>
-    <sheet name="Ruột Chăn" sheetId="8" r:id="rId3"/>
-    <sheet name="Gối lẻ" sheetId="3" r:id="rId4"/>
-    <sheet name="Chiếu Điều Hòa" sheetId="10" r:id="rId5"/>
-    <sheet name="Đệm" sheetId="4" r:id="rId6"/>
-    <sheet name="Ga Lẻ | Chiếu" sheetId="5" r:id="rId7"/>
-    <sheet name="Thảm" sheetId="6" r:id="rId8"/>
-    <sheet name="cmd" sheetId="9" r:id="rId9"/>
-    <sheet name="Link_img" sheetId="7" r:id="rId10"/>
+    <sheet name="Vỏ GA | Vỏ Gối" sheetId="11" r:id="rId2"/>
+    <sheet name="Chăn | Chăn Hè" sheetId="2" r:id="rId3"/>
+    <sheet name="Ruột Chăn" sheetId="8" r:id="rId4"/>
+    <sheet name="Ruột gối(gối lẻ)" sheetId="3" r:id="rId5"/>
+    <sheet name="Chiếu Điều Hòa" sheetId="10" r:id="rId6"/>
+    <sheet name="Đệm" sheetId="4" r:id="rId7"/>
+    <sheet name="Ga Lẻ | Chiếu" sheetId="5" r:id="rId8"/>
+    <sheet name="Thảm" sheetId="6" r:id="rId9"/>
+    <sheet name="cmd" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SetChanGa!$D$1:$D$178</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="605">
   <si>
     <t>ID</t>
   </si>
@@ -856,12 +856,6 @@
   </si>
   <si>
     <t>𝙉𝙚𝙬 𝙝𝙤𝙪𝙨𝙚</t>
-  </si>
-  <si>
-    <t>duonglc27092000/ChanGa (github.com)</t>
-  </si>
-  <si>
-    <t>asdasd</t>
   </si>
   <si>
     <t>Ephan Summer Tencel 🌺
@@ -1847,6 +1841,679 @@
   </si>
   <si>
     <t>CDH30</t>
+  </si>
+  <si>
+    <t>SCG100</t>
+  </si>
+  <si>
+    <t>SCG101</t>
+  </si>
+  <si>
+    <t>SCG102</t>
+  </si>
+  <si>
+    <t>SCG103</t>
+  </si>
+  <si>
+    <t>SCG104</t>
+  </si>
+  <si>
+    <t>SCG105</t>
+  </si>
+  <si>
+    <t>SCG106</t>
+  </si>
+  <si>
+    <t>SCG107</t>
+  </si>
+  <si>
+    <t>SCG108</t>
+  </si>
+  <si>
+    <t>SCG109</t>
+  </si>
+  <si>
+    <t>SCG110</t>
+  </si>
+  <si>
+    <t>SCG111</t>
+  </si>
+  <si>
+    <t>SCG112</t>
+  </si>
+  <si>
+    <t>SCG113</t>
+  </si>
+  <si>
+    <t>SCG114</t>
+  </si>
+  <si>
+    <t>SCG115</t>
+  </si>
+  <si>
+    <t>SCG116</t>
+  </si>
+  <si>
+    <t>SCG117</t>
+  </si>
+  <si>
+    <t>SCG118</t>
+  </si>
+  <si>
+    <t>SCG119</t>
+  </si>
+  <si>
+    <t>SCG120</t>
+  </si>
+  <si>
+    <t>SCG121</t>
+  </si>
+  <si>
+    <t>SCG122</t>
+  </si>
+  <si>
+    <t>SCG123</t>
+  </si>
+  <si>
+    <t>SCG124</t>
+  </si>
+  <si>
+    <t>SCG125</t>
+  </si>
+  <si>
+    <t>SCG126</t>
+  </si>
+  <si>
+    <t>SCG127</t>
+  </si>
+  <si>
+    <t>SCG128</t>
+  </si>
+  <si>
+    <t>SCG129</t>
+  </si>
+  <si>
+    <t>SCG130</t>
+  </si>
+  <si>
+    <t>SCG131</t>
+  </si>
+  <si>
+    <t>SCG132</t>
+  </si>
+  <si>
+    <t>SCG133</t>
+  </si>
+  <si>
+    <t>SCG134</t>
+  </si>
+  <si>
+    <t>SCG135</t>
+  </si>
+  <si>
+    <t>SCG136</t>
+  </si>
+  <si>
+    <t>SCG137</t>
+  </si>
+  <si>
+    <t>SCG138</t>
+  </si>
+  <si>
+    <t>SCG139</t>
+  </si>
+  <si>
+    <t>SCG140</t>
+  </si>
+  <si>
+    <t>SCG141</t>
+  </si>
+  <si>
+    <t>SCG142</t>
+  </si>
+  <si>
+    <t>SCG143</t>
+  </si>
+  <si>
+    <t>SCG144</t>
+  </si>
+  <si>
+    <t>SCG145</t>
+  </si>
+  <si>
+    <t>SCG146</t>
+  </si>
+  <si>
+    <t>SCG147</t>
+  </si>
+  <si>
+    <t>SCG148</t>
+  </si>
+  <si>
+    <t>SCG149</t>
+  </si>
+  <si>
+    <t>nghệ thuật đương đại</t>
+  </si>
+  <si>
+    <t>Siêu đẹp các bác ơi 📣📣 2025 💯
+Phi lụa vân chìm ga chần bông nhập khẩu toàn màu siêu hót ✨✨
+Thiết kế đỉnh cao vs những hoạ tiết dệt vân chìm  sang trọng nhìn thôi đã xiêu lòng 🎊🎊
+💦Chăn chần bông micro mềm mại đắp bao phê❄️
+Đẹp lung linh mà giá rẻ giật mình 🥶🥶
+Full  26 màu thoả mái lựa choin
+Set 5 món y hình
+-1 ga trần chun m6 m8 2m2 chân cao 25cm
+-1 chăn chần hè 200*230cm
+-2 vỏ gối nằm 48*74cm</t>
+  </si>
+  <si>
+    <t>Siêu đẹp các bác ơi 📣📣 2025 💯</t>
+  </si>
+  <si>
+    <t>700 750 800</t>
+  </si>
+  <si>
+    <t>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁
+✨ Lụa Hàn Quốc Ga Trần Bông 5 Món không chỉ là bộ chăn ga gối thông thường, mà còn là điểm nhấn tinh tế, sang trọng cho không gian phòng ngủ của bạn. 
+🍀Bề mặt vải mịn màng, bóng nhẹ, không xù lông hay nhăn nhúm sau thời gian dài sử dụng.
+Bộ chăn ga bao gồm:
+✅ 01 ga giường trần bông mềm mại, giữ ấm tốt.
+✅ 01 chăn bông nhẹ, phù hợp với mọi mùa trong năm.
+✅ 02 vỏ gối đầu, tạo cảm giác êm ái khi sử dụng.
+✅ 01 vỏ gối ôm giúp bạn có giấc ngủ sâu và thư giãn hơn</t>
+  </si>
+  <si>
+    <t>💎 LỤA THÁI SIÊU CẤP – SỰ LỰA CHỌN HOÀN HẢO CHO GIẤC NGỦ HOÀNG GIA 💎
+Bạn đã từng mê mẩn chăn ga gối lụa Thái? Giờ đây, phiên bản SIÊU CẤP MỚI sẽ đưa trải nghiệm của bạn lên một tầm cao mới!
+🛏️ CẢM NHẬN SỰ KHÁC BIỆT – TỪNG CHI TIẾT ĐỀU NÂNG CẤP VƯỢT TRỘI!
+🔥 Chất lụa dày dặn hơn, đẳng cấp hơn
+Không còn cảm giác mỏng nhẹ như phiên bản cũ, lụa Thái siêu cấp sở hữu độ dày hoàn hảo, mang đến sự chắc chắn nhưng vẫn giữ được sự mềm mại, mượt mà khi chạm vào.
+🔥 Mềm mại gấp nhiều lần – mát lạnh như lụa, êm ái như mây
+Chất lụa cao cấp với kết cấu sợi tơ mịn màng, giúp chăn ga gối ôm sát cơ thể, nhẹ nhàng và thoáng mát, tạo cảm giác thư thái ngay từ giây phút đầu tiên.
+🔥 Màu sắc rực rỡ – sang trọng, tinh tế hơn bao giờ hết
+Không chỉ giữ màu lâu bền, phiên bản mới còn có bảng màu sắc tươi sáng, sống động, tôn lên vẻ đẹp sang trọng cho không gian phòng ngủ của bạn.
+🔥 Thoáng mát, thấm hút tốt – giấc ngủ trọn vẹn mỗi đêm
+Dù là mùa hè hay mùa đông, lụa Thái siêu cấp luôn đảm bảo độ thông thoáng tuyệt đối, thấm hút mồ hôi tốt mà không gây bí bách, mang đến cảm giác dễ chịu cho cả gia đình.
+🍀 Giá hạt rẻ mà lại có ngay 4 món :
+- chăn hè trần bông nguyên sinh 200*230cm
+- ga tấm trải freesize
+- 02 vỏ gối dầu 48*74cm</t>
+  </si>
+  <si>
+    <t>💎 LỤA THÁI SIÊU CẤP – SỰ LỰA CHỌN HOÀN HẢO CHO GIẤC NGỦ HOÀNG GIA 💎</t>
+  </si>
+  <si>
+    <t>Sportbird 50s seri 15🌱
+Telcel summer💧💧</t>
+  </si>
+  <si>
+    <t>🌟 EPHANHOUES  BST  Lụa Gấm Cao Cấp Mới 🌟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✨ CHĂN GA LỤA THÊU BÁNH BÈO – NÀNG CÔNG CHÚA TRONG MƠ </t>
+  </si>
+  <si>
+    <t>Cologne Silk Flower💐
+💐Lấy cảm hứng từ các họa tiết kiến trúc châu Âu cổ điển, bộ chăn ga này là sự kết hợp hoàn hảo giữa nghệ thuật và công năng sử dụng.
+💐Chất liệu tơ tằm – Đẳng cấp từ thiên nhiên
+Mềm mại và thoáng mát: Tơ tằm nổi tiếng với khả năng thấm hút tốt, giúp điều hòa nhiệt độ cơ thể và mang lại cảm giác dễ chịu trong cả mùa đông lẫn mùa hè.
+Set 4 món
+-2 vỏ gối
+-1 vỏ ga
+-1 vỏ chăn</t>
+  </si>
+  <si>
+    <t>Cologne Silk Flower💐</t>
+  </si>
+  <si>
+    <t>Wish Design Tencel ⭐️
+Thiết kế ga được chần với hoạ tiết Apple đi cùng 2 tông màu ưa chuộng trong thiết kế làm nổi bật lên căn phòng của nàng
+Set 4 món ga chần
+-2 vỏ gối chần 48x74
+-1 ga chần 245x250
+-1 chăn hè 200x230</t>
+  </si>
+  <si>
+    <t>Wish Design Tencel ⭐️</t>
+  </si>
+  <si>
+    <t>𝓜𝓪𝓻𝓴𝓬𝓻𝓸𝓼𝓼
+🌸 Lụa Thêu Nước Hoa Dior - Sự hòa quyện giữa sắc nét và mềm mại! 🌸
+💎 Chất liệu lụa mềm mại và nhẹ nhàng tạo cảm giác êm ái và thoải mái, cho bạn trải nghiệm giấc ngủ thư thái và lưu trữ nước hoa Dior một cách sang trọng.
+💎 Họa tiết thêu nổi bắt mắt trên lụa tạo điểm nhấn độc đáo và tạo cảm hứng cho không gian nghỉ ngơi của bạn.
+💎 Sản phẩm gồm 01 vỏ chăn, 1 ga tấm trải freesize và 2 vỏ gối đầu
+🌸 Hãy trải nghiệm sự hòa quyện giữa sắc nét và mềm mại với bộ lụa thêu Nước Hoa Dior này! 🌸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">𝓜𝓪𝓻𝓴𝓬𝓻𝓸𝓼𝓼
+🌸 Lụa Thêu Nước Hoa Dior - Sự hòa quyện giữa sắc nét và mềm mại! </t>
+  </si>
+  <si>
+    <t>BỘ SƯU TẬP TENCEL BASIC – THANH LỊCH &amp; TINH TẾ
+🌿 Chạm vào là yêu – Nâng niu từng giấc ngủ
+Bộ sưu tập Tencel Basic mang đến sự đơn giản nhưng đầy tinh tế, phù hợp với mọi không gian sống hiện đại. Được làm từ 100% Tencel cao cấp, bộ chăn ga gối này không chỉ mang lại cảm giác mềm mại, thoáng khí, thấm hút tốt, mà còn tạo nên sự sang trọng với bảng màu 12 sắc thái tinh tế, phù hợp với mọi cá tính và phong cách nội thất.
+✨ Điểm nhấn đặc biệt của BST:
+✔ Chất liệu Tencel 100% – Mềm mại như lụa, mát lạnh như nước, giúp bạn có giấc ngủ trọn vẹn.
+✔ Khả năng điều hòa nhiệt độ &amp; hút ẩm vượt trội, giữ cho giường ngủ luôn thông thoáng và dễ chịu.
+✔ Bề mặt vải mịn màng, bền màu – Tạo cảm giác thoải mái, giảm ma sát với da, thích hợp cả với làn da nhạy cảm.
+✔ 12 gam màu thanh lịch – Từ tone trung tính nhẹ nhàng đến tone trầm cá tính, đáp ứng mọi sở thích.
+💫 Bảng màu thời thượng của BST:
+🌾 Beige Cát Mộc – Tinh tế &amp; ấm áp
+🍂 Nâu Chocolate – Trầm lắng &amp; sang trọng
+🌫 Xám Khói – Hiện đại &amp; thanh lịch
+🌱 Xanh Rêu Nhẹ – Tươi mát &amp; thư giãn
+🌷 Hồng Đào Nhẹ – Ngọt ngào &amp; lãng mạn
+🍃 Xanh Pastel – Nhẹ nhàng &amp; tinh khôi
+🌹 Đỏ Rượu Vang – Cá tính &amp; quyến rũ
+💮 Hồng Rosewood – Dịu dàng &amp; nữ tính
+💙 Xanh Navy – Đậm chất thanh lịch
+🌊 Xanh Biển Nhạt – Nhẹ nhàng &amp; thư giãn
+🌰 Đỏ Đất Terracotta – Ấm áp &amp; trầm tĩnh
+🎀 Hồng Đậm Ruby – Sang trọng &amp; thời thượng
+✨ Hãy để không gian phòng ngủ của bạn trở thành nơi thư giãn hoàn hảo với bộ sưu tập Tencel Basic! ✨</t>
+  </si>
+  <si>
+    <t>BỘ SƯU TẬP TENCEL BASIC – THANH LỊCH &amp; TINH TẾ</t>
+  </si>
+  <si>
+    <t>𝗟𝗮𝗯𝘂𝗯𝘂 , 𝗖𝗮𝗽𝘆 𝗕𝗮𝗿𝗮, 𝗕𝗮𝗯𝘆 𝗧𝗵𝗿𝗲𝗲, 𝗧𝗲𝗱𝘆 𝗕𝗲𝗮𝗿
+☀️ Hè này, ngủ ngon mê ly với set chăn ga gối trần bông siêu cưng! ☀️
+Triệu hồi hàng loạt siêu phẩm hot item trong Set chăn hè trần bông + ga gối trần bông với chất liệu vải đũi mềm mịn, thoáng mát sẽ khiến bạn chỉ muốn “nằm lì” trên giường cả ngày!
+✨ Điểm danh những lý do khiến set này hot rần rần:
+✅ Chăn trần bông siêu mềm: Cực êm ái, nhẹ tênh, đắp mát vào hè mà vẫn đủ ấm vào những ngày se lạnh.
+✅ Mềm mại &amp; mát rượi: Vải đũi cao cấp, thấm hút tốt, không bí bách, ôm êm làn da.
+✅ Trần bông dày dặn: Êm ái, không bị xô lệch sau thời gian dài sử dụng.
+✅ Màu sắc xinh yêu: Tone pastel nhẹ nhàng, sang xịn, dễ phối decor phòng ngủ.
+✅ Bonus siêu hot: TẶNG ngay thú nhồi bông cực yêu, giúp giấc ngủ thêm ấm áp và đáng yêu gấp bội.</t>
+  </si>
+  <si>
+    <t>𝗟𝗮𝗯𝘂𝗯𝘂 , 𝗖𝗮𝗽𝘆 𝗕𝗮𝗿𝗮, 𝗕𝗮𝗯𝘆 𝗧𝗵𝗿𝗲𝗲, 𝗧𝗲𝗱𝘆 𝗕𝗲𝗮𝗿</t>
+  </si>
+  <si>
+    <t>880 - 920 -950</t>
+  </si>
+  <si>
+    <t>Trong không gian tĩnh lặng của đêm,
+Giấc mơ ngập tràn ánh nắng vàng,
+Chăn ga ôm trọn từng giấc ngủ,
+Dưới bầu trời trong xanh thẳm sâu…
+Trải nghiệm giấc ngủ đẳng cấp cùng bộ chăn ga mới nhất mang tên Aurora - Champagne. Với thiết kế nghệ thuật tinh tế, bộ sản phẩm này không chỉ khiến không gian phòng ngủ trở nên sang trọng mà còn mang lại cảm giác thư giãn tuyệt vời.
+🌈 Họa Tiết Nghệ Thuật Huyền Diệu: Đắm chìm trong những họa tiết ấn tượng, nơi ánh nắng và làn gió hòa quyện với nhau, tạo nên một không gian mơ mộng và đầy cảm hứng.
+🌿 Sử dụng công nghệ dệt cao cấp phiên bản A kết hợp với Lụa Úc 100S, bộ chăn ga mang đến sự mềm mại và thoải mái tối đa, giúp nâng niu làn da bạn mỗi đêm.
+🌟 Với kỹ thuật thêu tinh xảo và ghép nối tinh tế, mỗi chi tiết của sản phẩm đều được chăm chút tỉ mỉ, không chỉ đẹp mắt mà còn bền bỉ theo thời gian.
+✨ Viền góc giường được thiết kế khéo léo cùng khóa kéo YKK chất lượng cao, mang đến sự tiện lợi và thẩm mỹ hoàn hảo cho bộ chăn ga của bạn.
+Hãy để bộ chăn ga Aurora - Champagne đồng hành cùng giấc ngủ của bạn, mang lại sự thư giãn và phong cách chưa từng có! 🛌💖</t>
+  </si>
+  <si>
+    <t>Họa Tiết Nghệ Thuật Huyền Diệu</t>
+  </si>
+  <si>
+    <t>𝐌𝐮𝐚̀ 𝐡𝐞̀ 𝐧𝐚̆̀𝐦 𝐜𝐡𝐚̆𝐧 𝐠𝐚 𝐠𝐢̀ 𝐦𝐚́𝐭
+𝐗𝐞𝐦 𝐧𝐠𝐚𝐲 𝐭𝐚̣𝐢 𝐏𝐨𝐬𝐭 𝐧𝐚̀𝐲 🥰🥰🥰
+💕Chất liệu phi lụa được làm từ tơ và lụa được sản xuất từ tơ tằm, mang tính ứng dụng cao trong cuộc sống. Vải được dệt từ những sợi tự nhiên có độ bền tốt, giữ ấm lâu
+💕Vải óng,có độ mềm mịn mang lại vẻ đẹp sang trọng thời thượng
+💕Hình thêu nổi bật, bắt trend, gam màu tươi sáng phù hợp không gian sống
+💕Chăn hè lụa chần bông mỏng, độ dày vừa phải, phù hợp thời tiết quanh năm
+💟Set 4m tiêu chuẩn: 
+1 ga trải freesz
+1 chăn chần hè 2mx2m3
+2 vỏ gối 50x70</t>
+  </si>
+  <si>
+    <t>🌿 Leafy Luxe Gấm Cao Cấp
+🍁Leafy Luxe với hoạ tiết The Leaf và chất liệu gấm cao cấp là biểu tượng của sự thanh lịch và sang trọng trong giấc ngủ.
+🍁Hoạ tiết The Leaf được thêu tinh xảo trên chất liệu gấm cao cấp, tạo nên điểm nhấn tuyệt vời và mang lại cảm giác gần gũi với thiên nhiên. Sự kết hợp hoàn hảo giữa hoạ tiết tự nhiên và chất liệu mềm mại, thoải mái của gấm cao cấp giúp tạo nên không gian ngủ tinh tế và ấm áp.
+🍁Leafy Luxe - Sự kết hợp hài hòa giữa hoạ tiết tự nhiên và đẳng cấp, mang đến cho bạn một trải nghiệm giấc ngủ sang trọng và thanh lịch.
+Set 4 món
+-2 vỏ gối
+-1 vỏ ga
+-1 vỏ chăn</t>
+  </si>
+  <si>
+    <t>🌿 Leafy Luxe Gấm Cao Cấp</t>
+  </si>
+  <si>
+    <t>𝐋𝐈𝐆𝐇𝐓𝐖𝐀𝐍𝐆｜Spring &amp; Summer 2025 Collection
+“Chớm Xuân Dịu Dàng”
+Lấy cảm hứng từ hoa tulip, bộ chăn phủ được thêu chần tinh xảo với đường kim mũi chỉ siêu nhỏ, tạo hiệu ứng 3D sống động như tranh phác họa.
+Ren viền được làm bằng kỹ thuật móc Venice độc đáo, mô phỏng hình ảnh dây leo hoa nguyệt quế nhẹ nhàng. Màu kem sữa quyện cùng nền vải satin mềm mại, mang đến cảm giác như ánh sáng xuyên qua làn sương mỏng – tinh khôi và quyến rũ.
+Chất liệu:
+ • Chăn phủ: vải tencel cotton cao cấp, hai mặt dùng được.
+ • Kỹ thuật water wash giúp chất vải mềm mịn, thoáng mát.
+ • Họa tiết chần bông hoa tinh tế, kết hợp viền bèo nhún và ren hai tầng ở vỏ gối tạo điểm nhấn nữ tính.
+Set 4 món ( có thể bán rời không kèm chăn)
+-2 vỏ gối
+-1 ga chần dùng được 2 mặt (230x245)
+- 1 chăn hè (200x230)</t>
+  </si>
+  <si>
+    <t>𝐋𝐈𝐆𝐇𝐓𝐖𝐀𝐍𝐆｜Spring &amp; Summer 2025 Collection</t>
+  </si>
+  <si>
+    <t>1500 3 món không kèm chăn
+950 chăn hè</t>
+  </si>
+  <si>
+    <t>YOUNG｜Bộ sưu tập Xuân Hè 2025
+Amore Floréal – Hương Hoa Say Đắm
+✨ Thiết kế cảm hứng:
+Một bản tình ca của ánh trăng và hoa – nơi ánh bạc dịu dàng trải dài như dòng lụa mềm mại, đưa giấc ngủ trôi giữa ngân hà tơ trời.
+Những cánh bướm 🦋 ẩn mình trong hoạ tiết dệt nổi, nhẹ nhàng tung cánh giữa muôn hoa rực rỡ.
+Cuộc sống nên như hoa 🌸 – nở rộ trọn vẹn, kiêu hãnh và đầy tinh tế.
+🛏 Mô tả sản phẩm:
+ • Màu sắc: Champagne ngọt ngào
+ • Chất liệu: Tencel Cotton cao cấp – mềm mịn như lụa, thoáng khí như gió
+ • Thiết kế: Họa tiết hoa - bướm dệt nổi tinh xảo
+ • Điểm nhấn: Voan organza xếp ly ánh ngọc trai + nút ngọc trang trí
+ • Phong cách: Thanh lịch – nữ tính – quyến rũ đầy chất thơ
+🌟 Ưu điểm nổi bật:
+✔️ Vải mềm mát, cực kỳ thoáng khí
+✔️ An toàn cho da nhạy cảm, kể cả mẹ và bé
+✔️ Thiết kế sang trọng, hợp xu hướng cưới – tân gia – decor phòng ngủ cao cấp
+“Giấc ngủ cũng cần được nâng niu như một tác phẩm nghệ thuật.”</t>
+  </si>
+  <si>
+    <t>YOUNG｜Bộ sưu tập Xuân Hè 2025</t>
+  </si>
+  <si>
+    <t>DC feeling with heart💞💞
+MICHELLE JOHNSON 2025🫧
+Fashion 
+Vẫn trên nền vải phi lụa óng mịn ko nhăn ko xù,  chăn dc trần thêm 1 lớp bông micro mềm mại đã qua xử lí nhiệt tạo thành tấm vững chắc giặt máy thoải mái 100% ko lo xô bông vón cục,vải chuẩn loại 1 cực kì dày dặn 🍹🍹
+Full 9 màu thoả thích lựa chọn
+Set 4 món 
+-1 chăn he 200*230cm
+-1 ga freesize 245*250cm
+-2 gối nằm 48*74cm</t>
+  </si>
+  <si>
+    <t>560k</t>
+  </si>
+  <si>
+    <t>400 k/2</t>
+  </si>
+  <si>
+    <t>“ Này chàng trai câu cá 
+Thính cậu, mình đã say
+ … Bật đèn xanh rồi đấy 👌
+Chạm nhẹ, mình đổ ngay … “
+💟 Thính thơm thế này không mê không được… Gối lông vũ nhân tạo phiên bản Sờ leo mới nhìn thôi đã thấy rụng trứng luôn rồi . 
+💟 Chiếc gối bồng bềnh, mềm nhũn nâng đỡ cổ vai gáy trên cả tuyệt vời. Với set lụa cao cấp thì cứ phải chiếc gối như này mới xứng tầm giá trị, lồng ruột vào với vỏ lụa rộng mới đủ căng phồng chứ ạ
+❤️ Size tiêu chuẩn 48*74, bông lông vũ nhũn nên tốn bông lắm nặng tận 2.5kg/ đôi
+❤️ Sở hữu ngay để thấy rằng mình đã quá thông thái</t>
+  </si>
+  <si>
+    <t>ruột gối 280k/1 đôi
+ruột chăn 480k
+ruột ôm 220k/1 cái
+ruột chăn hè 350k</t>
+  </si>
+  <si>
+    <t>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁
+🍀 Không chỉ là một bộ chăn ga gối, mà còn là một tuyệt tác nghệ thuật, nâng tầm không gian sống của bạn!
+✅ Chất liệu lụa cao cấp – Mềm mại, thoáng khí, mang đến cảm giác mát mẻ vào mùa hè và ấm áp vào mùa đông
+🎁 Trọn bộ sản phẩm bao gồm:
+ • 01 chăn trần bông mềm mại
+ • 01 ga giường trần bông vừa vặn, chắc chắn
+ • 02 vỏ gối đầu êm ái</t>
+  </si>
+  <si>
+    <t>ruột gối đầu kt 50-70 380k/1 đôi
+-ruột ôm kt 35-100 250k/1 c
+-ruột chăn đông 200-230 800/1 cái nặng gần 3kg
+-ruột chăn hè 200-230 700k/1 cái nặng tầm 2,2kg</t>
+  </si>
+  <si>
+    <t>🌿 Chăn Hè Cao Cấp - Dòng “SilkAir” - Sự Chạm Nhẹ Như Không 🌿
+✨ Độc Quyền - Chỉ có tại Cologne ✨
+🌙 Giấc ngủ nhẹ tênh - Tinh hoa công nghệ vải thế hệ mới 🌙
+Bộ sưu tập “SilkAir” mang đến trải nghiệm ngủ mát lạnh, mềm mượt như lụa, giúp làn da bạn luôn được nâng niu với chất liệu Tencel Siêu Mỏng &amp; Công Nghệ Silicone Fiber.
+🔹 Siêu nhẹ - Siêu thoáng ☁
+Chất liệu vải dệt mịn, độ dày chỉ bằng 50% chăn thông thường, cho cảm giác ngủ không trọng lượng, không gây áp lực lên cơ thể.
+🔹 Mát lạnh tự nhiên ❄
+Công nghệ Cooling Touch giữ bề mặt vải luôn mát mẻ, không bí bách - lý tưởng cho mùa hè và khí hậu nóng ẩm.
+🔹 8 thiết kế vân đá &amp; hoa văn nghệ thuật 🌸🎨
+Hoạ tiết sang trọng, lấy cảm hứng từ vân cẩm thạch, sương sớm trên lá, và nét vẽ nghệ thuật thủ công, tạo nên không gian phòng ngủ đẳng cấp - thời thượng.</t>
+  </si>
+  <si>
+    <t>❄️ CHĂN HÈ CAO CẤP – ĐỘC QUYỀN TỪ ALAFUS ❄️
+✨ Tinh hoa của sự thanh lịch &amp; thoáng mát ✨
+💎 SIÊU PHẨM CHĂN HÈ XỊN NHẤT NĂM – dành riêng cho những ai yêu thích sự tối giản nhưng vẫn muốn tận hưởng cảm giác xa xỉ và tinh tế.
+🌿 CHẤT LIỆU ĐỘC QUYỀN: Sợi Tencel cao cấp với bề mặt mượt mà như lụa, mỏng nhẹ, thoáng khí, giúp điều hòa nhiệt độ cơ thể, giữ cho giấc ngủ luôn mát mẻ và thư giãn.
+🎨 5 GAM MÀU ĐỘC QUYỀN – tinh tế, sang trọng, dễ dàng phối hợp với mọi không gian:
+🔹 Xanh Đại Dương – mát lành &amp; thanh khiết
+🔸 Cát Cháy – ấm áp &amp; quyến rũ
+🔹 Ô-liu Nhẹ – sang trọng &amp; tối giản
+🔸 Hồng Champagne – mềm mại &amp; tinh tế
+🔹 Xám Tro – hiện đại &amp; thời thượng
+🌙 MỀM NHẸ NHƯ KHÔNG, THOÁNG KHÍ CỰC ĐỈNH
+Cảm giác mềm mát, ôm nhẹ cơ thể, không bết dính, giúp bạn ngủ ngon ngay cả trong những ngày nóng nực nhất!</t>
+  </si>
+  <si>
+    <t>𝐋’𝐌 𝐌𝐄𝐒𝐄𝐑 | ĐỈNH CAO GIẤC NGỦ SẠCH &amp; THUẦN KHIẾT ✨
+Bộ sưu tập Xuân Hè 2025 - CHĂN BÔNG SINH HỌC ĐẠI ĐẬU | Trắng
+💠 Công nghệ đột phá với sợi đại đậu sinh học USDA - Được chứng nhận bởi Bộ Nông nghiệp Hoa Kỳ, đảm bảo tiêu chuẩn sinh học, thân thiện môi trường &amp; an toàn sức khỏe.
+🌿 BƯỚC TIẾN MỚI VỀ CHẤT LIỆU CHĂN BÔNG
+✔ Công nghệ sinh học từ sợi đại đậu – Chứa hàm lượng protein gấp 5 lần sợi đậu nành thông thường, tương đương 6.5kg sữa hữu cơ!
+✔ Tạo ion âm tự nhiên – Thanh lọc không khí khi ngủ, giúp cơ thể thư giãn &amp; cải thiện giấc ngủ sâu.
+✔ Khả năng chống khuẩn 3A tự nhiên – Không chứa kim loại nặng, chứa isoflavone từ đậu nành giúp kháng khuẩn, chống nấm mốc &amp; ngừa dị ứng.
+✔ Công nghệ sợi đậu nành giữ nhiệt hồng ngoại xa – Duy trì độ ấm ổn định, thúc đẩy tuần hoàn máu, giảm căng thẳng &amp; bảo vệ làn da.
+🔹 Vỏ chăn: 100% cotton 60s – Đạt tiêu chuẩn A+ an toàn cho trẻ sơ sinh.
+🔹 Lớp bông:
+ • 20% sợi đậu nành USDA sinh học 🌱
+ • 80% sợi polyester siêu vi từ Yizheng (Trung Quốc).
+🔹 Vượt qua kiểm định SGS &amp; chứng nhận EPA.
+✨ Chăn bông không chỉ là phụ kiện giấc ngủ – mà còn là “vệ sĩ sức khỏe” của bạn! ✨</t>
+  </si>
+  <si>
+    <t>𝐋’𝐌 𝐌𝐄𝐒𝐄𝐑 | ĐỈNH CAO GIẤC NGỦ SẠCH &amp; THUẦN KHIẾT ✨</t>
+  </si>
+  <si>
+    <t>𝐁𝐄𝐒𝐓 𝐖𝐈𝐒𝐇 Wish Home Textiles
+#JinsiDian Sợi tơ tằm kết hợp sợi jacquard mềm mại 🫖
+【Leah-hồng nhạt】
+Cảm hứng thiết kế:
+Ánh sáng và bóng tối phân tán ở một góc
+Hoa mẫu đơn khoe sắc 
+Một cảnh tượng như mơ được khắc họa trong không gian mềm mại
+Set 4 món 
+-1 vỏ chăn 200*230cm
+-1 ga freesize 245*250cm
+-2 vỏ gối nằm 48*74cm</t>
+  </si>
+  <si>
+    <t>phi lụa thêu hót hít về bù full màu và sll nha các bác yêu gấu nâu cũng về bù</t>
+  </si>
+  <si>
+    <t>VGVG001</t>
+  </si>
+  <si>
+    <t>VGVG002</t>
+  </si>
+  <si>
+    <t>VGVG003</t>
+  </si>
+  <si>
+    <t>VGVG004</t>
+  </si>
+  <si>
+    <t>VGVG005</t>
+  </si>
+  <si>
+    <t>VGVG006</t>
+  </si>
+  <si>
+    <t>VGVG007</t>
+  </si>
+  <si>
+    <t>VGVG008</t>
+  </si>
+  <si>
+    <t>VGVG009</t>
+  </si>
+  <si>
+    <t>VGVG010</t>
+  </si>
+  <si>
+    <t>VGVG011</t>
+  </si>
+  <si>
+    <t>VGVG012</t>
+  </si>
+  <si>
+    <t>VGVG013</t>
+  </si>
+  <si>
+    <t>VGVG014</t>
+  </si>
+  <si>
+    <t>VGVG015</t>
+  </si>
+  <si>
+    <t>VGVG016</t>
+  </si>
+  <si>
+    <t>VGVG017</t>
+  </si>
+  <si>
+    <t>VGVG018</t>
+  </si>
+  <si>
+    <t>VGVG019</t>
+  </si>
+  <si>
+    <t>VGVG020</t>
+  </si>
+  <si>
+    <t>VGVG021</t>
+  </si>
+  <si>
+    <t>VGVG022</t>
+  </si>
+  <si>
+    <t>VGVG023</t>
+  </si>
+  <si>
+    <t>VGVG024</t>
+  </si>
+  <si>
+    <t>VGVG025</t>
+  </si>
+  <si>
+    <t>VGVG026</t>
+  </si>
+  <si>
+    <t>VGVG027</t>
+  </si>
+  <si>
+    <t>VGVG028</t>
+  </si>
+  <si>
+    <t>VGVG029</t>
+  </si>
+  <si>
+    <t>VGVG030</t>
+  </si>
+  <si>
+    <t>VGVG031</t>
+  </si>
+  <si>
+    <t>VGVG032</t>
+  </si>
+  <si>
+    <t>VGVG033</t>
+  </si>
+  <si>
+    <t>VGVG034</t>
+  </si>
+  <si>
+    <t>VGVG035</t>
+  </si>
+  <si>
+    <t>VGVG036</t>
+  </si>
+  <si>
+    <t>VGVG037</t>
+  </si>
+  <si>
+    <t>VGVG038</t>
+  </si>
+  <si>
+    <t>Cập nhật 23 màu đũi 5m hot hit về bù hàng sll sẵn 2 kho chạy q/c tẹt ga💯</t>
+  </si>
+  <si>
+    <t>Sỉ 530 550 560</t>
+  </si>
+  <si>
+    <t>𝙁𝙊𝙍 𝙁𝘼𝙉𝙎 𝘾𝘼𝙍𝙏𝙊𝙊𝙉 🐻🐻
+🎀 𝐑𝐢𝐠𝐡𝐭 𝐧𝐨𝐰... BST mới của hãng cartoon ra mắt với tạo hình set chăn ga COTTON ĐŨI - chất liệu thịnh hành nhất hiện nay 
+🎀 Ưu điểm của dòng đũi luôn là sự mềm mịn và thoáng mát, thấm hút mồ hôi, lựa chọn phù hợp cho tất cả các gia đình
+🎀Set tiêu chuẩn 4 món
+- 2 vỏ gối nằm 50*70
+-1 vỏ chăn 200*230
+-1 ga phủ size</t>
+  </si>
+  <si>
+    <t>🚨 BẢO VỆ ĐỆM NGAY HÔM NAY – ĐỪNG ĐỢI ĐẾN KHI QUÁ MUỘN! 🚨
+🛏️ Đệm là khoản đầu tư dài hạn cho giấc ngủ, nhưng bạn có biết… chỉ một lần sơ suất cũng có thể khiến đệm bị hỏng, ẩm mốc và mất vệ sinh?
+✨ Đừng để những vết bẩn, mồ hôi hay nước tràn làm giảm tuổi thọ chiếc đệm yêu quý của bạn!
+👉 Ga chống thấm trần bông – Giải pháp tối ưu bảo vệ đệm khỏi mọi tác nhân gây hại!
+💪 VÌ SAO GA CHỐNG THẤM TRẦN BÔNG LÀ LÁ CHẮN HOÀN HẢO CHO ĐỆM CỦA BẠN?
+🔹 Chống thấm vượt trội – Lớp trần bông mềm mại, ngăn chặn tuyệt đối nước và các chất lỏng thấm xuống đệm.
+🔹 Thoáng khí, không bí bách – Giúp đệm luôn khô ráo, hạn chế ẩm mốc, mang lại cảm giác thoải mái cho giấc ngủ.
+🔹 Chất liệu cao cấp, mềm mịn – Bề mặt êm ái, không gây tiếng sột soạt khi nằm, đảm bảo sự dễ chịu tuyệt đối.
+🔹 Dễ dàng tháo lắp và vệ sinh – Tiện lợi trong sử dụng, giặt nhanh, khô nhanh, không làm mất thời gian của bạn.
+🌱 BẢO VỆ ĐỆM - BẢO VỆ SỨC KHỎE GIA ĐÌNH!
+Mỗi ngày trôi qua, vi khuẩn và bụi bẩn tích tụ trong đệm có thể ảnh hưởng đến sức khỏe của cả nhà. Hãy hành động ngay hôm nay để đảm bảo không gian ngủ luôn sạch sẽ và an toàn.</t>
+  </si>
+  <si>
+    <t>🛏️ 1.6m x 2m :260
+🛏️ 1.8m x 2m :270
+🛹2.0m x2m2:290</t>
+  </si>
+  <si>
+    <t>HÀNG MỚI VỀ | MÊ TÍT TỪ CÁI NHÌN ĐẦU TIÊN |
+Chăn ga gối lụa thêu hoa Tuylip – mẫu mới vừa cập bến, nhẹ nhàng mà sang hết nấc!
+ • Lụa mềm mát tay như nước chảy, thêu hoa Tuylip bay bay trên nền hồng champagne dịu dàng
+✨ Mịn – Mát – Mướt tay
+ • Thiết kế bèo nhún quanh chăn – gối – ga, đúng chuẩn “nàng thơ” xinh xắn
+🎀 Yêu kiều – Nữ tính – Ngọt ngào
+ • Phù hợp decor phòng tone trắng – be – pastel, chụp ảnh cực ăn hình</t>
+  </si>
+  <si>
+    <t>✨ ĐẲNG CẤP TINH TẾ – CHẠM LỤA, CHẠM ĐẲNG CẤP ✨
+Bộ chăn ga lụa 80s thêu vân chìm – Sang trọng trong từng chi tiết
+Khi vẻ đẹp được dệt nên từ sự yên lặng và tinh xảo, ta có một tuyệt tác chăn ga dành cho những người sống trọn với gu:
+• 🌙 Lụa 80s cao cấp – mịn màng, mượt như làn sương sớm
+• 🧵 Vân chìm thêu thủ công – tinh tế, ẩn hiện dưới ánh sáng như họa tiết ẩn dụ
+• 🎨 Màu Champagne thanh lịch – kết hợp hài hòa với mọi không gian phòng ngủ cao cấp
+• 🛌 Cảm giác êm ái – mát dịu – mang đến giấc ngủ thư thái, an yên từng phút giây
+Không cần rực rỡ, vẻ đẹp thật sự luôn biết cách lặng lẽ toả sáng.</t>
+  </si>
+  <si>
+    <t>✨ ĐẲNG CẤP TINH TẾ – CHẠM LỤA, CHẠM ĐẲNG CẤP ✨
+Bộ chăn ga lụa 80s thêu vân chìm – Sang trọng trong từng chi tiết</t>
+  </si>
+  <si>
+    <t>MARK CROSS
+Khám phá bộ sưu tập chăn ga mới nhất mang tên "Giấc Mơ Hoàng Gia", lấy ý tưởng từ sự thanh lịch và tinh tế của ren 🌸 - biểu tượng vượt thời gian của vẻ đẹp sang trọng. Từ những bộ lễ phục xa hoa của cung điện Versailles cho đến sàn diễn thời trang cao cấp tại Paris, ren luôn là đại diện của tinh hoa thẩm mỹ ✨.
+Bộ sưu tập lần này sử dụng chất liệu lyocell siêu mịn, nổi bật với độ mềm mượt tăng 20% so với các sản phẩm trước đây 🛌. Sự kết hợp hoàn hảo giữa sợi thực vật tự nhiên 🌱 cùng công nghệ ngưng tụ tiên tiến giúp bộ chăn ga vừa thoáng khí, vừa mang lại cảm giác mát mẻ và dễ chịu 🌬️.
+Với thiết kế chú trọng vào từng chi tiết nhỏ nhất, mỗi sản phẩm đều mang đến cho bạn trải nghiệm giấc ngủ thoải mái, dễ chịu tựa như thở cùng thiên nhiên 🌿. Đây chính là lựa chọn lý tưởng để bạn biến không gian nghỉ ngơi của mình thành một nơi chốn xa hoa nhưng vẫn gần gũi, thân thiện hàng ngày 🏡.</t>
+  </si>
+  <si>
+    <t>✨ NEW ARRIVAL | DÒNG 3D THÊU ÁNH KIM CAO CẤP ✨
+Muốn trở nên không thể thay thế – nhất định phải khác biệt!
+Bộ chăn ga mới nhất từ Ephan mang vẻ đẹp sang trọng, nền nã, nổi bật qua từng chi tiết và đường may tinh xảo.
+💎 Chất liệu A mặt: Vải 3D thêu ánh kim – vân nổi lập thể, phối sợi ánh vàng sang trọng, hiệu ứng gấm lụa mềm mại
+💫 Chất liệu B mặt: Lụa 100s cao cấp – mịn, mát, nhẹ dịu cho làn da
+🪡 Kỹ thuật: Thêu cao cấp – bo tròn tinh tế – dây kéo YKK bền đẹp
+✨ Ga trải giường được trần bông nhập khẩu, chắc tay – tỉ mỉ từng đường kim, giữ form đẹp, sử dụng êm ái quanh năm
+📏 Kích thước vỏ chăn: 200×230cm
+Dành riêng cho khách hàng yêu chất vải sang, gam màu tinh tế và thiết kế đẳng cấp.</t>
+  </si>
+  <si>
+    <t>✨ NEW ARRIVAL | DÒNG 3D THÊU ÁNH KIM CAO CẤP ✨</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2156,9 +2823,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2168,7 +2832,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2305,6 +2968,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2621,23 +3293,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:J219"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="148.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="153.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="33.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.85546875" style="2"/>
+    <col min="10" max="10" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2653,659 +3326,659 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="57">
+        <v>1700</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="55"/>
+      <c r="J3" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="59">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="55"/>
+      <c r="J4" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="55"/>
+      <c r="J5" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="55"/>
+      <c r="J6" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="55"/>
+      <c r="J7" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="55"/>
+      <c r="J8" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="55"/>
+      <c r="J9" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="55"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="56"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="43">
+        <v>1950</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="45"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="45"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="45"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="45"/>
+    </row>
+    <row r="24" spans="1:5" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="44">
+        <v>2300</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="43">
         <v>1700</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="57"/>
-      <c r="J3" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="57"/>
-      <c r="J4" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="57"/>
-      <c r="J5" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="57"/>
-      <c r="J6" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="57"/>
-      <c r="J7" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="57"/>
-      <c r="J8" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="57"/>
-      <c r="J9" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="57"/>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="58"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="45" t="s">
+      <c r="E36" s="45" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="45"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="45"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="45"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="45"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="45"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="45"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="45"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="45"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="45"/>
+    </row>
+    <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="45">
+      <c r="C46" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" s="43">
         <v>1950</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="47"/>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="47"/>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="47"/>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="47"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="47"/>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="47"/>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="47"/>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="47"/>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="47"/>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="47"/>
-    </row>
-    <row r="24" spans="1:5" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" s="46">
-        <v>2300</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="48" t="s">
+      <c r="E46" s="45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="45"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="45"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="45"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="45"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="45"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="45"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="45"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="45"/>
+    </row>
+    <row r="55" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D36" s="45">
-        <v>1700</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="47"/>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="47"/>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="47"/>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="47"/>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="47"/>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="47"/>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="47"/>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="47"/>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="47"/>
-    </row>
-    <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" s="48" t="s">
+      <c r="D55" s="43">
+        <v>1650</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="45"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="45"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="45"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="45"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="45"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="45"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="45"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="45"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="45"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="45"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="45"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="45"/>
+    </row>
+    <row r="68" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="D46" s="45">
-        <v>1950</v>
-      </c>
-      <c r="E46" s="47" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="47"/>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="47"/>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="47"/>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="47"/>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="47"/>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="47"/>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="47"/>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="47"/>
-    </row>
-    <row r="55" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="C55" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" s="45">
-        <v>1650</v>
-      </c>
-      <c r="E55" s="47" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="47"/>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="47"/>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="47"/>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="47"/>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="47"/>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="47"/>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="47"/>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="47"/>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="47"/>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="47"/>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="47"/>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="47"/>
-    </row>
-    <row r="68" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="D68" s="46">
+      <c r="D68" s="44">
         <v>1850</v>
       </c>
-      <c r="E68" s="47" t="s">
+      <c r="E68" s="45" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="47"/>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="47"/>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="47"/>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="47"/>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="47"/>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="47"/>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="47"/>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="47"/>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="47"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="45"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="45"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="45"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="45"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="45"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="45"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="42"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="45"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="42"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="45"/>
     </row>
     <row r="78" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D78" s="1">
         <v>2000</v>
       </c>
-      <c r="E78" s="43" t="str">
+      <c r="E78" s="41" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A78,B78 )</f>
         <v>𝐍ế𝐮 𝐞𝐦 𝐭𝐡𝐢́𝐜𝐡 𝐬ự 𝐥𝐚̃𝐧𝐠 𝐦ạ𝐧 𝐜ủ𝐚 𝐂𝐡𝐚̂𝐮 𝐀̂𝐮 𝐡𝐚̃𝐲 đế𝐧 đ𝐚̂𝐲 𝐯ớ𝐢 𝐚𝐧𝐡✨</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A79" s="35" t="s">
+      <c r="A79" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3317,13 +3990,13 @@
       <c r="D79" s="1">
         <v>1900</v>
       </c>
-      <c r="E79" s="43" t="str">
+      <c r="E79" s="41" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A79,B79 )</f>
         <v>Bộ Chăn Ga Cao Cấp Cologne - Gấm Thượng Hạng</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -3335,13 +4008,13 @@
       <c r="D80" s="1">
         <v>1850</v>
       </c>
-      <c r="E80" s="42" t="str">
+      <c r="E80" s="40" t="str">
         <f t="shared" ref="E80:E81" si="0">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A80,B80 )</f>
         <v>🌟YOUNG｜2024 Xuân Hè - Bộ sưu tập Playful</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -3353,13 +4026,13 @@
       <c r="D81" s="1">
         <v>1700</v>
       </c>
-      <c r="E81" s="42" t="str">
+      <c r="E81" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Young Summer Tencel 🪷🪷</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3371,49 +4044,49 @@
       <c r="D82" s="1">
         <v>2600</v>
       </c>
-      <c r="E82" s="42" t="str">
+      <c r="E82" s="40" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A82,B82 )</f>
         <v>Cologne</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A83" s="36" t="s">
+      <c r="A83" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D83" s="1">
         <v>1550</v>
       </c>
-      <c r="E83" s="42" t="str">
+      <c r="E83" s="40" t="str">
         <f t="shared" ref="E83:E146" si="1">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A83,B83 )</f>
         <v>𝕐𝕖𝕤𝕊𝕒𝕚𝕟𝕥𝕃𝕒𝕦𝕣𝕖𝕟𝕥🍒🍒</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="36" t="s">
+    <row r="84" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A84" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D84" s="1">
         <v>460</v>
       </c>
-      <c r="E84" s="42" t="str">
+      <c r="E84" s="40" t="str">
         <f t="shared" si="1"/>
         <v>𝗗𝗿𝗲𝗮𝗺 𝗰𝗶𝘁𝘆</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3422,88 +4095,88 @@
       <c r="C85" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D85" s="28">
+      <c r="D85" s="26">
         <v>1850</v>
       </c>
-      <c r="E85" s="43" t="str">
+      <c r="E85" s="41" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A85,B85 )</f>
         <v>Tencel 𝓒𝓮𝓵𝓵𝓾𝓵𝓸𝓼𝓮 ✨✨✨</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="36" t="s">
+    <row r="86" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A86" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D86" s="1">
         <v>670</v>
       </c>
-      <c r="E86" s="42" t="str">
+      <c r="E86" s="40" t="str">
         <f t="shared" si="1"/>
         <v>🌈 𝓒𝓐𝓟𝓟𝓨𝓟𝓐𝓡𝓐</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A87" s="36" t="s">
+      <c r="A87" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D87" s="1">
         <v>1850</v>
       </c>
-      <c r="E87" s="42" t="str">
+      <c r="E87" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Graceful Silken Nights ✨✨</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A88" s="36" t="s">
+      <c r="A88" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D88" s="1">
         <v>1850</v>
       </c>
-      <c r="E88" s="42" t="str">
+      <c r="E88" s="40" t="str">
         <f t="shared" si="1"/>
         <v>ᴘʀᴇsᴛɪɢᴇ ᴄᴏᴍғᴏʀᴛ ✨✨</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E89" s="42" t="str">
+        <v>263</v>
+      </c>
+      <c r="E89" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Set đũi 5 món chăn hè</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A90" s="37" t="s">
+      <c r="A90" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -3515,31 +4188,31 @@
       <c r="D90" s="1">
         <v>1750</v>
       </c>
-      <c r="E90" s="42" t="str">
+      <c r="E90" s="40" t="str">
         <f t="shared" si="1"/>
         <v>𝗛𝗮𝘃𝗲 𝗮 𝗚𝗿𝗲𝗮𝘁 𝗱𝗮𝘆</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D91" s="28">
+        <v>245</v>
+      </c>
+      <c r="D91" s="26">
         <v>1750</v>
       </c>
-      <c r="E91" s="42" t="str">
+      <c r="E91" s="40" t="str">
         <f t="shared" si="1"/>
         <v>𝓝𝓪𝓽𝓾𝓻𝓮 𝓡𝓮𝓣𝓻𝓮𝓪𝓽</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A92" s="37" t="s">
+      <c r="A92" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -3551,7 +4224,7 @@
       <c r="D92" s="1">
         <v>1700</v>
       </c>
-      <c r="E92" s="42" t="str">
+      <c r="E92" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Light Home ButterFly Tencel✨</v>
       </c>
@@ -3566,28 +4239,28 @@
       <c r="C93" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D93" s="28">
+      <c r="D93" s="26">
         <v>1600</v>
       </c>
-      <c r="E93" s="43" t="str">
+      <c r="E93" s="41" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A93,B93 )</f>
         <v>𝙉𝙚𝙬 𝙝𝙤𝙪𝙨𝙚</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="22" t="s">
-        <v>281</v>
+      <c r="B94" s="20" t="s">
+        <v>279</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D94" s="1">
         <v>670</v>
       </c>
-      <c r="E94" s="42" t="str">
+      <c r="E94" s="40" t="str">
         <f t="shared" si="1"/>
         <v>cotton living bán quanh năm luôn sẵn hàng :)) :)) :))</v>
       </c>
@@ -3597,33 +4270,33 @@
         <v>29</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D95" s="1">
         <v>1750</v>
       </c>
-      <c r="E95" s="42" t="str">
+      <c r="E95" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Ephan Summer Tencel 🌺</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D96" s="1">
         <v>580</v>
       </c>
-      <c r="E96" s="42" t="str">
+      <c r="E96" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Lavie est belle🌿</v>
       </c>
@@ -3633,15 +4306,15 @@
         <v>31</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D97" s="28">
+        <v>282</v>
+      </c>
+      <c r="D97" s="26">
         <v>1850</v>
       </c>
-      <c r="E97" s="42" t="str">
+      <c r="E97" s="40" t="str">
         <f t="shared" si="1"/>
         <v>𝗘𝗣𝗛𝗔𝗡 𝗛𝗢𝗨𝗦𝗘</v>
       </c>
@@ -3651,51 +4324,51 @@
         <v>32</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D98" s="1">
         <v>1700</v>
       </c>
-      <c r="E98" s="42" t="str">
+      <c r="E98" s="40" t="str">
         <f t="shared" si="1"/>
         <v>⛅️𝓣𝓮𝓷𝓬𝓮𝓵 𝓟𝓻𝓲𝓷𝓬𝓮𝓼𝓼</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D99" s="1">
         <v>1160</v>
       </c>
-      <c r="E99" s="42" t="str">
+      <c r="E99" s="40" t="str">
         <f t="shared" si="1"/>
         <v>𝗡𝗲𝘄 𝗧𝗲𝗻𝗰𝗲𝗹 𝗖𝗼𝗹𝗹𝗲𝗰𝘁𝗶𝗼𝗻</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D100" s="1">
         <v>720</v>
       </c>
-      <c r="E100" s="42" t="str">
+      <c r="E100" s="40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Natural Velvet milk☁️☁️2024 </v>
       </c>
@@ -3705,33 +4378,33 @@
         <v>35</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D101" s="1">
         <v>1850</v>
       </c>
-      <c r="E101" s="42" t="str">
+      <c r="E101" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Cologne Gấm Hoàng Gia ✨✨</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A102" s="36" t="s">
+      <c r="A102" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D102" s="1">
         <v>1650</v>
       </c>
-      <c r="E102" s="43" t="str">
+      <c r="E102" s="41" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A102,B102 )</f>
         <v>🐆🐆Bộ chăn ga Positive Roma Leopard</v>
       </c>
@@ -3741,15 +4414,15 @@
         <v>37</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D103" s="1">
         <v>2150</v>
       </c>
-      <c r="E103" s="42" t="str">
+      <c r="E103" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Cologne  ✨✨✨</v>
       </c>
@@ -3759,15 +4432,15 @@
         <v>38</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D104" s="1">
         <v>1170</v>
       </c>
-      <c r="E104" s="42" t="str">
+      <c r="E104" s="40" t="str">
         <f t="shared" si="1"/>
         <v>𝗠𝗶𝗻 𝗺𝗶𝗻</v>
       </c>
@@ -3777,135 +4450,135 @@
         <v>39</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D105" s="1">
         <v>1500</v>
       </c>
-      <c r="E105" s="42" t="str">
+      <c r="E105" s="40" t="str">
         <f t="shared" si="1"/>
         <v>LAZY CAT - Cotton Sateen 80s</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A106" s="37" t="s">
+      <c r="A106" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D106" s="1">
         <v>1800</v>
       </c>
-      <c r="E106" s="42" t="str">
+      <c r="E106" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Bộ chăn ga LeoPard 120s Sateen</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B107" s="38" t="s">
-        <v>389</v>
+      <c r="B107" s="36" t="s">
+        <v>387</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D107" s="1">
         <v>270</v>
       </c>
-      <c r="E107" s="42" t="str">
+      <c r="E107" s="40" t="str">
         <f t="shared" si="1"/>
         <v>𝗧𝗶𝗰𝗶 𝗻𝗼𝘁𝗮𝗴</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="4"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E108" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="4"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E109" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="4"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E110" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="4"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E111" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="4"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E112" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="4"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E113" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="4"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="42">
+      <c r="E114" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3915,15 +4588,15 @@
         <v>49</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D115" s="1">
         <v>1850</v>
       </c>
-      <c r="E115" s="42" t="str">
+      <c r="E115" s="40" t="str">
         <f t="shared" si="1"/>
         <v>✨ CHĂN GA LỤA THÊU BÁNH BÈO – NÀNG CÔNG CHÚA TRONG MƠ ✨</v>
       </c>
@@ -3933,33 +4606,33 @@
         <v>50</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D116" s="1">
         <v>2000</v>
       </c>
-      <c r="E116" s="42" t="str">
+      <c r="E116" s="40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">🌟 EPHANHOUES  BST  Lụa Gấm Cao Cấp Mới </v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D117" s="1">
         <v>1100</v>
       </c>
-      <c r="E117" s="42" t="str">
+      <c r="E117" s="40" t="str">
         <f t="shared" si="1"/>
         <v>Sportbird 50s seri 15🌱</v>
       </c>
@@ -3969,34 +4642,34 @@
         <v>52</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D118" s="1">
         <v>2200</v>
       </c>
-      <c r="E118" s="42" t="str">
+      <c r="E118" s="40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">𝗠𝗶𝗻 𝗺𝗶𝗻 
 Đáng yêu như Min Min - Thắp ánh đèn bật tình yêu lên </v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D119" s="1">
         <v>800</v>
       </c>
-      <c r="E119" s="42" t="str">
+      <c r="E119" s="40" t="str">
         <f t="shared" si="1"/>
         <v>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁</v>
       </c>
@@ -4006,15 +4679,15 @@
         <v>54</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D120" s="1">
         <v>2190</v>
       </c>
-      <c r="E120" s="42" t="str">
+      <c r="E120" s="40" t="str">
         <f t="shared" si="1"/>
         <v>💁‍♀️ Set chăn ga gối Lụa 100s  thêu hoa thật đẹp và tinh tế, đẳng cấp thêu trên nền vải lụa Hơn cả 1 tác phẩm nghệ thuật đương đại</v>
       </c>
@@ -4024,675 +4697,1388 @@
         <v>55</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D121" s="1">
         <v>2400</v>
       </c>
-      <c r="E121" s="42" t="str">
+      <c r="E121" s="40" t="str">
         <f t="shared" si="1"/>
         <v>TENCEL PIMA</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="4"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E122" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="4"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E123" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="4"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E124" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="4"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E125" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="4"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E126" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D127" s="1">
         <v>600</v>
       </c>
-      <c r="E127" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E127" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D128" s="1">
         <v>700</v>
       </c>
-      <c r="E128" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E128" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D129" s="1">
         <v>400</v>
       </c>
-      <c r="E129" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E129" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D130" s="1">
         <v>400</v>
       </c>
-      <c r="E130" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E130" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D131" s="1">
         <v>700</v>
       </c>
-      <c r="E131" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E131" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D132" s="1">
         <v>720</v>
       </c>
-      <c r="E132" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="300" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E132" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D133" s="1">
         <v>460</v>
       </c>
-      <c r="E133" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E133" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B134" s="1"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D134" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E134" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>TENCEL PIMA</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D135" s="1">
+        <v>2100</v>
+      </c>
+      <c r="E135" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>nghệ thuật đương đại</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B136" s="1"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E136" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Siêu đẹp các bác ơi 📣📣 2025 💯</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B137" s="1"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D137" s="1">
+        <v>800</v>
+      </c>
+      <c r="E137" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B138" s="1"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D138" s="1">
+        <v>530</v>
+      </c>
+      <c r="E138" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>💎 LỤA THÁI SIÊU CẤP – SỰ LỰA CHỌN HOÀN HẢO CHO GIẤC NGỦ HOÀNG GIA 💎</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B139" s="1"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D139" s="1">
+        <v>2200</v>
+      </c>
+      <c r="E139" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">𝗠𝗶𝗻 𝗺𝗶𝗻 
+Đáng yêu như Min Min - Thắp ánh đèn bật tình yêu lên </v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E140" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>🌟 EPHANHOUES  BST  Lụa Gấm Cao Cấp Mới 🌟</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1850</v>
+      </c>
+      <c r="E141" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">✨ CHĂN GA LỤA THÊU BÁNH BÈO – NÀNG CÔNG CHÚA TRONG MƠ </v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D142" s="1">
+        <v>2700</v>
+      </c>
+      <c r="E142" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Cologne Silk Flower💐</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B143" s="1"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D143" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E143" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>Wish Design Tencel ⭐️</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B144" s="1"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1950</v>
+      </c>
+      <c r="E144" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">𝓜𝓪𝓻𝓴𝓬𝓻𝓸𝓼𝓼
+🌸 Lụa Thêu Nước Hoa Dior - Sự hòa quyện giữa sắc nét và mềm mại! </v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B145" s="1"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E145" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>BỘ SƯU TẬP TENCEL BASIC – THANH LỊCH &amp; TINH TẾ</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E146" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>𝗟𝗮𝗯𝘂𝗯𝘂 , 𝗖𝗮𝗽𝘆 𝗕𝗮𝗿𝗮, 𝗕𝗮𝗯𝘆 𝗧𝗵𝗿𝗲𝗲, 𝗧𝗲𝗱𝘆 𝗕𝗲𝗮𝗿</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="42">
+      <c r="B147" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E147" s="40" t="str">
         <f t="shared" ref="E147:E169" si="2">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A147,B147 )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>Họa Tiết Nghệ Thuật Huyền Diệu</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B148" s="1"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="42">
+      <c r="C148" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D148" s="1">
+        <v>500</v>
+      </c>
+      <c r="E148" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="42">
+      <c r="B149" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D149" s="1">
+        <v>2300</v>
+      </c>
+      <c r="E149" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>🌿 Leafy Luxe Gấm Cao Cấp</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B150" s="1"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="42">
+      <c r="B150" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E150" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>𝐋𝐈𝐆𝐇𝐓𝐖𝐀𝐍𝐆｜Spring &amp; Summer 2025 Collection</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B151" s="1"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="42">
+      <c r="B151" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E151" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YOUNG｜Bộ sưu tập Xuân Hè 2025</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B152" s="1"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="42">
+      <c r="C152" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D152" s="1">
+        <v>480</v>
+      </c>
+      <c r="E152" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B153" s="1"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="42">
+      <c r="B153" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D153" s="1">
+        <v>600</v>
+      </c>
+      <c r="E153" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B154" s="1"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="42">
+      <c r="C154" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D154" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E154" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B155" s="1"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E155" s="40" t="b">
+        <f>'Vỏ GA | Vỏ Gối'!E2=HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A155,B155 )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B156" s="1"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="42">
+      <c r="C156" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1800</v>
+      </c>
+      <c r="E156" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B157" s="1"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="42">
+      <c r="C157" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D157" s="1">
+        <v>400</v>
+      </c>
+      <c r="E157" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B158" s="1"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="42">
+      <c r="C158" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E158" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B159" s="1"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="42">
+      <c r="C159" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D159" s="1">
+        <v>450</v>
+      </c>
+      <c r="E159" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B160" s="1"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="42">
+      <c r="C160" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E160" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B161" s="1"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="42">
+      <c r="B161" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1850</v>
+      </c>
+      <c r="E161" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>✨ ĐẲNG CẤP TINH TẾ – CHẠM LỤA, CHẠM ĐẲNG CẤP ✨
+Bộ chăn ga lụa 80s thêu vân chìm – Sang trọng trong từng chi tiết</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B162" s="1"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="42">
+      <c r="C162" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1850</v>
+      </c>
+      <c r="E162" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B163" s="1"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="42">
+      <c r="B163" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D163" s="1">
+        <v>2300</v>
+      </c>
+      <c r="E163" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>✨ NEW ARRIVAL | DÒNG 3D THÊU ÁNH KIM CAO CẤP ✨</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="4"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="42">
+      <c r="E164" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="4"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="42">
+      <c r="E165" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="4"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="42">
+      <c r="E166" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="4"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="42">
+      <c r="E167" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="4"/>
       <c r="D168" s="1"/>
-      <c r="E168" s="42">
+      <c r="E168" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="4"/>
       <c r="D169" s="1"/>
-      <c r="E169" s="42">
+      <c r="E169" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E170" s="16"/>
-    </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E171" s="16"/>
-    </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E172" s="16"/>
-    </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E173" s="16"/>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E174" s="16"/>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E175" s="16"/>
-    </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E176" s="16"/>
-    </row>
-    <row r="177" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E177" s="16"/>
-    </row>
-    <row r="178" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E178" s="16"/>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="40">
+        <f t="shared" ref="E170:E179" si="3">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A170,B170 )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="40">
+        <f t="shared" ref="E180:E219" si="4">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A180,B180 )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D178" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1170"/>
-        <filter val="1500"/>
-        <filter val="1550"/>
-        <filter val="1600"/>
-        <filter val="1650"/>
-        <filter val="1700"/>
-        <filter val="1750"/>
-        <filter val="1800"/>
-        <filter val="1850"/>
-        <filter val="1900"/>
-        <filter val="1950"/>
-        <filter val="2000"/>
-        <filter val="2150"/>
-        <filter val="2190"/>
-        <filter val="2200"/>
-        <filter val="2300"/>
-        <filter val="2400"/>
-        <filter val="2600"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D178" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}"/>
   <mergeCells count="35">
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="E2:E11"/>
@@ -4746,39 +6132,530 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93053678-9198-4A15-B9ED-55EB338609EC}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C48B2C-3B71-4A97-889A-14151471C093}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>242</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://github.com/duonglc27092000/ChanGa" xr:uid="{0A239421-4BB3-4233-A947-6C8B5FCBA32B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73F632F-A097-45E3-8E24-2D0C9EE23955}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="125.85546875" style="68" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="67">
+        <f>HYPERLINK("F:\ChanGa_Personal\VOGAVOGOI\" &amp; A2,B2 )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E3" s="67">
+        <f t="shared" ref="E3:E39" si="0">HYPERLINK("F:\ChanGa_Personal\VOGAVOGOI\" &amp; A3,B3 )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91D16C2-792D-474A-819C-DD60A0C5D57B}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4798,7 +6675,7 @@
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="14" t="s">
@@ -4813,15 +6690,15 @@
         <v>104</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>264</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="E2" s="21" t="str">
+        <v>265</v>
+      </c>
+      <c r="E2" s="19" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\CL\" &amp; A2,B2 )</f>
         <v>Chăn Tencel cho bé</v>
       </c>
@@ -4831,15 +6708,15 @@
         <v>105</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D3" s="14">
         <v>280</v>
       </c>
-      <c r="E3" s="21" t="str">
+      <c r="E3" s="19" t="str">
         <f t="shared" ref="E3:E50" si="0">HYPERLINK("F:\ChanGa_Personal\CL\" &amp; A3,B3 )</f>
         <v xml:space="preserve">𝗛𝗼𝘂𝘀𝗲 𝗕𝗲𝗮𝘂𝘁𝘆 </v>
       </c>
@@ -4849,15 +6726,15 @@
         <v>106</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D4" s="14">
         <v>700</v>
       </c>
-      <c r="E4" s="21" t="str">
+      <c r="E4" s="19" t="str">
         <f t="shared" si="0"/>
         <v>💥 BÙNG NỔ VỚI SIÊU PHẨM CHĂN TENCEL CAO CẤP 2025 -Tơ Tằm Thượng Hải 🍃🍃</v>
       </c>
@@ -4867,9 +6744,9 @@
         <v>107</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4878,16 +6755,16 @@
       <c r="A6" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>410</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="B6" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" s="25">
         <v>560</v>
       </c>
-      <c r="E6" s="21" t="str">
+      <c r="E6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>𝗣𝗹𝗮𝗻𝗲𝘁 𝗦𝗹𝗲𝗲𝗽𝗣𝗹𝗮𝗻𝗲𝘁 𝗦𝗹𝗲𝗲𝗽</v>
       </c>
@@ -4897,15 +6774,15 @@
         <v>109</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="E7" s="21" t="str">
+        <v>410</v>
+      </c>
+      <c r="E7" s="19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Gối lông vũ nhân tạo phiên bản Sờ leo </v>
       </c>
@@ -4915,39 +6792,42 @@
         <v>110</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Full bộ ruột tơ tằm viền vàng bán bao nhiêu bộ luôn cứ cưới xin gì mua full bộ cứ dùng luôn bộ này các bác</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="C9" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>394</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Sportbird 50s seri 15🌱
+Telcel summer💧💧</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="24"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4957,9 +6837,9 @@
         <v>113</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="24"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4969,9 +6849,9 @@
         <v>114</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="24"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4981,9 +6861,9 @@
         <v>115</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="24"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4993,9 +6873,9 @@
         <v>116</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="24"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5005,9 +6885,9 @@
         <v>117</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="24"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5017,9 +6897,9 @@
         <v>118</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="24"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5029,9 +6909,9 @@
         <v>119</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="24"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5041,9 +6921,9 @@
         <v>120</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="24"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5053,9 +6933,9 @@
         <v>121</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="24"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="21">
+      <c r="E19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5065,9 +6945,9 @@
         <v>122</v>
       </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="24"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5077,9 +6957,9 @@
         <v>123</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="24"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="21">
+      <c r="E21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5089,9 +6969,9 @@
         <v>124</v>
       </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="24"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5101,9 +6981,9 @@
         <v>125</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="24"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5113,9 +6993,9 @@
         <v>126</v>
       </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="24"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5125,9 +7005,9 @@
         <v>127</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="24"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5137,9 +7017,9 @@
         <v>128</v>
       </c>
       <c r="B26" s="14"/>
-      <c r="C26" s="24"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5149,9 +7029,9 @@
         <v>129</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="24"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5161,9 +7041,9 @@
         <v>130</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="24"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5173,9 +7053,9 @@
         <v>131</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="24"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5185,9 +7065,9 @@
         <v>132</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="24"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5197,9 +7077,9 @@
         <v>133</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="24"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="21">
+      <c r="E31" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5209,9 +7089,9 @@
         <v>134</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="24"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5221,9 +7101,9 @@
         <v>135</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="24"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5233,9 +7113,9 @@
         <v>136</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="24"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="21">
+      <c r="E34" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5245,9 +7125,9 @@
         <v>137</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="24"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="21">
+      <c r="E35" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5257,9 +7137,9 @@
         <v>138</v>
       </c>
       <c r="B36" s="14"/>
-      <c r="C36" s="24"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="21">
+      <c r="E36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5269,9 +7149,9 @@
         <v>139</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="24"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="21">
+      <c r="E37" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5281,9 +7161,9 @@
         <v>140</v>
       </c>
       <c r="B38" s="14"/>
-      <c r="C38" s="24"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5293,9 +7173,9 @@
         <v>141</v>
       </c>
       <c r="B39" s="14"/>
-      <c r="C39" s="24"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="21">
+      <c r="E39" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5305,9 +7185,9 @@
         <v>142</v>
       </c>
       <c r="B40" s="14"/>
-      <c r="C40" s="24"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="21">
+      <c r="E40" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5317,9 +7197,9 @@
         <v>143</v>
       </c>
       <c r="B41" s="14"/>
-      <c r="C41" s="24"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="21">
+      <c r="E41" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5329,9 +7209,9 @@
         <v>144</v>
       </c>
       <c r="B42" s="14"/>
-      <c r="C42" s="24"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="21">
+      <c r="E42" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5341,9 +7221,9 @@
         <v>145</v>
       </c>
       <c r="B43" s="14"/>
-      <c r="C43" s="24"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="21">
+      <c r="E43" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5353,9 +7233,9 @@
         <v>146</v>
       </c>
       <c r="B44" s="14"/>
-      <c r="C44" s="24"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="21">
+      <c r="E44" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5365,9 +7245,9 @@
         <v>147</v>
       </c>
       <c r="B45" s="14"/>
-      <c r="C45" s="24"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="21">
+      <c r="E45" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5377,9 +7257,9 @@
         <v>148</v>
       </c>
       <c r="B46" s="14"/>
-      <c r="C46" s="24"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="21">
+      <c r="E46" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5389,9 +7269,9 @@
         <v>149</v>
       </c>
       <c r="B47" s="14"/>
-      <c r="C47" s="24"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="21">
+      <c r="E47" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5401,9 +7281,9 @@
         <v>150</v>
       </c>
       <c r="B48" s="14"/>
-      <c r="C48" s="24"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="21">
+      <c r="E48" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5413,9 +7293,9 @@
         <v>151</v>
       </c>
       <c r="B49" s="14"/>
-      <c r="C49" s="24"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="21">
+      <c r="E49" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5425,456 +7305,10 @@
         <v>152</v>
       </c>
       <c r="B50" s="14"/>
-      <c r="C50" s="24"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0089B246-D457-4CCE-BBA6-B06201E0BBE6}">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71" style="26" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="21" t="str">
-        <f t="shared" ref="E2:E9" si="0">HYPERLINK("F:\ChanGa_Personal\RUOTCHAN\" &amp; A2,B2 )</f>
-        <v>𝗚𝗼𝗹𝗱𝗲𝗻 𝗤𝘂𝗶𝗹𝘁</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="D3" s="14">
-        <v>480</v>
-      </c>
-      <c r="E3" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">ruột chăn muji kèm túi </v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="27">
-        <v>800</v>
-      </c>
-      <c r="E4" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>ruột chăn gabel và tơ tằm viền vàng</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E5" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">ruột chăn sheridan </v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1580</v>
-      </c>
-      <c r="E6" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">ruột chăn cao cấp tơ tằm vân chìm bướm và hoa nhí </v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1150</v>
-      </c>
-      <c r="E7" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>ruột chăn tơ tằm vân chìm</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D8" s="1">
-        <v>950</v>
-      </c>
-      <c r="E8" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>💥Ruột chăn hè thu SUPER SOFT nhập khẩu tinh tế từng đường kim mũi chỉ ✨</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="D9" s="13">
-        <v>800</v>
-      </c>
-      <c r="E9" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>𝗠𝗢𝗡𝗖𝗟𝗘𝗥</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="21">
-        <f t="shared" ref="E11:E31" si="1">HYPERLINK("F:\ChanGa_Personal\RUOTCHAN\" &amp; A11,B11 )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="21">
-        <f t="shared" si="1"/>
+      <c r="E50" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5886,11 +7320,474 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0089B246-D457-4CCE-BBA6-B06201E0BBE6}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71" style="24" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="19" t="str">
+        <f t="shared" ref="E2:E10" si="0">HYPERLINK("F:\ChanGa_Personal\RUOTCHAN\" &amp; A2,B2 )</f>
+        <v>𝗚𝗼𝗹𝗱𝗲𝗻 𝗤𝘂𝗶𝗹𝘁</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="14">
+        <v>480</v>
+      </c>
+      <c r="E3" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ruột chăn muji kèm túi </v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="25">
+        <v>800</v>
+      </c>
+      <c r="E4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>ruột chăn gabel và tơ tằm viền vàng</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ruột chăn sheridan </v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1580</v>
+      </c>
+      <c r="E6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ruột chăn cao cấp tơ tằm vân chìm bướm và hoa nhí </v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1150</v>
+      </c>
+      <c r="E7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>ruột chăn tơ tằm vân chìm</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="1">
+        <v>950</v>
+      </c>
+      <c r="E8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>💥Ruột chăn hè thu SUPER SOFT nhập khẩu tinh tế từng đường kim mũi chỉ ✨</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="D9" s="13">
+        <v>800</v>
+      </c>
+      <c r="E9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>𝗠𝗢𝗡𝗖𝗟𝗘𝗥</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>𝐋’𝐌 𝐌𝐄𝐒𝐄𝐑 | ĐỈNH CAO GIẤC NGỦ SẠCH &amp; THUẦN KHIẾT ✨</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="E11" s="19">
+        <f t="shared" ref="E11:E31" si="1">HYPERLINK("F:\ChanGa_Personal\RUOTCHAN\" &amp; A11,B11 )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" s="1">
+        <v>950</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8069A21-3383-4151-AB2E-581D906FD6A7}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="A1:E29"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5898,8 +7795,8 @@
     <col min="1" max="1" width="8.85546875" style="2"/>
     <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="13"/>
-    <col min="5" max="5" width="13.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="16" customWidth="1"/>
     <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
@@ -5916,7 +7813,7 @@
       <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5939,19 +7836,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="30">
         <v>210</v>
       </c>
-      <c r="E3" s="33" t="str">
+      <c r="E3" s="31" t="str">
         <f t="shared" ref="E3:E10" si="0">HYPERLINK("F:\ChanGa_Personal\GL\" &amp; A3, B3)</f>
         <v>Gối Lụa cao cấp Soybean</v>
       </c>
@@ -5964,7 +7861,7 @@
         <v>228</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D4" s="14">
         <v>310</v>
@@ -6051,15 +7948,15 @@
         <v>160</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E9" s="18" t="str">
+      <c r="E9" s="17" t="str">
         <f xml:space="preserve"> HYPERLINK("F:\ChanGa_Personal\GL\" &amp; A9,B9)</f>
         <v xml:space="preserve">𝓢𝓸𝔂𝓫𝓮𝓪𝓷 </v>
       </c>
@@ -6069,10 +7966,10 @@
         <v>161</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D10" s="14">
         <v>190</v>
@@ -6084,13 +7981,13 @@
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D11" s="14">
         <v>1000</v>
@@ -6102,13 +7999,13 @@
     </row>
     <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D12" s="14">
         <v>150</v>
@@ -6120,13 +8017,13 @@
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D13" s="14">
         <v>180</v>
@@ -6138,16 +8035,16 @@
     </row>
     <row r="14" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>377</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>379</v>
       </c>
       <c r="E14" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6156,16 +8053,16 @@
     </row>
     <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E15" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6174,7 +8071,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="8"/>
@@ -6186,16 +8083,16 @@
     </row>
     <row r="17" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>407</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>409</v>
       </c>
       <c r="E17" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6204,7 +8101,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="8"/>
@@ -6216,7 +8113,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="8"/>
@@ -6226,13 +8123,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="E20" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6240,47 +8141,57 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="E21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>547</v>
+      </c>
       <c r="E24" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6288,7 +8199,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="8"/>
@@ -6300,7 +8211,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="8"/>
@@ -6312,7 +8223,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="8"/>
@@ -6324,7 +8235,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="8"/>
@@ -6336,7 +8247,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="8"/>
@@ -6352,12 +8263,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB607AA5-F627-436A-BA6E-931B66090DEC}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6382,366 +8293,366 @@
       <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="8"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <f t="shared" ref="E2:E27" si="0">HYPERLINK("F:\ChanGa_Personal\CDH\" &amp; A2, B2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="18">
+        <v>433</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="8"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="8"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="8"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="8"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="8"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="4"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="8"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="8"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="8"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="8"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="8"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="8"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="8"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="8"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="8"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="8"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="8"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="8"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="8"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="8"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="8"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="8"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="8"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="8"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="18">
+      <c r="E27" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="8"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="18">
+      <c r="E28" s="17">
         <f>HYPERLINK("F:\ChanGa_Personal\CDH\" &amp; A28, B28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="8"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="18">
+      <c r="E29" s="17">
         <f t="shared" ref="E29:E31" si="1">HYPERLINK("F:\ChanGa_Personal\CDH\" &amp; A29, B29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="8"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="18">
+      <c r="E30" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="8"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="18">
+      <c r="E31" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6752,11 +8663,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28312F12-21EC-414C-BDD6-AC87E5B30B90}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -6786,7 +8697,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="21">
+      <c r="E2" s="19">
         <f>HYPERLINK("F:\ChanGa_Personal\DEM\" &amp; A2,B2 )</f>
         <v>0</v>
       </c>
@@ -6798,7 +8709,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <f t="shared" ref="E3:E10" si="0">HYPERLINK("F:\ChanGa_Personal\DEM\" &amp; A3,B3 )</f>
         <v>0</v>
       </c>
@@ -6810,7 +8721,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6822,7 +8733,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6834,7 +8745,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6846,7 +8757,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6858,7 +8769,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6870,7 +8781,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6882,7 +8793,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6893,11 +8804,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F54597-D71E-4B44-BDD9-B475B7DF126C}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -6930,7 +8841,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="21">
+      <c r="E2" s="19">
         <f>HYPERLINK("F:\ChanGa_Personal\CHIEU\" &amp; A2,B2 )</f>
         <v>0</v>
       </c>
@@ -6942,7 +8853,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <f t="shared" ref="E3:E20" si="0">HYPERLINK("F:\ChanGa_Personal\CHIEU\" &amp; A3,B3 )</f>
         <v>0</v>
       </c>
@@ -6954,7 +8865,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6966,7 +8877,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6978,7 +8889,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6990,7 +8901,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7002,7 +8913,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7014,7 +8925,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7026,7 +8937,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7038,7 +8949,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7050,7 +8961,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7062,7 +8973,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7074,7 +8985,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7086,7 +8997,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7098,7 +9009,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7110,7 +9021,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7122,7 +9033,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7134,7 +9045,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="21">
+      <c r="E19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7146,139 +9057,139 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="21">
+      <c r="E21" s="19">
         <f t="shared" ref="E21:E31" si="1">HYPERLINK("F:\ChanGa_Personal\CHIEU\" &amp; A21,B21 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="21">
+      <c r="E31" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7289,7 +9200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6D33B1-A5FD-4C23-91D0-9E2867EE2372}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -7404,24 +9315,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C48B2C-3B71-4A97-889A-14151471C093}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ID_SanPham._ChanGa.xlsx
+++ b/ID_SanPham._ChanGa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChanGa_Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B59992-AA11-4C6B-86C4-90AC07AD3C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3975A145-AB04-4D9D-BE77-AE325349795C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6F5E742-A921-4C78-A2CA-E7DD1F27105C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{D6F5E742-A921-4C78-A2CA-E7DD1F27105C}"/>
   </bookViews>
   <sheets>
     <sheet name="SetChanGa" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="688">
   <si>
     <t>ID</t>
   </si>
@@ -550,63 +550,6 @@
   </si>
   <si>
     <t>DEM009</t>
-  </si>
-  <si>
-    <t>CHIEU001</t>
-  </si>
-  <si>
-    <t>CHIEU002</t>
-  </si>
-  <si>
-    <t>CHIEU003</t>
-  </si>
-  <si>
-    <t>CHIEU004</t>
-  </si>
-  <si>
-    <t>CHIEU005</t>
-  </si>
-  <si>
-    <t>CHIEU006</t>
-  </si>
-  <si>
-    <t>CHIEU007</t>
-  </si>
-  <si>
-    <t>CHIEU008</t>
-  </si>
-  <si>
-    <t>CHIEU009</t>
-  </si>
-  <si>
-    <t>CHIEU010</t>
-  </si>
-  <si>
-    <t>CHIEU011</t>
-  </si>
-  <si>
-    <t>CHIEU012</t>
-  </si>
-  <si>
-    <t>CHIEU013</t>
-  </si>
-  <si>
-    <t>CHIEU014</t>
-  </si>
-  <si>
-    <t>CHIEU015</t>
-  </si>
-  <si>
-    <t>CHIEU016</t>
-  </si>
-  <si>
-    <t>CHIEU017</t>
-  </si>
-  <si>
-    <t>CHIEU018</t>
-  </si>
-  <si>
-    <t>CHIEU019</t>
   </si>
   <si>
     <t>THAM001</t>
@@ -1016,39 +959,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>CHIEU020</t>
-  </si>
-  <si>
-    <t>CHIEU021</t>
-  </si>
-  <si>
-    <t>CHIEU022</t>
-  </si>
-  <si>
-    <t>CHIEU023</t>
-  </si>
-  <si>
-    <t>CHIEU024</t>
-  </si>
-  <si>
-    <t>CHIEU025</t>
-  </si>
-  <si>
-    <t>CHIEU026</t>
-  </si>
-  <si>
-    <t>CHIEU027</t>
-  </si>
-  <si>
-    <t>CHIEU028</t>
-  </si>
-  <si>
-    <t>CHIEU029</t>
-  </si>
-  <si>
-    <t>CHIEU030</t>
   </si>
   <si>
     <t>𝗛𝗼𝘂𝘀𝗲 𝗕𝗲𝗮𝘂𝘁𝘆 
@@ -2514,6 +2424,484 @@
   </si>
   <si>
     <t>✨ NEW ARRIVAL | DÒNG 3D THÊU ÁNH KIM CAO CẤP ✨</t>
+  </si>
+  <si>
+    <t>𝗛𝗲𝗹𝗹𝗼 𝗣𝘂𝗽𝗽𝘆
+Bộ ga trần bông siêu cưng cho team mê Cún!!
+Bạn là fan cứng của mấy bé Cún đáng yêu? Vậy thì không thể bỏ qua bộ ga trần bông Hello Puppy này đâu nha!
+Lý do phải “chốt đơn” ngay:
+✨ Thiết kế cưng xỉu – Mấy bé Cún thêu nổi 3D siêu dễ thương, nằm đâu cũng thấy yêu muốn xỉu!
+☁️ Chất vải cotton mềm mịn, nằm mát rượi, ôm giấc ngủ ngon lành mỗi tối.
+🏡 Tone màu be – xám nhẹ nhàng, phối caro xinh xắn, decor phòng bao chill luôn!
+☕ Có thêm gối caro và hoạ tiết đồng bộ – chill sáng, ngủ ngon tối!
+Combo gồm có:
+ • 1 ga trần bông
+ • 2 vỏ gối nằm
+Phù hợp với:
+ • Các bạn nữ mê phong cách Hàn Quốc
+ • Team yêu Cún muốn decor phòng siêu cấp dễ thương
+ • Mua tặng bạn bè cũng “auto được lòng”!
+Cảnh báo: Ngủ quên vì quá êm, quá dễ thương là thật đó nha
+=&gt; Chốt lẹ kẻo hết mẫu hot nha!</t>
+  </si>
+  <si>
+    <t>𝗟𝗢𝗩𝗘𝗟𝗬 𝗧𝗘𝗡𝗖𝗘𝗟
+🎁 Rực rỡ những ngày nắng, trầm ấm những ngày mưa... Tencel nâng giấc bốn mùa cho hàng triệu gia đình Việt
+💟 Set ga gối tencel 100s xứng đáng 10 điểm cả về độ phù hợp lẫn chất liệu thượng hạng. Hãy trải nghiệm ngay sự cao cấp với set tiêu chuẩn 3 món gồm:
+- 02 vỏ gối đầu 48*74cm
+- 01 Ga tấm trải freesize bo chun mọi kích thước</t>
+  </si>
+  <si>
+    <t>𝗠𝗶𝗮𝗼 𝗮𝘄𝘄𝘄𝘄
+💟 Đũi thêu mới về thêm toàn những màu đẹp xinh xuất sắc thế này,
+💚 Chất đũi mềm mịn mát với set tiêu chuẩn 4 món gồm :
+- Vỏ chăn 200*230cm
+- Ga tấm trải freesize 
+- 02 vỏ gối đầu 48*74cm</t>
+  </si>
+  <si>
+    <t>RUỘT GỐI CHỐNG THẤM – ÊM MỀM, SẠCH KHUẨN
+🛏️ Kích thước chuẩn 48x74 cm – ôm trọn giấc ngủ ngọt ngào của bạn
+🧺 Vỏ ngoài vải chống thấm, chống bám bẩn, ngăn vi khuẩn và bụi bẩn tấn công vào lõi bông
+☁️ Ruột bông sạch, êm ái, đàn hồi tốt – nằm êm như mây bay ~~~
+🎁 Bao bì thiết kế chỉn chu, sang xịn, tiện lợi cho đóng gói – quà tặng hay dùng cá nhân đều chuẩn chỉnh!
+Một chiếc gối đẹp không chỉ để nằm êm, mà còn bảo vệ sức khoẻ từng đêm dài…
+Chọn ruột gối vải chống thấm – chọn sự an tâm và giấc ngủ trọn vẹn!
+(⁎⁍̴̛ᴗ⁍̴̛⁎)</t>
+  </si>
+  <si>
+    <t>300/2</t>
+  </si>
+  <si>
+    <t>❄️ 𝐌𝐀𝐑𝐊 𝐂𝐑𝐎𝐒𝐒 2025S/S | CHẠM VÀO MÁT LẠNH, NGẮM ĐÃ LÀ MÊ
+Mùa hè năm nay, dòng Girato “Milk Tofu” mang đến làn gió mới:
+🎨 Thiết kế tối giản – phối màu Morandi cao cấp
+✨ Cảm giác mát mịn như chạm vào đậu hũ lạnh
+✅ Vải lạnh thế hệ mới, mềm – êm – mát tay ngay từ lần đầu chạm
+📉 Chỉ số làm mát Q-max lên đến 0.3, tạo cảm giác thư giãn tức thì
+🧵 Ruột chăn sợi Girato công nghệ mới, tích hợp 30% sợi hút ẩm thông minh
+→ Khô thoáng – kháng khuẩn – không bí nóng
+📏 Kích thước tiêu chuẩn: 200×230cm – dễ dùng, tiện trưng bày
+🎁 Tặng kèm hộp cứng cao cấp – nâng tầm giá trị sản phẩm và hình ảnh thương hiệu
+Mẫu chăn dành riêng cho khách hàng chuộng phong cách tinh giản, thanh lịch và yêu cảm giác mát lạnh tự nhiên.</t>
+  </si>
+  <si>
+    <t>🦆 YA COOL DUCK – Chăn hè mát lạnh công nghệ Pro 4.0
+❄️ Mát ngay khi chạm – ☁️ Êm như mây – 🌬️ Nhẹ như gió
+Trời hè oi ả, nằm chăn gì cho mát? Có Cool Duck lo hết!
+YA COOL DUCK Pro 4.0 là “vũ khí ngủ ngon” với loạt công nghệ đỉnh cao:
+• 🧊 Sợi vải lạnh Ice Touch – sờ vào mát rượi, nằm là phê
+• 🪶 Thiết kế siêu nhẹ Microgravity – nhẹ bẫng như không
+• 🤫 Không gây tiếng động – lật người không làm phiền giấc ngủ
+• 🎨 Tone màu hiện đại – decor phòng xinh, nhìn là mê
+Một chiếc chăn – giải pháp cho cả mùa hè:
+Ngủ mát – Ngủ sâu – Ngủ sang như ở resort 5 sao
+✨ YA COOL DUCK – Đắp là yêu, chạm là mê! ✨</t>
+  </si>
+  <si>
+    <t>𝓙𝓪𝓹𝓪𝓷 𝓷𝓮𝔀 𝓬𝓸𝓽𝓽𝓸𝓷 𝓵𝓲𝓷𝓮𝓷 𝓬𝓸𝓵𝓵𝓮𝓬𝓽𝓲𝓸𝓷
+Đũi cotton linen mới đến từ Nhật Bản. Hoạ tiết Hoa nhí hot trend, cùng chất vải mềm, mịn, mát mà giá chỉ chưa đến 1 củ khoai 🍠
+Set tiêu chuẩn 4 món gồm :
+- Vỏ chăn 200*230
+- Ga tấm trải freesize
+- 02 vỏ gối đầu 48*74</t>
+  </si>
+  <si>
+    <t>☀️ Hè đến mang theo tiếng ve rộn ràng, nắng vàng ươm trải đầy sân…
+Còn tụi mình thì tung tăng, bay bay, chạy ù vào phòng và nhảy phóc lên chiếc chiếu băng lạnh thêu mát rượi đây nà! ❄️
+Một chiếc chiếu nhỏ xinh, thêu hình dễ thương hết nấc:
+🐰 Thỏ hồng ngọt lịm,
+🦖 Khủng long cưng xỉu,
+👦🏻🔥 Na Tra bay lượn cực ngầu…
+Chạm tay vào chiếu là thấy mát lạnh lan toả, nằm lên là “cơn gió mát” ôm trọn lấy mình ~~ yêu không chịu nổi luôn đó! (〃∀〃)
+Mùa hè mà có một bộ chiếu mát mềm êm, thêm gối ôm béo mũm mĩm kèm theo, thì dù nắng có “chói chang muốn xỉu” tụi mình vẫn cứ chill tung trời ~~ ☁️
+Cùng ôm trọn mùa hè vào lòng với chiếu băng lạnh thêu full set siêu yêu thương nha! (｡♥‿♥｡)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+670-700-740 3 size</t>
+  </si>
+  <si>
+    <t>AMELIA
+🌬️ Chiếu Băng Lạnh Sóng Vân LW 🌟
+Khám phá sự đột phá với chiếu băng lạnh sóng vân LW, mang đến cảm giác mát lạnh chưa từng có với chất liệu sợi cold elastic cao cấp.
+Điểm nổi bật:
+❄️ Làm Mát Vượt Trội: Sợi dệt cold elastic giúp bề mặt chiếu luôn mát mẻ.
+🌊 Thoáng Khí Tối Ưu: Mặt dưới có lớp lưới điều hòa nhiệt, đảm bảo sự thoáng khí và khô ráo.
+📏 Thiết Kế Gọn Gàng: Chun bọc quanh viền giữ cho chiếu luôn cố định, không lo xô lệch.
+💤 Trải nghiệm ngay sự khác biệt để có những giấc ngủ tuyệt vời với chiếu băng lạnh sóng vân LW! ✨
+FULL SET 4 CHI TIẾT KÈM GỐI ÔM THÊU /-rose /-rose</t>
+  </si>
+  <si>
+    <t>670-700-740  3 size</t>
+  </si>
+  <si>
+    <t>𝗠𝗮𝗿𝗸𝗰𝗿𝗼𝘀𝘀 𝗜𝗰𝗲𝗰𝗼𝗼𝗹
+CHIẾU BĂNG LẠNH THÊU MARKCROSS – NGỦ NGON, MÁT LỊM CẢ MÙA HÈ ❄️
+Trời nóng như đổ lửa? Đã có chiếu băng lạnh thêu Markcross “cân team nắng nóng”!
+Vừa đẹp – vừa mát – lại còn sang xịn nữa chứ!
+Điểm cộng “đốn tim” khách hàng:
+✨ Chất liệu băng lạnh mịn mát – chạm vào là thích mê, nằm xuống là ngủ ngon ngay!
+✨ Thiết kế thêu Markcross sang trọng, sắc nét – nâng tầm không gian phòng ngủ
+✨ Dày dặn, chắc chắn, không xô lệch – bền đẹp theo năm tháng
+✨ Dễ vệ sinh, nhanh khô – tiện lợi khỏi bàn
+3 SIZE CHUẨN CHỈNH CHO MỌI LOẠI GIƯỜNG:
+ • Size 1m6 x 2m – cho giường đôi chuẩn
+ • Size 1m8 x 2m – rộng rãi, siêu thoải mái
+ • Size 2m x 2m2 – siêu to khổng lồ, cả nhà cùng chill
+Mùa hè này, đừng để giấc ngủ bị “đánh cắp” bởi cái nóng!
+Sắm ngay 1 em chiếu băng lạnh Markcross – đẹp từ trong ra ngoài, mát từ đầu giường tới cuối chiếu!
+Inbox liền tay để được tư vấn size chuẩn cho nhà mình nhé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+630-660-690 
+3 SZ HÀNG DẦY DẶN CHẤT LIỆU MÁT FULL SET CẢ GỐI ÔM</t>
+  </si>
+  <si>
+    <t>𝗠𝗮𝗿𝗸𝗰𝗿𝗼𝘀𝘀 𝗖𝗵𝗲𝗿𝗿𝘆 𝗠𝗮𝘁𝗿𝗲𝘀𝘀
+❄️ CHIẾU BĂNG LẠNH CHERRY MARKCROSS – ĐẲNG CẤP MÁT LẠNH, KHÁC BIỆT HOÀN TOÀN! ❄️
+Giữa cái nóng oi bức của mùa hè, điều bạn cần không chỉ là một giấc ngủ ngon, mà còn là một chốn nghỉ ngơi mát lạnh, êm ái và đầy đẳng cấp! Chiếu băng lạnh Cherry Markcross chính là lựa chọn hoàn hảo để biến phòng ngủ của bạn thành ốc đảo thư giãn tuyệt vời!
+✨ Vì sao Cherry Markcross KHÁC BIỆT HOÀN TOÀN với các loại chiếu băng lạnh khác?
+✅ Cảm giác mát lạnh tức thì – công nghệ băng lạnh tiên tiến giúp hấp thụ nhiệt, mang lại bề mặt luôn mát mẻ, dễ chịu.
+✅ Dày dặn &amp; êm ái vượt trội – không giống những loại chiếu mỏng manh trên thị trường, Cherry Markcross có độ dày hoàn hảo, tạo cảm giác êm lưng, hỗ trợ giấc ngủ sâu hơn.
+✅ Chất liệu cao cấp – mềm mại, mịn mát như lụa, không gây tê buốt da, phù hợp với mọi làn da nhạy cảm.
+✅ Thoáng khí tuyệt đối – không bí bách, không đổ mồ hôi lưng, giúp bạn ngủ sâu và ngon hơn trong những đêm hè oi ả.
+✅ Thiết kế Cherry Markcross độc quyền – họa tiết sang trọng, thanh lịch, tôn lên vẻ đẹp tinh tế của không gian phòng ngủ.
+✅ Bền bỉ &amp; dễ dàng vệ sinh – chống bám bụi, không nhăn, không xù lông, luôn giữ được vẻ đẹp như mới sau thời gian dài sử dụng.
+💎 Một lần chạm – Cả mùa hè dịu êm! Hãy để chiếu băng lạnh Cherry Markcross trở thành “người bạn đồng hành” giúp bạn tận hưởng từng giấc ngủ mát lành, thư thái với chất lượng KHÁC BIỆT hoàn toàn so với hàng hóa thông thường trên thị trường.</t>
+  </si>
+  <si>
+    <t>𝗧𝗿𝗶𝗽𝗹𝗲 𝗧𝗿𝗲𝗲 🌳
+[HOT HIT MÙA HÈ] – CHIẾU TENCEL LẠNH TRẦN BÔNG NHÀ TRIPLE TREE
+MÁT NHƯ NGƯỜI YÊU CŨ – MÀ ÊM HƠN NGƯỜI YÊU MỚI!
+Nóng quá? Lăn lộn không ngủ nổi? Cái quạt quay miết mà mồ hôi vẫn rơi? Đừng lo, đã có chiếu Tencel lạnh trần bông siêu phủ, siêu mát từ nhà Triple Tree cứu nguy cho mùa hè của bạn!
+Đặc điểm “mát tận rốn”, nằm là nghiện:
+ • Chất liệu Tencel xịn sò: Mịn như da crush, mát như lời tỏ tình mùa đông.
+ • Trần bông êm ru: Nằm như được ôm, không sợ đau lưng hay cấn người.
+ • Size lớn đại trà – phủ không chừa ai: Trải giường đôi, giường king, giường nguyên team ngủ chung cũng vừa luôn.
+ • Chống trượt level max: Lăn cỡ nào cũng không xô lệch – ngủ nguyên đêm không chỉnh chiếu!
+ • Dễ giặt – nhanh khô: Lười cỡ nào cũng không ngại vệ sinh.
+Chiếu Triple Tree – vũ khí bí mật giúp bạn sống sót qua hè 40 độ!
+Đừng để mùa hè “nướng” bạn trong giấc ngủ. Chốt đơn ngay – còn kịp mát!</t>
+  </si>
+  <si>
+    <t>Cập nhật chiếu ice hoạ tiết còn hàng 30/4 
+Sỉ 580 600 630
+Hơn tuần nữa e về bù đủ size sll</t>
+  </si>
+  <si>
+    <t>Sỉ 580 600 630</t>
+  </si>
+  <si>
+    <t>Cập nhật chiếu Freemondle còn hàng 30/4 
+Sỉ 710 730 760 kèm túi hãng 
+Size thiếu về bù full sll sau khoảng 5-6 hôm nữa ak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sỉ 710 730 760 kèm túi hãng </t>
+  </si>
+  <si>
+    <t>Chiếu thiên nga e về bù trước 5 màu 
+Màu ghi đen tuần nữa mới về ạ
+Sỉ710 730 760</t>
+  </si>
+  <si>
+    <t>Sỉ710 730 760</t>
+  </si>
+  <si>
+    <t>Đón hè mát lành cùng chăn hè thun lạnh hoa lá 200×230!
+❄️ Chất liệu thun lạnh mát rượi, mềm mịn, trượt tay cực thích.
+🌸 Họa tiết hoa lá nhẹ nhàng, sắc in tinh tế, thổi bừng sức sống cho căn phòng.
+❄️ Kích thước rộng 200×230cm, thoải mái cho cả gia đình yêu thương.
+🌿 Gấp gọn nhẹ, tiện lợi, dễ dàng mang theo trong những chuyến đi xa.
+Một chiếc chăn hè xinh xắn, mềm mát, là “liều vitamin hạnh phúc” cho mùa hè rực rỡ!
+#ChănThunLạnh #ChănHèHoaLá #MátRượiNgàyHè</t>
+  </si>
+  <si>
+    <t>Chiếu mây viền vải wan mei đủ size
+2/5/6/8/22
+420/450/470/490/560</t>
+  </si>
+  <si>
+    <t>CHIEU1</t>
+  </si>
+  <si>
+    <t>CHIEU2</t>
+  </si>
+  <si>
+    <t>CHIEU3</t>
+  </si>
+  <si>
+    <t>CHIEU4</t>
+  </si>
+  <si>
+    <t>CHIEU5</t>
+  </si>
+  <si>
+    <t>CHIEU6</t>
+  </si>
+  <si>
+    <t>CHIEU7</t>
+  </si>
+  <si>
+    <t>CHIEU8</t>
+  </si>
+  <si>
+    <t>CHIEU9</t>
+  </si>
+  <si>
+    <t>CHIEU10</t>
+  </si>
+  <si>
+    <t>CHIEU11</t>
+  </si>
+  <si>
+    <t>CHIEU12</t>
+  </si>
+  <si>
+    <t>CHIEU13</t>
+  </si>
+  <si>
+    <t>CHIEU14</t>
+  </si>
+  <si>
+    <t>CHIEU15</t>
+  </si>
+  <si>
+    <t>CHIEU16</t>
+  </si>
+  <si>
+    <t>CHIEU17</t>
+  </si>
+  <si>
+    <t>CHIEU18</t>
+  </si>
+  <si>
+    <t>CHIEU19</t>
+  </si>
+  <si>
+    <t>CHIEU20</t>
+  </si>
+  <si>
+    <t>CHIEU21</t>
+  </si>
+  <si>
+    <t>CHIEU22</t>
+  </si>
+  <si>
+    <t>CHIEU23</t>
+  </si>
+  <si>
+    <t>CHIEU24</t>
+  </si>
+  <si>
+    <t>CHIEU25</t>
+  </si>
+  <si>
+    <t>CHIEU26</t>
+  </si>
+  <si>
+    <t>CHIEU27</t>
+  </si>
+  <si>
+    <t>CHIEU28</t>
+  </si>
+  <si>
+    <t>CHIEU29</t>
+  </si>
+  <si>
+    <t>CHIEU30</t>
+  </si>
+  <si>
+    <t>2/5/6/8/22
+420/450/470/490/560</t>
+  </si>
+  <si>
+    <t>💥💥💥 #gốimây siêu hott 💥💥💥
+        ( mát lẹm mà ko bị cắn tóc ạ )
+👉🏻   "Gối mây đan" lạnh là lựa chọn tối ưu cho mùa hè nóng nực bởi gối được làm từ mây đan xen kẽ tạo ra các lỗ thoáng giúp đầu óc của bạn được thông thoáng hơn và có những giấc ngủ ngon hơn, sâu hơn.
+🍭Chất liệu sợi mây 
+-  Thiết kế mây đan xen nhau tạo các lỗ thoáng giúp bạn không bị đổ mồ hôi và không gây bí bách khi gối
+-  Kiểu dáng tự nhiên nhưng không kém phần sang trọng</t>
+  </si>
+  <si>
+    <t>Sỉ 180k/1 cái
+Mai gối về</t>
+  </si>
+  <si>
+    <t>GL029</t>
+  </si>
+  <si>
+    <t>GL030</t>
+  </si>
+  <si>
+    <t>GL031</t>
+  </si>
+  <si>
+    <t>GL032</t>
+  </si>
+  <si>
+    <t>GL033</t>
+  </si>
+  <si>
+    <t>GL034</t>
+  </si>
+  <si>
+    <t>GL035</t>
+  </si>
+  <si>
+    <t>GL036</t>
+  </si>
+  <si>
+    <t>GL037</t>
+  </si>
+  <si>
+    <t>GL038</t>
+  </si>
+  <si>
+    <t>GL039</t>
+  </si>
+  <si>
+    <t>GL040</t>
+  </si>
+  <si>
+    <t>GL041</t>
+  </si>
+  <si>
+    <t>GL042</t>
+  </si>
+  <si>
+    <t>GL043</t>
+  </si>
+  <si>
+    <t>GL044</t>
+  </si>
+  <si>
+    <t>GL045</t>
+  </si>
+  <si>
+    <t>GL046</t>
+  </si>
+  <si>
+    <t>GL047</t>
+  </si>
+  <si>
+    <t>GL048</t>
+  </si>
+  <si>
+    <t>GL049</t>
+  </si>
+  <si>
+    <t>GL050</t>
+  </si>
+  <si>
+    <t>GL051</t>
+  </si>
+  <si>
+    <t>GL052</t>
+  </si>
+  <si>
+    <t>GL053</t>
+  </si>
+  <si>
+    <t>GL054</t>
+  </si>
+  <si>
+    <t>GL055</t>
+  </si>
+  <si>
+    <t>GL056</t>
+  </si>
+  <si>
+    <t>GL057</t>
+  </si>
+  <si>
+    <t>GL058</t>
+  </si>
+  <si>
+    <t>GL059</t>
+  </si>
+  <si>
+    <t>GL060</t>
+  </si>
+  <si>
+    <t>GL061</t>
+  </si>
+  <si>
+    <t>GL062</t>
+  </si>
+  <si>
+    <t>GL063</t>
+  </si>
+  <si>
+    <t>GL064</t>
+  </si>
+  <si>
+    <t>GL065</t>
+  </si>
+  <si>
+    <t>GL066</t>
+  </si>
+  <si>
+    <t>GL067</t>
+  </si>
+  <si>
+    <t>GL068</t>
+  </si>
+  <si>
+    <t>GL069</t>
+  </si>
+  <si>
+    <t>GL070</t>
+  </si>
+  <si>
+    <t>GL071</t>
+  </si>
+  <si>
+    <t>GL072</t>
+  </si>
+  <si>
+    <t>GL073</t>
+  </si>
+  <si>
+    <t>GL074</t>
+  </si>
+  <si>
+    <t>GL075</t>
+  </si>
+  <si>
+    <t>GL076</t>
+  </si>
+  <si>
+    <t>GL077</t>
+  </si>
+  <si>
+    <t>GL078</t>
+  </si>
+  <si>
+    <t>GL079</t>
+  </si>
+  <si>
+    <t>180/1</t>
+  </si>
+  <si>
+    <t>𝗠𝗲𝗺𝗼𝗿𝘆 𝗣𝗶𝗹𝗹𝗼𝘄𝘀
+ 🍀 Chiếc gối hot trend nhất xứ nội địa Trung, bao nhiêu là KOLs phải review bán vì em nó vừa ngon, vừa bổ, vừa rẻ
+✅ Gối cao su gel Lạnh mát nhất mùa hè Memory, đẹp và căng, lồng vừa các loại vỏ gối mà vẫn đảm bảo giá trị nâng đỡ cột sống, chống đau mỏi vai gáy
+🍀 Size chuẩn nhất 48*74*10cm hộp đựng cực đẹp, dùng làm quà biếu hay tặng phẩm thì tuyệt vời</t>
+  </si>
+  <si>
+    <t>370/1</t>
+  </si>
+  <si>
+    <t>Sỉ 400k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 màu chăn cool  kèm chiếu Freemondle 
+Vải thun 5d sợi mềm mát ko giống những loại vải thun thông thường chất mềm mượt lắm ạ,bông chần micro thoáng khí đắp cực thích❄️❄️
+Chăn e có bán tách lẻ chăn nhé mn 
+</t>
   </si>
 </sst>
 </file>
@@ -2897,40 +3285,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2969,14 +3333,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3295,9 +3683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}">
   <dimension ref="A1:J219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C173" sqref="C173"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3330,644 +3718,644 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="57">
+      <c r="B2" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="49">
         <v>1700</v>
       </c>
-      <c r="E2" s="54" t="s">
-        <v>205</v>
+      <c r="E2" s="46" t="s">
+        <v>186</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="55"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="47"/>
       <c r="J3" s="2" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="55"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="47"/>
       <c r="J4" s="2" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="55"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="47"/>
       <c r="J5" s="2" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="55"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="47"/>
       <c r="J6" s="2" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="55"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="47"/>
       <c r="J7" s="2" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="55"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="47"/>
       <c r="J8" s="2" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="55"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="47"/>
       <c r="J9" s="2" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="55"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="56"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="48"/>
     </row>
     <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="43">
+      <c r="B12" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="59">
         <v>1950</v>
       </c>
-      <c r="E12" s="45" t="s">
-        <v>206</v>
+      <c r="E12" s="58" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="45"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="45"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="58"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="45"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="58"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="45"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="58"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="45"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="18" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="58"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="45"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="58"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="45"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="58"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="45"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="58"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="45"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="45"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="1:5" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="D24" s="44">
+      <c r="B24" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="62">
         <v>2300</v>
       </c>
-      <c r="E24" s="45" t="s">
-        <v>385</v>
+      <c r="E24" s="58" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="58"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="58"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="58"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="58"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="58"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="58"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="58"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="58"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="58"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="58"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="D36" s="43">
+      <c r="B36" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="59">
         <v>1700</v>
       </c>
-      <c r="E36" s="45" t="s">
-        <v>386</v>
+      <c r="E36" s="58" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="45"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="58"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="45"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="58"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="45"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="58"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="45"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="58"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="45"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="58"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="45"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="58"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="45"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="58"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="45"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="58"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="45"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="58"/>
     </row>
     <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="D46" s="43">
+      <c r="B46" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="59">
         <v>1950</v>
       </c>
-      <c r="E46" s="45" t="s">
-        <v>207</v>
+      <c r="E46" s="58" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="45"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="58"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="45"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="58"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="45"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="58"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="45"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="58"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="45"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="58"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="45"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="58"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="45"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="58"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="45"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="58"/>
     </row>
     <row r="55" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="C55" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="D55" s="43">
+      <c r="B55" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" s="59">
         <v>1650</v>
       </c>
-      <c r="E55" s="45" t="s">
-        <v>209</v>
+      <c r="E55" s="58" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="45"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="58"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="45"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="58"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="45"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="58"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="45"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="58"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="45"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="58"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="45"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="58"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="45"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="58"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="45"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="58"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="45"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="58"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="45"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="58"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="45"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="58"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="45"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="58"/>
     </row>
     <row r="68" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="C68" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="D68" s="44">
+      <c r="B68" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" s="62">
         <v>1850</v>
       </c>
-      <c r="E68" s="45" t="s">
-        <v>211</v>
+      <c r="E68" s="58" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="45"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="58"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="45"/>
+      <c r="A70" s="60"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="58"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="45"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="58"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="45"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="58"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="45"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="58"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="58"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="45"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="58"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="45"/>
+      <c r="A76" s="60"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="58"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="45"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="58"/>
     </row>
     <row r="78" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="D78" s="1">
         <v>2000</v>
@@ -3982,10 +4370,10 @@
         <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D79" s="1">
         <v>1900</v>
@@ -4000,10 +4388,10 @@
         <v>14</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D80" s="1">
         <v>1850</v>
@@ -4018,10 +4406,10 @@
         <v>15</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D81" s="1">
         <v>1700</v>
@@ -4036,10 +4424,10 @@
         <v>16</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D82" s="1">
         <v>2600</v>
@@ -4054,10 +4442,10 @@
         <v>17</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="D83" s="1">
         <v>1550</v>
@@ -4072,10 +4460,10 @@
         <v>18</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D84" s="1">
         <v>460</v>
@@ -4090,10 +4478,10 @@
         <v>19</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D85" s="26">
         <v>1850</v>
@@ -4108,10 +4496,10 @@
         <v>20</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D86" s="1">
         <v>670</v>
@@ -4126,10 +4514,10 @@
         <v>21</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="D87" s="1">
         <v>1850</v>
@@ -4144,10 +4532,10 @@
         <v>22</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D88" s="1">
         <v>1850</v>
@@ -4162,13 +4550,13 @@
         <v>23</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E89" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4180,10 +4568,10 @@
         <v>24</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D90" s="1">
         <v>1750</v>
@@ -4198,10 +4586,10 @@
         <v>25</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D91" s="26">
         <v>1750</v>
@@ -4216,10 +4604,10 @@
         <v>26</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="D92" s="1">
         <v>1700</v>
@@ -4234,10 +4622,10 @@
         <v>27</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D93" s="26">
         <v>1600</v>
@@ -4252,10 +4640,10 @@
         <v>28</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D94" s="1">
         <v>670</v>
@@ -4270,10 +4658,10 @@
         <v>29</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D95" s="1">
         <v>1750</v>
@@ -4288,10 +4676,10 @@
         <v>30</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D96" s="1">
         <v>580</v>
@@ -4306,10 +4694,10 @@
         <v>31</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="D97" s="26">
         <v>1850</v>
@@ -4324,10 +4712,10 @@
         <v>32</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="D98" s="1">
         <v>1700</v>
@@ -4337,15 +4725,15 @@
         <v>⛅️𝓣𝓮𝓷𝓬𝓮𝓵 𝓟𝓻𝓲𝓷𝓬𝓮𝓼𝓼</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="D99" s="1">
         <v>1160</v>
@@ -4360,10 +4748,10 @@
         <v>34</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D100" s="1">
         <v>720</v>
@@ -4378,10 +4766,10 @@
         <v>35</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="D101" s="1">
         <v>1850</v>
@@ -4396,10 +4784,10 @@
         <v>36</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="D102" s="1">
         <v>1650</v>
@@ -4414,10 +4802,10 @@
         <v>37</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="D103" s="1">
         <v>2150</v>
@@ -4432,10 +4820,10 @@
         <v>38</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="D104" s="1">
         <v>1170</v>
@@ -4450,10 +4838,10 @@
         <v>39</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="D105" s="1">
         <v>1500</v>
@@ -4468,10 +4856,10 @@
         <v>40</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="D106" s="1">
         <v>1800</v>
@@ -4486,10 +4874,10 @@
         <v>41</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="D107" s="1">
         <v>270</v>
@@ -4588,10 +4976,10 @@
         <v>49</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="D115" s="1">
         <v>1850</v>
@@ -4606,10 +4994,10 @@
         <v>50</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="D116" s="1">
         <v>2000</v>
@@ -4624,10 +5012,10 @@
         <v>51</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="D117" s="1">
         <v>1100</v>
@@ -4642,10 +5030,10 @@
         <v>52</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="D118" s="1">
         <v>2200</v>
@@ -4661,10 +5049,10 @@
         <v>53</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="D119" s="1">
         <v>800</v>
@@ -4679,10 +5067,10 @@
         <v>54</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="D120" s="1">
         <v>2190</v>
@@ -4697,10 +5085,10 @@
         <v>55</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="D121" s="1">
         <v>2400</v>
@@ -4776,7 +5164,7 @@
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="4" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="D127" s="1">
         <v>600</v>
@@ -4792,7 +5180,7 @@
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="4" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="D128" s="1">
         <v>700</v>
@@ -4808,7 +5196,7 @@
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="4" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="D129" s="1">
         <v>400</v>
@@ -4824,7 +5212,7 @@
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="4" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="D130" s="1">
         <v>400</v>
@@ -4840,7 +5228,7 @@
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="4" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="D131" s="1">
         <v>700</v>
@@ -4856,7 +5244,7 @@
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="4" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="D132" s="1">
         <v>720</v>
@@ -4872,7 +5260,7 @@
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="4" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="D133" s="1">
         <v>460</v>
@@ -4887,10 +5275,10 @@
         <v>68</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="D134" s="1">
         <v>2400</v>
@@ -4905,10 +5293,10 @@
         <v>69</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="D135" s="1">
         <v>2100</v>
@@ -4923,13 +5311,13 @@
         <v>70</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="E136" s="40" t="str">
         <f t="shared" si="1"/>
@@ -4941,10 +5329,10 @@
         <v>71</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="D137" s="1">
         <v>800</v>
@@ -4959,10 +5347,10 @@
         <v>72</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="D138" s="1">
         <v>530</v>
@@ -4977,10 +5365,10 @@
         <v>73</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="D139" s="1">
         <v>2200</v>
@@ -4996,10 +5384,10 @@
         <v>74</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="D140" s="1">
         <v>2000</v>
@@ -5014,10 +5402,10 @@
         <v>75</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="D141" s="1">
         <v>1850</v>
@@ -5032,10 +5420,10 @@
         <v>76</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="D142" s="1">
         <v>2700</v>
@@ -5050,10 +5438,10 @@
         <v>77</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="D143" s="1">
         <v>2000</v>
@@ -5068,10 +5456,10 @@
         <v>78</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="D144" s="1">
         <v>1950</v>
@@ -5087,10 +5475,10 @@
         <v>79</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="D145" s="1">
         <v>1500</v>
@@ -5105,13 +5493,13 @@
         <v>80</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="E146" s="40" t="str">
         <f t="shared" si="1"/>
@@ -5123,10 +5511,10 @@
         <v>81</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="D147" s="1">
         <v>1900</v>
@@ -5142,7 +5530,7 @@
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="4" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="D148" s="1">
         <v>500</v>
@@ -5157,10 +5545,10 @@
         <v>83</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="D149" s="1">
         <v>2300</v>
@@ -5175,13 +5563,13 @@
         <v>84</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="E150" s="40" t="str">
         <f t="shared" si="2"/>
@@ -5193,10 +5581,10 @@
         <v>85</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="D151" s="1">
         <v>1900</v>
@@ -5212,7 +5600,7 @@
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="4" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="D152" s="1">
         <v>480</v>
@@ -5227,10 +5615,10 @@
         <v>87</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="D153" s="1">
         <v>600</v>
@@ -5246,7 +5634,7 @@
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="4" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="D154" s="1">
         <v>1100</v>
@@ -5262,7 +5650,7 @@
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="4" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="D155" s="1">
         <v>1000</v>
@@ -5278,7 +5666,7 @@
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="4" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="D156" s="1">
         <v>1800</v>
@@ -5294,7 +5682,7 @@
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="4" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="D157" s="1">
         <v>400</v>
@@ -5310,10 +5698,10 @@
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="4" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="E158" s="40">
         <f t="shared" si="2"/>
@@ -5326,7 +5714,7 @@
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="4" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="D159" s="1">
         <v>450</v>
@@ -5342,7 +5730,7 @@
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="4" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="D160" s="1">
         <v>1900</v>
@@ -5357,10 +5745,10 @@
         <v>95</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="D161" s="1">
         <v>1850</v>
@@ -5377,7 +5765,7 @@
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="4" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="D162" s="1">
         <v>1850</v>
@@ -5392,10 +5780,10 @@
         <v>97</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="D163" s="1">
         <v>2300</v>
@@ -5405,25 +5793,33 @@
         <v>✨ NEW ARRIVAL | DÒNG 3D THÊU ÁNH KIM CAO CẤP ✨</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B164" s="1"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="1"/>
+      <c r="C164" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D164" s="1">
+        <v>460</v>
+      </c>
       <c r="E164" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B165" s="1"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="1"/>
+      <c r="C165" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D165" s="1">
+        <v>700</v>
+      </c>
       <c r="E165" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5479,7 +5875,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="4"/>
@@ -5491,7 +5887,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="4"/>
@@ -5503,7 +5899,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="4"/>
@@ -5515,7 +5911,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="4"/>
@@ -5527,7 +5923,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="4"/>
@@ -5539,7 +5935,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="4"/>
@@ -5551,7 +5947,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="4"/>
@@ -5563,7 +5959,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="4"/>
@@ -5575,7 +5971,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="4"/>
@@ -5587,7 +5983,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="4"/>
@@ -5599,7 +5995,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="4"/>
@@ -5611,7 +6007,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="4"/>
@@ -5623,7 +6019,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="4"/>
@@ -5635,7 +6031,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="4"/>
@@ -5647,7 +6043,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="4"/>
@@ -5659,7 +6055,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="4"/>
@@ -5671,7 +6067,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="4"/>
@@ -5683,7 +6079,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="4"/>
@@ -5695,7 +6091,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="4"/>
@@ -5707,7 +6103,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="4"/>
@@ -5719,7 +6115,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="4"/>
@@ -5731,7 +6127,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="4"/>
@@ -5743,7 +6139,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="4"/>
@@ -5755,7 +6151,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="4"/>
@@ -5767,7 +6163,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="4"/>
@@ -5779,7 +6175,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="4"/>
@@ -5791,7 +6187,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="4"/>
@@ -5803,7 +6199,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="4"/>
@@ -5815,7 +6211,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="4"/>
@@ -5827,7 +6223,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="4"/>
@@ -5839,7 +6235,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="4"/>
@@ -5851,7 +6247,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="4"/>
@@ -5863,7 +6259,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="4"/>
@@ -5875,7 +6271,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="4"/>
@@ -5887,7 +6283,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="4"/>
@@ -5899,7 +6295,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="4"/>
@@ -5911,7 +6307,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="4"/>
@@ -5923,7 +6319,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="4"/>
@@ -5935,7 +6331,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="4"/>
@@ -5947,7 +6343,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="4"/>
@@ -5959,7 +6355,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="4"/>
@@ -5971,7 +6367,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="4"/>
@@ -5983,7 +6379,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="4"/>
@@ -5995,7 +6391,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="4"/>
@@ -6007,7 +6403,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="4"/>
@@ -6019,7 +6415,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="4"/>
@@ -6031,7 +6427,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="4"/>
@@ -6043,7 +6439,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="4"/>
@@ -6055,7 +6451,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="4"/>
@@ -6067,7 +6463,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="4"/>
@@ -6080,17 +6476,16 @@
   </sheetData>
   <autoFilter ref="D1:D178" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}"/>
   <mergeCells count="35">
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="E36:E45"/>
-    <mergeCell ref="E46:E54"/>
-    <mergeCell ref="E24:E35"/>
-    <mergeCell ref="E12:E23"/>
-    <mergeCell ref="B36:B45"/>
-    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="D68:D77"/>
+    <mergeCell ref="E68:E77"/>
+    <mergeCell ref="E55:E67"/>
+    <mergeCell ref="D55:D67"/>
+    <mergeCell ref="B55:B67"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="C55:C67"/>
+    <mergeCell ref="C68:C77"/>
     <mergeCell ref="A36:A45"/>
     <mergeCell ref="B46:B54"/>
     <mergeCell ref="D46:D54"/>
@@ -6105,16 +6500,17 @@
     <mergeCell ref="C24:C35"/>
     <mergeCell ref="C36:C45"/>
     <mergeCell ref="C46:C54"/>
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="D68:D77"/>
-    <mergeCell ref="E68:E77"/>
-    <mergeCell ref="E55:E67"/>
-    <mergeCell ref="D55:D67"/>
-    <mergeCell ref="B55:B67"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="C55:C67"/>
-    <mergeCell ref="C68:C77"/>
+    <mergeCell ref="E36:E45"/>
+    <mergeCell ref="E46:E54"/>
+    <mergeCell ref="E24:E35"/>
+    <mergeCell ref="E12:E23"/>
+    <mergeCell ref="B36:B45"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6135,15 +6531,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C48B2C-3B71-4A97-889A-14151471C093}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6155,15 +6552,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73F632F-A097-45E3-8E24-2D0C9EE23955}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="125.85546875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="125.85546875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6180,466 +6577,474 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="22"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="67">
+      <c r="E2" s="43">
         <f>HYPERLINK("F:\ChanGa_Personal\VOGAVOGOI\" &amp; A2,B2 )</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="4" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="E3" s="67">
+        <v>568</v>
+      </c>
+      <c r="E3" s="43">
         <f t="shared" ref="E3:E39" si="0">HYPERLINK("F:\ChanGa_Personal\VOGAVOGOI\" &amp; A3,B3 )</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1250</v>
+      </c>
+      <c r="E4" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="67">
+      <c r="C5" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D5" s="14">
+        <v>750</v>
+      </c>
+      <c r="E5" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="22"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="67">
+      <c r="E6" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="22"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="67">
+      <c r="E7" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="22"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="67">
+      <c r="E8" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="22"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="67">
+      <c r="E9" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="22"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="67">
+      <c r="E10" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="22"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="67">
+      <c r="E11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="22"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="67">
+      <c r="E12" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="22"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="67">
+      <c r="E13" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="22"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="67">
+      <c r="E14" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="22"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="67">
+      <c r="E15" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="22"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="67">
+      <c r="E16" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="22"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="67">
+      <c r="E17" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="22"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="67">
+      <c r="E18" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="22"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="67">
+      <c r="E19" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="22"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="67">
+      <c r="E20" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="22"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="67">
+      <c r="E21" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="22"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="67">
+      <c r="E22" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="22"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="67">
+      <c r="E23" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="22"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="67">
+      <c r="E24" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="22"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="67">
+      <c r="E25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="22"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="67">
+      <c r="E26" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="22"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="67">
+      <c r="E27" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="22"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="67">
+      <c r="E28" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="22"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="67">
+      <c r="E29" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="22"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="67">
+      <c r="E30" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="22"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="67">
+      <c r="E31" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="22"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="67">
+      <c r="E32" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="22"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="67">
+      <c r="E33" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="22"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="67">
+      <c r="E34" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="22"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="67">
+      <c r="E35" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="22"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="67">
+      <c r="E36" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="22"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="67">
+      <c r="E37" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="22"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="67">
+      <c r="E38" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="22"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="67">
+      <c r="E39" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6654,8 +7059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91D16C2-792D-474A-819C-DD60A0C5D57B}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6690,13 +7095,13 @@
         <v>104</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="E2" s="19" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\CL\" &amp; A2,B2 )</f>
@@ -6708,10 +7113,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="D3" s="14">
         <v>280</v>
@@ -6726,10 +7131,10 @@
         <v>106</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="D4" s="14">
         <v>700</v>
@@ -6756,10 +7161,10 @@
         <v>108</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="D6" s="25">
         <v>560</v>
@@ -6774,13 +7179,13 @@
         <v>109</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="E7" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6792,10 +7197,10 @@
         <v>110</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="19" t="str">
@@ -6808,10 +7213,10 @@
         <v>111</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="D9" s="14">
         <v>1100</v>
@@ -6822,47 +7227,64 @@
 Telcel summer💧💧</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="C10" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1200</v>
+      </c>
       <c r="E10" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1200</v>
+      </c>
       <c r="E11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1200</v>
+      </c>
       <c r="E12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>115</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D13" s="14">
+        <v>700</v>
+      </c>
       <c r="E13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7355,16 +7777,16 @@
     </row>
     <row r="2" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="E2" s="19" t="str">
         <f t="shared" ref="E2:E10" si="0">HYPERLINK("F:\ChanGa_Personal\RUOTCHAN\" &amp; A2,B2 )</f>
@@ -7373,13 +7795,13 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="D3" s="14">
         <v>480</v>
@@ -7391,13 +7813,13 @@
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="D4" s="25">
         <v>800</v>
@@ -7409,16 +7831,16 @@
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="E5" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7427,13 +7849,13 @@
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="D6" s="14">
         <v>1580</v>
@@ -7445,13 +7867,13 @@
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="D7" s="14">
         <v>1150</v>
@@ -7463,13 +7885,13 @@
     </row>
     <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="D8" s="1">
         <v>950</v>
@@ -7481,13 +7903,13 @@
     </row>
     <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="D9" s="13">
         <v>800</v>
@@ -7499,13 +7921,13 @@
     </row>
     <row r="10" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="D10" s="1">
         <v>1100</v>
@@ -7517,14 +7939,14 @@
     </row>
     <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" ref="E11:E31" si="1">HYPERLINK("F:\ChanGa_Personal\RUOTCHAN\" &amp; A11,B11 )</f>
@@ -7533,11 +7955,11 @@
     </row>
     <row r="12" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="D12" s="1">
         <v>950</v>
@@ -7549,7 +7971,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
@@ -7561,7 +7983,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
@@ -7573,7 +7995,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
@@ -7585,7 +8007,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
@@ -7597,7 +8019,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
@@ -7609,7 +8031,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
@@ -7621,7 +8043,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
@@ -7633,7 +8055,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
@@ -7645,7 +8067,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
@@ -7657,7 +8079,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
@@ -7669,7 +8091,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
@@ -7681,7 +8103,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="4"/>
@@ -7693,7 +8115,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="4"/>
@@ -7705,7 +8127,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="4"/>
@@ -7717,7 +8139,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="4"/>
@@ -7729,7 +8151,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="4"/>
@@ -7741,7 +8163,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="4"/>
@@ -7753,7 +8175,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
@@ -7765,7 +8187,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="4"/>
@@ -7784,10 +8206,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8069A21-3383-4151-AB2E-581D906FD6A7}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7822,10 +8244,10 @@
         <v>153</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D2" s="14">
         <v>150</v>
@@ -7840,10 +8262,10 @@
         <v>154</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D3" s="30">
         <v>210</v>
@@ -7858,10 +8280,10 @@
         <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="D4" s="14">
         <v>310</v>
@@ -7876,10 +8298,10 @@
         <v>156</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D5" s="14">
         <v>175</v>
@@ -7894,10 +8316,10 @@
         <v>157</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D6" s="14">
         <v>160</v>
@@ -7912,10 +8334,10 @@
         <v>158</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="D7" s="14">
         <v>200</v>
@@ -7930,10 +8352,10 @@
         <v>159</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="D8" s="14">
         <v>200</v>
@@ -7948,13 +8370,13 @@
         <v>160</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="E9" s="17" t="str">
         <f xml:space="preserve"> HYPERLINK("F:\ChanGa_Personal\GL\" &amp; A9,B9)</f>
@@ -7966,10 +8388,10 @@
         <v>161</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="D10" s="14">
         <v>190</v>
@@ -7981,13 +8403,13 @@
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="D11" s="14">
         <v>1000</v>
@@ -7999,13 +8421,13 @@
     </row>
     <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="D12" s="14">
         <v>150</v>
@@ -8017,13 +8439,13 @@
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="D13" s="14">
         <v>180</v>
@@ -8035,16 +8457,16 @@
     </row>
     <row r="14" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="E14" s="15" t="str">
         <f t="shared" si="1"/>
@@ -8053,16 +8475,16 @@
     </row>
     <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>349</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>379</v>
       </c>
       <c r="E15" s="15" t="str">
         <f t="shared" si="1"/>
@@ -8071,7 +8493,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="8"/>
@@ -8083,16 +8505,16 @@
     </row>
     <row r="17" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="E17" s="15" t="str">
         <f t="shared" si="1"/>
@@ -8101,7 +8523,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="8"/>
@@ -8113,7 +8535,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="8"/>
@@ -8125,14 +8547,14 @@
     </row>
     <row r="20" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="8" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="E20" s="15">
         <f t="shared" si="1"/>
@@ -8141,7 +8563,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="B21" s="1"/>
       <c r="E21" s="15">
@@ -8151,14 +8573,14 @@
     </row>
     <row r="22" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="8" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="1"/>
@@ -8167,14 +8589,14 @@
     </row>
     <row r="23" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="8" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="E23" s="15">
         <f t="shared" si="1"/>
@@ -8183,51 +8605,63 @@
     </row>
     <row r="24" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="8" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>579</v>
+      </c>
       <c r="E25" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>683</v>
+      </c>
       <c r="E26" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>685</v>
+      </c>
       <c r="E27" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8235,7 +8669,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="8"/>
@@ -8247,13 +8681,625 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="8"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15">
+        <f t="shared" ref="E30:E80" si="2">HYPERLINK("F:\ChanGa_Personal\GL\" &amp; A30, B30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8267,16 +9313,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB607AA5-F627-436A-BA6E-931B66090DEC}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8297,109 +9343,145 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>584</v>
+      </c>
       <c r="E2" s="17">
         <f t="shared" ref="E2:E27" si="0">HYPERLINK("F:\ChanGa_Personal\CDH\" &amp; A2, B2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>586</v>
+      </c>
       <c r="E3" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>586</v>
+      </c>
       <c r="E4" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="E5" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1150</v>
+      </c>
       <c r="E6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>592</v>
+      </c>
       <c r="E7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>594</v>
+      </c>
       <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>596</v>
+      </c>
       <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="E10" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8407,7 +9489,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="8"/>
@@ -8419,7 +9501,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="8"/>
@@ -8431,7 +9513,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="8"/>
@@ -8443,7 +9525,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="8"/>
@@ -8455,7 +9537,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="8"/>
@@ -8467,7 +9549,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="8"/>
@@ -8479,7 +9561,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="8"/>
@@ -8491,7 +9573,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="8"/>
@@ -8503,7 +9585,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="8"/>
@@ -8515,7 +9597,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="8"/>
@@ -8527,7 +9609,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="8"/>
@@ -8539,7 +9621,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="8"/>
@@ -8551,7 +9633,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="8"/>
@@ -8563,7 +9645,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="8"/>
@@ -8575,7 +9657,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="8"/>
@@ -8587,7 +9669,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="8"/>
@@ -8599,7 +9681,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="8"/>
@@ -8611,7 +9693,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="8"/>
@@ -8623,7 +9705,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="8"/>
@@ -8635,7 +9717,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="8"/>
@@ -8647,7 +9729,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="8"/>
@@ -8808,13 +9890,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F54597-D71E-4B44-BDD9-B475B7DF126C}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="2"/>
+    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8834,33 +9920,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>599</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>629</v>
+      </c>
       <c r="E2" s="19">
         <f>HYPERLINK("F:\ChanGa_Personal\CHIEU\" &amp; A2,B2 )</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>600</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>631</v>
+      </c>
       <c r="E3" s="19">
         <f t="shared" ref="E3:E20" si="0">HYPERLINK("F:\ChanGa_Personal\CHIEU\" &amp; A3,B3 )</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>601</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8870,9 +9964,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>602</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8882,9 +9976,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>603</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8894,9 +9988,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>604</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8906,9 +10000,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>605</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8918,9 +10012,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>606</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -8930,9 +10024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>179</v>
+        <v>607</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -8942,9 +10036,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>608</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -8954,9 +10048,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>609</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -8966,9 +10060,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>610</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -8978,9 +10072,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>183</v>
+        <v>611</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8990,9 +10084,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>612</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -9002,9 +10096,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>613</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -9014,9 +10108,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>186</v>
+        <v>614</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -9026,9 +10120,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>187</v>
+        <v>615</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -9038,9 +10132,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>188</v>
+        <v>616</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -9050,9 +10144,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>189</v>
+        <v>617</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -9062,9 +10156,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>266</v>
+        <v>618</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9074,9 +10168,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>267</v>
+        <v>619</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -9086,9 +10180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>268</v>
+        <v>620</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -9098,9 +10192,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>269</v>
+        <v>621</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -9110,9 +10204,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>270</v>
+        <v>622</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -9122,9 +10216,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>271</v>
+        <v>623</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -9134,9 +10228,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>272</v>
+        <v>624</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -9146,9 +10240,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>273</v>
+        <v>625</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -9158,9 +10252,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>274</v>
+        <v>626</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -9170,9 +10264,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>275</v>
+        <v>627</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -9182,9 +10276,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>276</v>
+        <v>628</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -9232,7 +10326,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -9241,7 +10335,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -9250,7 +10344,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -9259,7 +10353,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -9268,7 +10362,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -9277,7 +10371,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -9286,7 +10380,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -9295,7 +10389,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -9304,7 +10398,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>

--- a/ID_SanPham._ChanGa.xlsx
+++ b/ID_SanPham._ChanGa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChanGa_Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3975A145-AB04-4D9D-BE77-AE325349795C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DCC0CD-EF5B-481E-BA76-19132A7B7FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{D6F5E742-A921-4C78-A2CA-E7DD1F27105C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6F5E742-A921-4C78-A2CA-E7DD1F27105C}"/>
   </bookViews>
   <sheets>
     <sheet name="SetChanGa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="cmd" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SetChanGa!$D$1:$D$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SetChanGa!$D$1:$D$219</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3681,11 +3681,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J219"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3741,7 +3742,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
       <c r="B3" s="56"/>
       <c r="C3" s="45"/>
@@ -3751,7 +3752,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
       <c r="B4" s="56"/>
       <c r="C4" s="45"/>
@@ -3761,7 +3762,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53"/>
       <c r="B5" s="56"/>
       <c r="C5" s="45"/>
@@ -3771,7 +3772,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="56"/>
       <c r="C6" s="45"/>
@@ -3781,7 +3782,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53"/>
       <c r="B7" s="56"/>
       <c r="C7" s="45"/>
@@ -3791,7 +3792,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="56"/>
       <c r="C8" s="45"/>
@@ -3801,7 +3802,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53"/>
       <c r="B9" s="56"/>
       <c r="C9" s="45"/>
@@ -3811,14 +3812,14 @@
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
       <c r="B10" s="56"/>
       <c r="C10" s="45"/>
       <c r="D10" s="50"/>
       <c r="E10" s="47"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
       <c r="B11" s="57"/>
       <c r="C11" s="45"/>
@@ -3842,77 +3843,77 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61"/>
       <c r="B13" s="59"/>
       <c r="C13" s="45"/>
       <c r="D13" s="59"/>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
       <c r="B14" s="59"/>
       <c r="C14" s="45"/>
       <c r="D14" s="59"/>
       <c r="E14" s="58"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="59"/>
       <c r="C15" s="45"/>
       <c r="D15" s="59"/>
       <c r="E15" s="58"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61"/>
       <c r="B16" s="59"/>
       <c r="C16" s="45"/>
       <c r="D16" s="59"/>
       <c r="E16" s="58"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
       <c r="B17" s="59"/>
       <c r="C17" s="45"/>
       <c r="D17" s="59"/>
       <c r="E17" s="58"/>
     </row>
-    <row r="18" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
       <c r="B18" s="59"/>
       <c r="C18" s="45"/>
       <c r="D18" s="59"/>
       <c r="E18" s="58"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
       <c r="B19" s="59"/>
       <c r="C19" s="45"/>
       <c r="D19" s="59"/>
       <c r="E19" s="58"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
       <c r="B20" s="59"/>
       <c r="C20" s="45"/>
       <c r="D20" s="59"/>
       <c r="E20" s="58"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61"/>
       <c r="B21" s="59"/>
       <c r="C21" s="45"/>
       <c r="D21" s="59"/>
       <c r="E21" s="58"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="59"/>
       <c r="C22" s="45"/>
       <c r="D22" s="59"/>
       <c r="E22" s="58"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="61"/>
       <c r="B23" s="59"/>
       <c r="C23" s="45"/>
@@ -3936,77 +3937,77 @@
         <v>355</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
       <c r="B25" s="59"/>
       <c r="C25" s="64"/>
       <c r="D25" s="62"/>
       <c r="E25" s="58"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
       <c r="B26" s="59"/>
       <c r="C26" s="64"/>
       <c r="D26" s="62"/>
       <c r="E26" s="58"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
       <c r="B27" s="59"/>
       <c r="C27" s="64"/>
       <c r="D27" s="62"/>
       <c r="E27" s="58"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
       <c r="B28" s="59"/>
       <c r="C28" s="64"/>
       <c r="D28" s="62"/>
       <c r="E28" s="58"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
       <c r="B29" s="59"/>
       <c r="C29" s="64"/>
       <c r="D29" s="62"/>
       <c r="E29" s="58"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
       <c r="B30" s="59"/>
       <c r="C30" s="64"/>
       <c r="D30" s="62"/>
       <c r="E30" s="58"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
       <c r="B31" s="59"/>
       <c r="C31" s="64"/>
       <c r="D31" s="62"/>
       <c r="E31" s="58"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="59"/>
       <c r="C32" s="64"/>
       <c r="D32" s="62"/>
       <c r="E32" s="58"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="59"/>
       <c r="C33" s="64"/>
       <c r="D33" s="62"/>
       <c r="E33" s="58"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="59"/>
       <c r="C34" s="64"/>
       <c r="D34" s="62"/>
       <c r="E34" s="58"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
       <c r="B35" s="59"/>
       <c r="C35" s="65"/>
@@ -4030,63 +4031,63 @@
         <v>356</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="59"/>
       <c r="C37" s="67"/>
       <c r="D37" s="59"/>
       <c r="E37" s="58"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
       <c r="B38" s="59"/>
       <c r="C38" s="67"/>
       <c r="D38" s="59"/>
       <c r="E38" s="58"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="59"/>
       <c r="C39" s="67"/>
       <c r="D39" s="59"/>
       <c r="E39" s="58"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="59"/>
       <c r="C40" s="67"/>
       <c r="D40" s="59"/>
       <c r="E40" s="58"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="59"/>
       <c r="C41" s="67"/>
       <c r="D41" s="59"/>
       <c r="E41" s="58"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="59"/>
       <c r="C42" s="67"/>
       <c r="D42" s="59"/>
       <c r="E42" s="58"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="59"/>
       <c r="C43" s="67"/>
       <c r="D43" s="59"/>
       <c r="E43" s="58"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="59"/>
       <c r="C44" s="67"/>
       <c r="D44" s="59"/>
       <c r="E44" s="58"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
       <c r="B45" s="59"/>
       <c r="C45" s="68"/>
@@ -4110,56 +4111,56 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="60"/>
       <c r="B47" s="59"/>
       <c r="C47" s="67"/>
       <c r="D47" s="59"/>
       <c r="E47" s="58"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="60"/>
       <c r="B48" s="59"/>
       <c r="C48" s="67"/>
       <c r="D48" s="59"/>
       <c r="E48" s="58"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60"/>
       <c r="B49" s="59"/>
       <c r="C49" s="67"/>
       <c r="D49" s="59"/>
       <c r="E49" s="58"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="60"/>
       <c r="B50" s="59"/>
       <c r="C50" s="67"/>
       <c r="D50" s="59"/>
       <c r="E50" s="58"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="60"/>
       <c r="B51" s="59"/>
       <c r="C51" s="67"/>
       <c r="D51" s="59"/>
       <c r="E51" s="58"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="60"/>
       <c r="B52" s="59"/>
       <c r="C52" s="67"/>
       <c r="D52" s="59"/>
       <c r="E52" s="58"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="60"/>
       <c r="B53" s="59"/>
       <c r="C53" s="67"/>
       <c r="D53" s="59"/>
       <c r="E53" s="58"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="60"/>
       <c r="B54" s="59"/>
       <c r="C54" s="68"/>
@@ -4183,84 +4184,84 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="60"/>
       <c r="B56" s="59"/>
       <c r="C56" s="67"/>
       <c r="D56" s="59"/>
       <c r="E56" s="58"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="60"/>
       <c r="B57" s="59"/>
       <c r="C57" s="67"/>
       <c r="D57" s="59"/>
       <c r="E57" s="58"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="60"/>
       <c r="B58" s="59"/>
       <c r="C58" s="67"/>
       <c r="D58" s="59"/>
       <c r="E58" s="58"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="60"/>
       <c r="B59" s="59"/>
       <c r="C59" s="67"/>
       <c r="D59" s="59"/>
       <c r="E59" s="58"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="60"/>
       <c r="B60" s="59"/>
       <c r="C60" s="67"/>
       <c r="D60" s="59"/>
       <c r="E60" s="58"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="60"/>
       <c r="B61" s="59"/>
       <c r="C61" s="67"/>
       <c r="D61" s="59"/>
       <c r="E61" s="58"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="60"/>
       <c r="B62" s="59"/>
       <c r="C62" s="67"/>
       <c r="D62" s="59"/>
       <c r="E62" s="58"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="60"/>
       <c r="B63" s="59"/>
       <c r="C63" s="67"/>
       <c r="D63" s="59"/>
       <c r="E63" s="58"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="60"/>
       <c r="B64" s="59"/>
       <c r="C64" s="67"/>
       <c r="D64" s="59"/>
       <c r="E64" s="58"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="60"/>
       <c r="B65" s="59"/>
       <c r="C65" s="67"/>
       <c r="D65" s="59"/>
       <c r="E65" s="58"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="60"/>
       <c r="B66" s="59"/>
       <c r="C66" s="67"/>
       <c r="D66" s="59"/>
       <c r="E66" s="58"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="60"/>
       <c r="B67" s="59"/>
       <c r="C67" s="68"/>
@@ -4284,63 +4285,63 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="60"/>
       <c r="B69" s="59"/>
       <c r="C69" s="67"/>
       <c r="D69" s="62"/>
       <c r="E69" s="58"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="60"/>
       <c r="B70" s="59"/>
       <c r="C70" s="67"/>
       <c r="D70" s="62"/>
       <c r="E70" s="58"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="60"/>
       <c r="B71" s="59"/>
       <c r="C71" s="67"/>
       <c r="D71" s="62"/>
       <c r="E71" s="58"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="60"/>
       <c r="B72" s="59"/>
       <c r="C72" s="67"/>
       <c r="D72" s="62"/>
       <c r="E72" s="58"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="60"/>
       <c r="B73" s="59"/>
       <c r="C73" s="67"/>
       <c r="D73" s="62"/>
       <c r="E73" s="58"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="60"/>
       <c r="B74" s="59"/>
       <c r="C74" s="67"/>
       <c r="D74" s="62"/>
       <c r="E74" s="58"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="60"/>
       <c r="B75" s="59"/>
       <c r="C75" s="67"/>
       <c r="D75" s="62"/>
       <c r="E75" s="58"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="60"/>
       <c r="B76" s="59"/>
       <c r="C76" s="67"/>
       <c r="D76" s="62"/>
       <c r="E76" s="58"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="60"/>
       <c r="B77" s="59"/>
       <c r="C77" s="68"/>
@@ -4419,7 +4420,7 @@
         <v>Young Summer Tencel 🪷🪷</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
         <v>16</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>Cologne</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
         <v>17</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>𝕐𝕖𝕤𝕊𝕒𝕚𝕟𝕥𝕃𝕒𝕦𝕣𝕖𝕟𝕥🍒🍒</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="34" t="s">
         <v>18</v>
       </c>
@@ -4491,7 +4492,7 @@
         <v>Tencel 𝓒𝓮𝓵𝓵𝓾𝓵𝓸𝓼𝓮 ✨✨✨</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="34" t="s">
         <v>20</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>ᴘʀᴇsᴛɪɢᴇ ᴄᴏᴍғᴏʀᴛ ✨✨</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>23</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>Light Home ButterFly Tencel✨</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>27</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>𝙉𝙚𝙬 𝙝𝙤𝙪𝙨𝙚</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>Ephan Summer Tencel 🌺</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>⛅️𝓣𝓮𝓷𝓬𝓮𝓵 𝓟𝓻𝓲𝓷𝓬𝓮𝓼𝓼</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>33</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>𝗡𝗲𝘄 𝗧𝗲𝗻𝗰𝗲𝗹 𝗖𝗼𝗹𝗹𝗲𝗰𝘁𝗶𝗼𝗻</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>34</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>Cologne  ✨✨✨</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>38</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>𝗠𝗶𝗻 𝗺𝗶𝗻</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>39</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>Bộ chăn ga LeoPard 120s Sateen</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>41</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>𝗧𝗶𝗰𝗶 𝗻𝗼𝘁𝗮𝗴</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>42</v>
       </c>
@@ -4899,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>43</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>44</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>45</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>46</v>
       </c>
@@ -4947,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>47</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>48</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v xml:space="preserve">🌟 EPHANHOUES  BST  Lụa Gấm Cao Cấp Mới </v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>51</v>
       </c>
@@ -5044,7 +5045,7 @@
 Đáng yêu như Min Min - Thắp ánh đèn bật tình yêu lên </v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>53</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>TENCEL PIMA</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -5110,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>57</v>
       </c>
@@ -5122,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>58</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>59</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>60</v>
       </c>
@@ -5158,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>61</v>
       </c>
@@ -5174,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>62</v>
       </c>
@@ -5190,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>63</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>64</v>
       </c>
@@ -5222,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>65</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>66</v>
       </c>
@@ -5254,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>67</v>
       </c>
@@ -5306,7 +5307,7 @@
         <v>nghệ thuật đương đại</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>70</v>
       </c>
@@ -5324,7 +5325,7 @@
         <v>Siêu đẹp các bác ơi 📣📣 2025 💯</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>71</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>72</v>
       </c>
@@ -5470,7 +5471,7 @@
 🌸 Lụa Thêu Nước Hoa Dior - Sự hòa quyện giữa sắc nét và mềm mại! </v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>79</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>BỘ SƯU TẬP TENCEL BASIC – THANH LỊCH &amp; TINH TẾ</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>80</v>
       </c>
@@ -5524,7 +5525,7 @@
         <v>Họa Tiết Nghệ Thuật Huyền Diệu</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>82</v>
       </c>
@@ -5558,7 +5559,7 @@
         <v>🌿 Leafy Luxe Gấm Cao Cấp</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>84</v>
       </c>
@@ -5594,7 +5595,7 @@
         <v>YOUNG｜Bộ sưu tập Xuân Hè 2025</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>86</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>87</v>
       </c>
@@ -5628,7 +5629,7 @@
         <v>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>88</v>
       </c>
@@ -5644,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>89</v>
       </c>
@@ -5676,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>91</v>
       </c>
@@ -5692,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>92</v>
       </c>
@@ -5708,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>93</v>
       </c>
@@ -5793,7 +5794,7 @@
         <v>✨ NEW ARRIVAL | DÒNG 3D THÊU ÁNH KIM CAO CẤP ✨</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>98</v>
       </c>
@@ -5809,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>99</v>
       </c>
@@ -5825,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>100</v>
       </c>
@@ -5837,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>101</v>
       </c>
@@ -5849,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>102</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>103</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>432</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>433</v>
       </c>
@@ -5897,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>434</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>435</v>
       </c>
@@ -5921,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>436</v>
       </c>
@@ -5933,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>437</v>
       </c>
@@ -5945,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>438</v>
       </c>
@@ -5957,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>439</v>
       </c>
@@ -5969,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>440</v>
       </c>
@@ -5981,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>441</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>442</v>
       </c>
@@ -6005,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>443</v>
       </c>
@@ -6017,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>444</v>
       </c>
@@ -6029,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>445</v>
       </c>
@@ -6041,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>446</v>
       </c>
@@ -6053,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>447</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>448</v>
       </c>
@@ -6077,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>449</v>
       </c>
@@ -6089,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>450</v>
       </c>
@@ -6101,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>451</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>452</v>
       </c>
@@ -6125,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>453</v>
       </c>
@@ -6137,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>454</v>
       </c>
@@ -6149,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>455</v>
       </c>
@@ -6161,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>456</v>
       </c>
@@ -6173,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>457</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>458</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>459</v>
       </c>
@@ -6209,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>460</v>
       </c>
@@ -6221,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>461</v>
       </c>
@@ -6233,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>462</v>
       </c>
@@ -6245,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>463</v>
       </c>
@@ -6257,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>464</v>
       </c>
@@ -6269,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>465</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>466</v>
       </c>
@@ -6293,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>467</v>
       </c>
@@ -6305,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>468</v>
       </c>
@@ -6317,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>469</v>
       </c>
@@ -6329,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>470</v>
       </c>
@@ -6341,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>471</v>
       </c>
@@ -6353,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>472</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>473</v>
       </c>
@@ -6377,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>474</v>
       </c>
@@ -6389,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>475</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>476</v>
       </c>
@@ -6413,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>477</v>
       </c>
@@ -6425,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>478</v>
       </c>
@@ -6437,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>479</v>
       </c>
@@ -6449,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>480</v>
       </c>
@@ -6461,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>481</v>
       </c>
@@ -6474,7 +6475,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D178" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}"/>
+  <autoFilter ref="D1:D219" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1650"/>
+        <filter val="1700"/>
+        <filter val="1750"/>
+        <filter val="1800"/>
+        <filter val="1850"/>
+        <filter val="1900"/>
+        <filter val="1950"/>
+        <filter val="2000"/>
+        <filter val="2100"/>
+        <filter val="2150"/>
+        <filter val="2190"/>
+        <filter val="2200"/>
+        <filter val="2300"/>
+        <filter val="2400"/>
+        <filter val="2700"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="35">
     <mergeCell ref="A68:A77"/>
     <mergeCell ref="B68:B77"/>
@@ -9313,8 +9334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB607AA5-F627-436A-BA6E-931B66090DEC}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ID_SanPham._ChanGa.xlsx
+++ b/ID_SanPham._ChanGa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChanGa_Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DCC0CD-EF5B-481E-BA76-19132A7B7FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C309CC-5719-4D7E-98E2-23D2F89EEE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6F5E742-A921-4C78-A2CA-E7DD1F27105C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="770">
   <si>
     <t>ID</t>
   </si>
@@ -2902,6 +2902,392 @@
 Vải thun 5d sợi mềm mát ko giống những loại vải thun thông thường chất mềm mượt lắm ạ,bông chần micro thoáng khí đắp cực thích❄️❄️
 Chăn e có bán tách lẻ chăn nhé mn 
 </t>
+  </si>
+  <si>
+    <t>SCG150</t>
+  </si>
+  <si>
+    <t>SCG151</t>
+  </si>
+  <si>
+    <t>SCG152</t>
+  </si>
+  <si>
+    <t>SCG153</t>
+  </si>
+  <si>
+    <t>SCG154</t>
+  </si>
+  <si>
+    <t>SCG155</t>
+  </si>
+  <si>
+    <t>SCG156</t>
+  </si>
+  <si>
+    <t>SCG157</t>
+  </si>
+  <si>
+    <t>SCG158</t>
+  </si>
+  <si>
+    <t>SCG159</t>
+  </si>
+  <si>
+    <t>SCG160</t>
+  </si>
+  <si>
+    <t>SCG161</t>
+  </si>
+  <si>
+    <t>SCG162</t>
+  </si>
+  <si>
+    <t>SCG163</t>
+  </si>
+  <si>
+    <t>SCG164</t>
+  </si>
+  <si>
+    <t>SCG165</t>
+  </si>
+  <si>
+    <t>SCG166</t>
+  </si>
+  <si>
+    <t>SCG167</t>
+  </si>
+  <si>
+    <t>SCG168</t>
+  </si>
+  <si>
+    <t>SCG169</t>
+  </si>
+  <si>
+    <t>SCG170</t>
+  </si>
+  <si>
+    <t>SCG171</t>
+  </si>
+  <si>
+    <t>SCG172</t>
+  </si>
+  <si>
+    <t>SCG173</t>
+  </si>
+  <si>
+    <t>SCG174</t>
+  </si>
+  <si>
+    <t>SCG175</t>
+  </si>
+  <si>
+    <t>SCG176</t>
+  </si>
+  <si>
+    <t>SCG177</t>
+  </si>
+  <si>
+    <t>SCG178</t>
+  </si>
+  <si>
+    <t>SCG179</t>
+  </si>
+  <si>
+    <t>SCG180</t>
+  </si>
+  <si>
+    <t>SCG181</t>
+  </si>
+  <si>
+    <t>SCG182</t>
+  </si>
+  <si>
+    <t>SCG183</t>
+  </si>
+  <si>
+    <t>SCG184</t>
+  </si>
+  <si>
+    <t>SCG185</t>
+  </si>
+  <si>
+    <t>SCG186</t>
+  </si>
+  <si>
+    <t>SCG187</t>
+  </si>
+  <si>
+    <t>SCG188</t>
+  </si>
+  <si>
+    <t>SCG189</t>
+  </si>
+  <si>
+    <t>SCG190</t>
+  </si>
+  <si>
+    <t>SCG191</t>
+  </si>
+  <si>
+    <t>SCG192</t>
+  </si>
+  <si>
+    <t>SCG193</t>
+  </si>
+  <si>
+    <t>SCG194</t>
+  </si>
+  <si>
+    <t>SCG195</t>
+  </si>
+  <si>
+    <t>SCG196</t>
+  </si>
+  <si>
+    <t>SCG197</t>
+  </si>
+  <si>
+    <t>SCG198</t>
+  </si>
+  <si>
+    <t>SCG199</t>
+  </si>
+  <si>
+    <t>SCG200</t>
+  </si>
+  <si>
+    <t>SET CHĂN – CHIẾU – GA TRẦN BĂNG LẠNH
+MARKCROSS 2025 | MÁT LẠNH – NHẸ ĐẦU – SANG XỊN
+❄️ Chất liệu băng lạnh cao cấp, mát rượi khi chạm vào
+🛏️ Chăn mỏng nhẹ – dùng được cả đêm hè, không bí bách
+🧺 Ga trần &amp; gối chần sợi khéo léo – dày dặn nhưng thoáng khí
+🎨 Tone màu thanh lịch, dễ phối giường – cực đẹp khi lên set
+Combo chuẩn chỉnh cho mùa hè:
+✔️ 01 chăn băng lạnh
+✔️ 02 vỏ gối nằm
+✔️ 01 ga trần bọc chun full giường</t>
+  </si>
+  <si>
+    <t>SET CHĂN – CHIẾU – GA TRẦN BĂNG LẠNH
+MARKCROSS 2025 | MÁT LẠNH – NHẸ ĐẦU – SANG XỊN</t>
+  </si>
+  <si>
+    <t>Ga 180-200 1300
+Chăn 1200</t>
+  </si>
+  <si>
+    <t>𝑩𝒖𝒕𝒕𝒆𝒓𝒇𝒍𝒚 𝒕𝒆𝒏𝒄𝒆𝒍
+🍀 Nguyện đời này chỉ dùng Tencel cho sướngggg…. thì bộ sưu tập in bướm này ra đời, đúng là trời không phụ lòng người
+ Tencel vừa mềm vừa mát, xứng đáng 10 điểm “ không có nhưng “ chất lượng nhất mùa hè. Bộ sưu tập bướm đưa ta cảm giác bước vào căn phòng liền thấy mộng mơ như đang ở xứ sở thần tiên 🧚‍♀️ , chữa lành tâm hồn ngay tại phòng ngủ ☺️
+🍀 set tiêu chuẩn 4 món gồm :
+- Vỏ chăn 200*230
+- Ga tấm trải freesize 
+- 02 vỏ gối đầu 48*74</t>
+  </si>
+  <si>
+    <t>𝑩𝒖𝒕𝒕𝒆𝒓𝒇𝒍𝒚 𝒕𝒆𝒏𝒄𝒆𝒍</t>
+  </si>
+  <si>
+    <t>Set chăn hè đũi hoa – Mềm mịn, mát lành như gió đầu hè ☁️🌿
+12 MÀU SIÊU XINH – NGẬP TRÀN SỰ LỰA CHỌN 🎨✨
+Chất liệu đũi hoa mát tay, nhẹ tênh như không 🌸
+Ruột chăn bông đậu nành mềm mại – thân thiện với làn da 🫘
+Thiết kế xinh yêu với họa tiết thú thêu đáng yêu 🐰🐻
+Mỏng nhẹ – thoáng khí – cực kỳ tiện lợi cho mùa hè ☀️
+Set gồm:
+ • 01 chăn hè (ruột liền) 🛏️
+ • 02 vỏ gối nằm đồng bộ 💤
+      •.   01 ga tấm trải free sz 💐</t>
+  </si>
+  <si>
+    <t>Set chăn hè đũi hoa – Mềm mịn, mát lành như gió đầu hè ☁️🌿
+12 MÀU SIÊU XINH – NGẬP TRÀN SỰ LỰA CHỌN 🎨✨</t>
+  </si>
+  <si>
+    <t>Yi Cang | Bộ chăn ga Tencel Jacquard cao cấp – Mẫu “BOYA” mới nhất 2025
+🌿 Chất liệu: 100% Tencel (Lyocell) nhập khẩu – mịn mượt, mát lạnh, nâng niu làn da
+✨ Công nghệ dệt Jacquard hiện đại – tạo vân chìm tinh xảo, sang trọng và khác biệt
+✅ Thoáng khí vượt trội – ngủ hè không bí
+✅ Không chứa formaldehyde – an toàn cho cả trẻ nhỏ
+✅ Thân thiện môi trường – tự phân huỷ sinh học
+✅ Bền màu – không bai xù – càng giặt càng mềm
+BOYA không chỉ là bộ chăn ga – mà là chuyến du hành ngọt ngào trong từng giấc mơ…</t>
+  </si>
+  <si>
+    <t>Yi Cang | Bộ chăn ga Tencel Jacquard cao cấp – Mẫu “BOYA” mới nhất 2025</t>
+  </si>
+  <si>
+    <t>MarriLos Cologne 2024
+ ✨Được làm từ chất liệu gấm dệt cao cấp, sản phẩm mang lại cảm giác mềm mại và sang trọng. 
+✨Hoạ tiết trên bộ chăn ga mang nét cổ điển và được cập nhật với phong cách hiện đại, tạo điểm nhấn độc đáo và tinh tế cho không gian nghỉ ngơi của bạn.
+Set 4 món
+-2 vỏ gối
+-1 vỏ ga
+-1 vỏ chăn</t>
+  </si>
+  <si>
+    <t>MarriLos Cologne 2024</t>
+  </si>
+  <si>
+    <t>🛏️ "Làm sao để khách check-in một lần rồi không muốn check-out?"
+Đáp án chính là set chăn ga gối khách sạn đẳng cấp, trắng tinh khôi, mềm mịn như mây và đẹp chẳng kém gì một “nàng thơ”! Với bộ chăn ga này, không chỉ khách yêu thích mà chủ khách sạn cũng "phổng mũi tự hào" vì phòng nghỉ sang-xịn-mịn như khách sạn 5 sao quốc tế!
+✨ Điểm sáng của sản phẩm:
+Mềm mịn đỉnh cao: Được dệt từ 100% cotton T300 cao cấp, thoáng khí và mềm mại
+Sạch sẽ, sang trọng: Màu trắng tinh khôi kết hợp với đường thêu viền tinh tế tạo cảm giác phòng ngủ luôn tươi mới, sạch bong
+Dễ chăm dễ chiều: Giặt giũ vô tư không xù lông, không nhăn nhó, giữ form đẹp như mới. Nói chung, “một lần đầu tư, cả đời không lo lắng!”🎨
+🍀 Set tiêu chuẩn 4 món gồm :
+- Vỏ chăn 200*230cm
+- Ga tấm trải freesize
+- 02 vỏ gối đầu 48*74cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> phòng nghỉ sang-xịn-mịn như khách sạn 5 sao quốc tế!</t>
+  </si>
+  <si>
+    <t>Một siêu phẩm lấp lánh ⚡𝑴𝑨𝑹𝑲𝑪𝑹𝑶𝑺𝑺 - Dòng sản phẩm cao cấp hạng sang 
+Siêu phẩm lụa 120s cực sịn xò, đẳng cấp đến từ thương hiệu Mark Cross đình đám 
+Dệt chỉ kim tuyến óng ánh, thêm phần sang trọng, kiêu sa 💫
+🌸 BSP bao gồm: 
+• 1 ga tấm trải free size
+• 1 vỏ chăn 2mx2m3 khoá kéo
+• 2 vỏ gối nằm 50x70</t>
+  </si>
+  <si>
+    <t>Một siêu phẩm lấp lánh ⚡𝑴𝑨𝑹𝑲𝑪𝑹𝑶𝑺𝑺 - Dòng sản phẩm cao cấp hạng sang 
+Siêu phẩm lụa 120s cực sịn xò, đẳng cấp đến từ thương hiệu Mark Cross đình đám 
+Dệt chỉ kim tuyến óng ánh, thêm phần sang trọng, kiêu sa 💫</t>
+  </si>
+  <si>
+    <t>Chăn hè Tencel 60s hoa nhã nhặn – Dịu mát như làn gió sớm mai
+❄️ Chất vải Tencel 60s mềm mát, thoáng khí, rơi nhẹ như lụa – mượt mà từng đường gấp
+🌸 Họa tiết hoa pastel tinh tế, thanh lịch – chuẩn gu các nàng yêu vẻ đẹp dịu dàng, tối giản
+💨 Mỏng nhẹ – Mát lạnh – Êm ái từng đêm hè</t>
+  </si>
+  <si>
+    <t>Chăn hè Tencel 60s hoa nhã nhặn – Dịu mát như làn gió sớm mai</t>
+  </si>
+  <si>
+    <t>𝐋𝐀𝐍 𝐓𝐈𝐌 𝐒𝐈𝐋𝐊 | Siêu phẩm chăn hè sang chảnh ngỡ như khách sạn 5*
+✨ 𝑻𝒉𝒊𝒆̂́𝒕 𝒌𝒆̂́ đ𝒐̣̂𝒄 𝒍𝒂̣ 𝒗𝒐̛́𝒊 𝒃𝒊𝒆̂̉𝒖 𝒄𝒂̉𝒎 𝒎𝒖̛̣𝒕 𝒎𝒂̀𝒏 𝒄𝒖̉𝒂 𝒕𝒐̛ 𝒕𝒊𝒕𝒉𝒆 🕊️
+ • Chăn hè nhập khẩu cao cấp
+ • Chất liệu: Tencel Lanjing phối 20% tơ tằm + siêu vi sợi
+ • Mềm nhẹ, mát lạnh, mượt như nước
+ • Thiết kế tối giản, thanh lịch, cực kỳ ăn ảnh trong setup phòng khách sạn, studio, homestay
+ • Vải bóng nhẹ tự nhiên không cần ánh đèn vẫn nổi bật!
+Trọn bộ gồm:
+ • 01 vỏ chăn hè
+ • 01 ga tấm trải
+ • 02 vỏ gối 50x70</t>
+  </si>
+  <si>
+    <t>𝐋𝐀𝐍 𝐓𝐈𝐌 𝐒𝐈𝐋𝐊 | Siêu phẩm chăn hè sang chảnh ngỡ như khách sạn 5*</t>
+  </si>
+  <si>
+    <t>𝐋𝐀𝐍 𝐓𝐎̉𝐀 𝐋𝐔̛𝐍𝐆 𝐋𝐈𝐍𝐇 𝐒𝐀𝐍𝐆 𝐓𝐑𝐎̣𝐍𝐆 - 𝐓𝐄𝐍𝐂𝐄𝐋 𝐒𝐔̛̃𝐀 𝐈𝐂𝐄 𝐁𝐔𝐑𝐊𝐄 𝟏𝟐𝟎𝐒
+✨ 𝐌𝐀𝐑𝐊𝐂𝐑𝐎𝐒𝐒 𝐕𝐈𝐏 𝟐𝟎𝟐𝟓 ✨
+Một tuyệt tác dành riêng cho những ai đề cao gu thẩm mỹ tinh tế và đòi hỏi đẳng cấp thật sự trong từng chi tiết.
+🕊 Biểu tượng Little Swan - được thêu chỉ vàng nổi bật trên nền vải Tencel sữa 120s mềm mịn như làn sương sớm, không chỉ là chi tiết trang trí mà còn là biểu tượng của vẻ đẹp thanh cao, tự do và thuần khiết.
+💫 Chất vải Tencel Ice cao cấp – mát lạnh khi chạm tay, mượt mà khi nằm xuống, giúp cân bằng nhiệt độ cơ thể trong mọi điều kiện thời tiết.
+🌿 Tối giản từ tông màu đến họa tiết, nhưng lại toát lên khí chất của sự sang trọng bền vững – xu hướng lựa chọn hàng đầu của những người yêu thích phong cách sống hiện đại.
+⸻
+Full set gồm:
+ • 01 ga phủ nhập khẩu
+ • 01 vỏ chăn 200x230cm
+ • 02 vỏ gối 50x70cm</t>
+  </si>
+  <si>
+    <t>𝐋𝐀𝐍 𝐓𝐎̉𝐀 𝐋𝐔̛𝐍𝐆 𝐋𝐈𝐍𝐇 𝐒𝐀𝐍𝐆 𝐓𝐑𝐎̣𝐍𝐆 - 𝐓𝐄𝐍𝐂𝐄𝐋 𝐒𝐔̛̃𝐀 𝐈𝐂𝐄 𝐁𝐔𝐑𝐊𝐄 𝟏𝟐𝟎𝐒</t>
+  </si>
+  <si>
+    <t>LỤA THÊU – CÁNH HOA ĐỒNG NỘI
+Mềm như mây – đẹp như nắng chiều</t>
+  </si>
+  <si>
+    <t>Hot new ❄️❄️
+Ga gối telcel lenzing 🍃🍃 thế hệ mới dòng vải mới nhất nhập khẩu 100% từ Poland🇮🇩🇮🇩
+Mặt vải đanh mịn it nhăn bền màu hơn so vs dòng telcel thông thường  dễ dàng giặt và bảo quản 😍😍
+Nguyên liệu hoàn toàn từ bột gỗ tự nhiên cực kì thân thiện vs làn da  kháng khuẩn tuyệt đối 
+Lựa chọn sáng suốt cho ngày hè☁️❄️☘️
+Set 3 món full 12 màu
+-1 ga freesize 245*250cm
+-2 gối nằm 48*74cm</t>
+  </si>
+  <si>
+    <t>LỤA THÊU – CÁNH HOA ĐỒNG NỘI
+Mềm như mây – đẹp như nắng chiều
+✨ Chất lụa mịn mướt, mát tay – nằm lên là thấy mê
+🌸 Họa tiết hoa đồng nội thêu nổi, bay bổng mà tinh tế
+🎨 Màu sắc thanh lịch, dễ phối – từ phòng sáng tiểu thư đến tone trầm tối giản
+📦 Sản phẩm dòng cao cấp – thêu kỹ nét từng hoa
+📸 Có ảnh thật 2 màu sang trọng 
+———
+Lụa thêu hoa đồng nội | Êm – sang – mộng mơ vừa đủ
+Đẹp kiểu không cần gồng 
+Trọn bộ gồm 4 chi tiết:
+ • 01 vỏ chăn 200×230
+ • 01 ga tấm trải free size
+ • 02 vỏ gối 50×70</t>
+  </si>
+  <si>
+    <t>CHARMING soul 👒
+Saniela dream house 
+Vẫn trên nền vải phi lụa óng mịn ko nhăn ko xù,  chăn dc trần thêm 1 lớp bông micro mềm mại đã qua xử lí nhiệt tạo thành tấm vững chắc giặt máy thoải mái 100% ko lo xô bông vón cục,vải chuẩn loại 1 cực kì dày dặn 
+Full 8 màu thoả thích lựa chọn
+Set 4 món 
+-1 chăn he 200*230cm
+-1 ga freesize 245*250cm
+-2 gối nằm 48*74cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHARMING soul 👒
+Saniela dream house </t>
+  </si>
+  <si>
+    <t>𝐋𝐈𝐆𝐇𝐓𝐖𝐀𝐍𝐆 ｜Bộ chăn hè 2025 - Phiên bản “Thú cưng dễ thương”
+Handsome Bear • Bowknot Koala • Teddy Dog…
+Chất liệu cao cấp:
+ • Vỏ chăn 100% cotton mềm mịn, thoáng khí, an toàn cho làn da 
+•60s cotton công nghệ siêu mềm mịn làm ga chần và mặt B của chăn Thường dùng cho các dòng chăn ga cao cấp, đồ ngủ xịn hoặc sản phẩm tiếp xúc trực tiếp với da nhạy cảm.
+ • Họa tiết thú cưng phối lông nổi bật - công nghệ in &amp; thêu 3D cao cấp, sống động như thật.
+Thiết kế:
+ • Phối màu pastel ngọt ngào, mang lại cảm giác dễ chịu và thư giãn.
+ • Đường may chắc chắn, phối ren/kẻ caro tinh tế tạo điểm nhấn.
+ • Dễ giặt, dễ gấp gọn – phù hợp cho cả giường ngủ &amp; giường trẻ em.
+Bộ sản phẩm gồm:
+ • Chăn hè mỏng(200x230)
+ • Ga giường cotton kẻ sọc chần sẵn(230x245)
+ • 2 vỏ gối thêu họa tiết đồng bộ</t>
+  </si>
+  <si>
+    <t>3 món 1550
+Chăn hè 950</t>
+  </si>
+  <si>
+    <t>Nếu em bẻ khoá vượt rào 
+Liệu em có thể chui vào chăn anh 😘
+ 🌿🌿 Sét lụa 120s ga trần nhập khẩu  cao cấp kèm ôm trần bông xịn mịn 👄
+Thiết kế mới nhất 2024 🌪️🌪️
+Tỉ mỉ trau truốt từng đường nét toát lên vẻ sang trọng🥂🥂 
+Phối ren mềm mại đường trần tinh tế tạo cảm giác lôi cuốn từ ánh nhìn đầu tiên🦩🦩
+ 🌱🌱set 5 món full 5 mau nha các ty 
+ - 1 vỏ chăn 200*230cm 
+- 1 ga trần freesize khổ rộng 245*270cm
+- 2 vỏ gối năm 48*74cm
+- 1 vỏ ôm trần bông 35*100cm</t>
+  </si>
+  <si>
+    <t>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁
+✨ Lụa Hàn Quốc Ga Trần Bông 5 Món không chỉ là bộ chăn ga gối thông thường, mà còn là điểm nhấn tinh tế, sang trọng cho không gian phòng ngủ của bạn. 
+🍀Bề mặt vải mịn màng, bóng nhẹ, không xù lông hay nhăn nhúm sau thời gian dài sử dụng.
+Bộ chăn ga bao gồm:
+✅ 01 ga giường trần bông mềm mại, giữ ấm tốt.
+✅ 01 chăn bông nhẹ, phù hợp với mọi mùa trong năm.
+✅ 02 vỏ gối đầu, tạo cảm giác êm ái khi sử dụng.
+✅ 01 vỏ gối ôm giúp bạn có giấc ngủ sâu và thư giãn hơn.</t>
+  </si>
+  <si>
+    <t>Kẻ  ngang</t>
   </si>
 </sst>
 </file>
@@ -3164,7 +3550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3270,12 +3656,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3294,7 +3674,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3333,37 +3746,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3681,12 +4070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J219"/>
+  <dimension ref="A1:J270"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3715,7 +4103,7 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="37" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3723,630 +4111,630 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="58">
         <v>1700</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="55" t="s">
         <v>186</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="47"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="56"/>
       <c r="J3" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="47"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="56"/>
       <c r="J4" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="47"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="56"/>
       <c r="J5" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="47"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="56"/>
       <c r="J6" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="47"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="56"/>
       <c r="J7" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="47"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="56"/>
       <c r="J8" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="47"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="56"/>
       <c r="J9" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="47"/>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="48"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="62"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="56"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="44">
         <v>1950</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="46" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="58"/>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="58"/>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="58"/>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="58"/>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="58"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="58"/>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="58"/>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="58"/>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="58"/>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="58"/>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="58"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="46"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="46"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="46"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="46"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="46"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="46"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="46"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="46"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="46"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="46"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="46"/>
     </row>
     <row r="24" spans="1:5" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="D24" s="62">
+      <c r="D24" s="45">
         <v>2300</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="46" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="58"/>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="58"/>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="58"/>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="58"/>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="58"/>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="58"/>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="58"/>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="58"/>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="58"/>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="58"/>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="58"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D36" s="44">
         <v>1700</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="46" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="58"/>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="58"/>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="58"/>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="58"/>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="58"/>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="58"/>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="58"/>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="58"/>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="58"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="46"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="46"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="46"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="46"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="46"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="46"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="D46" s="59">
+      <c r="D46" s="44">
         <v>1950</v>
       </c>
-      <c r="E46" s="58" t="s">
+      <c r="E46" s="46" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="58"/>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="58"/>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="58"/>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="58"/>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="58"/>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="58"/>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="58"/>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="58"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="46"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="43"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="46"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="43"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="46"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="43"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="46"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="43"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="46"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="43"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="46"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="46"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="43"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="46"/>
     </row>
     <row r="55" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="59">
+      <c r="D55" s="44">
         <v>1650</v>
       </c>
-      <c r="E55" s="58" t="s">
+      <c r="E55" s="46" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="58"/>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="58"/>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="58"/>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="58"/>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="58"/>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="58"/>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="58"/>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="60"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="58"/>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="58"/>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="60"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="58"/>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="60"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="58"/>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="60"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="58"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="43"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="46"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="43"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="46"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="43"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="46"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="43"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="46"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="46"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="43"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="46"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="43"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="46"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="43"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="46"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="46"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="43"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="46"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="43"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="46"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="43"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="46"/>
     </row>
     <row r="68" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="60" t="s">
+      <c r="A68" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="D68" s="62">
+      <c r="D68" s="45">
         <v>1850</v>
       </c>
-      <c r="E68" s="58" t="s">
+      <c r="E68" s="46" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="60"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="58"/>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="60"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="58"/>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="60"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="58"/>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="60"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="58"/>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="60"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="58"/>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="60"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="58"/>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="60"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="58"/>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="60"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="58"/>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="60"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="58"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="43"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="46"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="43"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="46"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="43"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="46"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="43"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="46"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="43"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="46"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="46"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="43"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="46"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="43"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="46"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="43"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="46"/>
     </row>
     <row r="78" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
@@ -4361,7 +4749,7 @@
       <c r="D78" s="1">
         <v>2000</v>
       </c>
-      <c r="E78" s="41" t="str">
+      <c r="E78" s="39" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A78,B78 )</f>
         <v>𝐍ế𝐮 𝐞𝐦 𝐭𝐡𝐢́𝐜𝐡 𝐬ự 𝐥𝐚̃𝐧𝐠 𝐦ạ𝐧 𝐜ủ𝐚 𝐂𝐡𝐚̂𝐮 𝐀̂𝐮 𝐡𝐚̃𝐲 đế𝐧 đ𝐚̂𝐲 𝐯ớ𝐢 𝐚𝐧𝐡✨</v>
       </c>
@@ -4379,7 +4767,7 @@
       <c r="D79" s="1">
         <v>1900</v>
       </c>
-      <c r="E79" s="41" t="str">
+      <c r="E79" s="39" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A79,B79 )</f>
         <v>Bộ Chăn Ga Cao Cấp Cologne - Gấm Thượng Hạng</v>
       </c>
@@ -4397,7 +4785,7 @@
       <c r="D80" s="1">
         <v>1850</v>
       </c>
-      <c r="E80" s="40" t="str">
+      <c r="E80" s="38" t="str">
         <f t="shared" ref="E80:E81" si="0">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A80,B80 )</f>
         <v>🌟YOUNG｜2024 Xuân Hè - Bộ sưu tập Playful</v>
       </c>
@@ -4415,12 +4803,12 @@
       <c r="D81" s="1">
         <v>1700</v>
       </c>
-      <c r="E81" s="40" t="str">
+      <c r="E81" s="38" t="str">
         <f t="shared" si="0"/>
         <v>Young Summer Tencel 🪷🪷</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
         <v>16</v>
       </c>
@@ -4433,12 +4821,12 @@
       <c r="D82" s="1">
         <v>2600</v>
       </c>
-      <c r="E82" s="40" t="str">
+      <c r="E82" s="38" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A82,B82 )</f>
         <v>Cologne</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
         <v>17</v>
       </c>
@@ -4451,12 +4839,12 @@
       <c r="D83" s="1">
         <v>1550</v>
       </c>
-      <c r="E83" s="40" t="str">
+      <c r="E83" s="38" t="str">
         <f t="shared" ref="E83:E146" si="1">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A83,B83 )</f>
         <v>𝕐𝕖𝕤𝕊𝕒𝕚𝕟𝕥𝕃𝕒𝕦𝕣𝕖𝕟𝕥🍒🍒</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A84" s="34" t="s">
         <v>18</v>
       </c>
@@ -4469,7 +4857,7 @@
       <c r="D84" s="1">
         <v>460</v>
       </c>
-      <c r="E84" s="40" t="str">
+      <c r="E84" s="38" t="str">
         <f t="shared" si="1"/>
         <v>𝗗𝗿𝗲𝗮𝗺 𝗰𝗶𝘁𝘆</v>
       </c>
@@ -4487,12 +4875,12 @@
       <c r="D85" s="26">
         <v>1850</v>
       </c>
-      <c r="E85" s="41" t="str">
+      <c r="E85" s="39" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A85,B85 )</f>
         <v>Tencel 𝓒𝓮𝓵𝓵𝓾𝓵𝓸𝓼𝓮 ✨✨✨</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A86" s="34" t="s">
         <v>20</v>
       </c>
@@ -4505,7 +4893,7 @@
       <c r="D86" s="1">
         <v>670</v>
       </c>
-      <c r="E86" s="40" t="str">
+      <c r="E86" s="38" t="str">
         <f t="shared" si="1"/>
         <v>🌈 𝓒𝓐𝓟𝓟𝓨𝓟𝓐𝓡𝓐</v>
       </c>
@@ -4523,7 +4911,7 @@
       <c r="D87" s="1">
         <v>1850</v>
       </c>
-      <c r="E87" s="40" t="str">
+      <c r="E87" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Graceful Silken Nights ✨✨</v>
       </c>
@@ -4541,12 +4929,12 @@
       <c r="D88" s="1">
         <v>1850</v>
       </c>
-      <c r="E88" s="40" t="str">
+      <c r="E88" s="38" t="str">
         <f t="shared" si="1"/>
         <v>ᴘʀᴇsᴛɪɢᴇ ᴄᴏᴍғᴏʀᴛ ✨✨</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>23</v>
       </c>
@@ -4559,7 +4947,7 @@
       <c r="D89" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E89" s="40" t="str">
+      <c r="E89" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Set đũi 5 món chăn hè</v>
       </c>
@@ -4577,7 +4965,7 @@
       <c r="D90" s="1">
         <v>1750</v>
       </c>
-      <c r="E90" s="40" t="str">
+      <c r="E90" s="38" t="str">
         <f t="shared" si="1"/>
         <v>𝗛𝗮𝘃𝗲 𝗮 𝗚𝗿𝗲𝗮𝘁 𝗱𝗮𝘆</v>
       </c>
@@ -4595,7 +4983,7 @@
       <c r="D91" s="26">
         <v>1750</v>
       </c>
-      <c r="E91" s="40" t="str">
+      <c r="E91" s="38" t="str">
         <f t="shared" si="1"/>
         <v>𝓝𝓪𝓽𝓾𝓻𝓮 𝓡𝓮𝓣𝓻𝓮𝓪𝓽</v>
       </c>
@@ -4613,12 +5001,12 @@
       <c r="D92" s="1">
         <v>1700</v>
       </c>
-      <c r="E92" s="40" t="str">
+      <c r="E92" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Light Home ButterFly Tencel✨</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>27</v>
       </c>
@@ -4631,12 +5019,12 @@
       <c r="D93" s="26">
         <v>1600</v>
       </c>
-      <c r="E93" s="41" t="str">
+      <c r="E93" s="39" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A93,B93 )</f>
         <v>𝙉𝙚𝙬 𝙝𝙤𝙪𝙨𝙚</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
@@ -4649,7 +5037,7 @@
       <c r="D94" s="1">
         <v>670</v>
       </c>
-      <c r="E94" s="40" t="str">
+      <c r="E94" s="38" t="str">
         <f t="shared" si="1"/>
         <v>cotton living bán quanh năm luôn sẵn hàng :)) :)) :))</v>
       </c>
@@ -4667,12 +5055,12 @@
       <c r="D95" s="1">
         <v>1750</v>
       </c>
-      <c r="E95" s="40" t="str">
+      <c r="E95" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Ephan Summer Tencel 🌺</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -4685,7 +5073,7 @@
       <c r="D96" s="1">
         <v>580</v>
       </c>
-      <c r="E96" s="40" t="str">
+      <c r="E96" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Lavie est belle🌿</v>
       </c>
@@ -4703,7 +5091,7 @@
       <c r="D97" s="26">
         <v>1850</v>
       </c>
-      <c r="E97" s="40" t="str">
+      <c r="E97" s="38" t="str">
         <f t="shared" si="1"/>
         <v>𝗘𝗣𝗛𝗔𝗡 𝗛𝗢𝗨𝗦𝗘</v>
       </c>
@@ -4721,12 +5109,12 @@
       <c r="D98" s="1">
         <v>1700</v>
       </c>
-      <c r="E98" s="40" t="str">
+      <c r="E98" s="38" t="str">
         <f t="shared" si="1"/>
         <v>⛅️𝓣𝓮𝓷𝓬𝓮𝓵 𝓟𝓻𝓲𝓷𝓬𝓮𝓼𝓼</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>33</v>
       </c>
@@ -4739,12 +5127,12 @@
       <c r="D99" s="1">
         <v>1160</v>
       </c>
-      <c r="E99" s="40" t="str">
+      <c r="E99" s="38" t="str">
         <f t="shared" si="1"/>
         <v>𝗡𝗲𝘄 𝗧𝗲𝗻𝗰𝗲𝗹 𝗖𝗼𝗹𝗹𝗲𝗰𝘁𝗶𝗼𝗻</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>34</v>
       </c>
@@ -4757,7 +5145,7 @@
       <c r="D100" s="1">
         <v>720</v>
       </c>
-      <c r="E100" s="40" t="str">
+      <c r="E100" s="38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Natural Velvet milk☁️☁️2024 </v>
       </c>
@@ -4775,7 +5163,7 @@
       <c r="D101" s="1">
         <v>1850</v>
       </c>
-      <c r="E101" s="40" t="str">
+      <c r="E101" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Cologne Gấm Hoàng Gia ✨✨</v>
       </c>
@@ -4793,7 +5181,7 @@
       <c r="D102" s="1">
         <v>1650</v>
       </c>
-      <c r="E102" s="41" t="str">
+      <c r="E102" s="39" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A102,B102 )</f>
         <v>🐆🐆Bộ chăn ga Positive Roma Leopard</v>
       </c>
@@ -4811,12 +5199,12 @@
       <c r="D103" s="1">
         <v>2150</v>
       </c>
-      <c r="E103" s="40" t="str">
+      <c r="E103" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Cologne  ✨✨✨</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>38</v>
       </c>
@@ -4829,12 +5217,12 @@
       <c r="D104" s="1">
         <v>1170</v>
       </c>
-      <c r="E104" s="40" t="str">
+      <c r="E104" s="38" t="str">
         <f t="shared" si="1"/>
         <v>𝗠𝗶𝗻 𝗺𝗶𝗻</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>39</v>
       </c>
@@ -4847,7 +5235,7 @@
       <c r="D105" s="1">
         <v>1500</v>
       </c>
-      <c r="E105" s="40" t="str">
+      <c r="E105" s="38" t="str">
         <f t="shared" si="1"/>
         <v>LAZY CAT - Cotton Sateen 80s</v>
       </c>
@@ -4865,12 +5253,12 @@
       <c r="D106" s="1">
         <v>1800</v>
       </c>
-      <c r="E106" s="40" t="str">
+      <c r="E106" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Bộ chăn ga LeoPard 120s Sateen</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>41</v>
       </c>
@@ -4883,91 +5271,91 @@
       <c r="D107" s="1">
         <v>270</v>
       </c>
-      <c r="E107" s="40" t="str">
+      <c r="E107" s="38" t="str">
         <f t="shared" si="1"/>
         <v>𝗧𝗶𝗰𝗶 𝗻𝗼𝘁𝗮𝗴</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="4"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="40">
+      <c r="E108" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="4"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="40">
+      <c r="E109" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="4"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="40">
+      <c r="E110" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="4"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="40">
+      <c r="E111" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="4"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="40">
+      <c r="E112" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="4"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="40">
+      <c r="E113" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="4"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="40">
+      <c r="E114" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4985,7 +5373,7 @@
       <c r="D115" s="1">
         <v>1850</v>
       </c>
-      <c r="E115" s="40" t="str">
+      <c r="E115" s="38" t="str">
         <f t="shared" si="1"/>
         <v>✨ CHĂN GA LỤA THÊU BÁNH BÈO – NÀNG CÔNG CHÚA TRONG MƠ ✨</v>
       </c>
@@ -5003,12 +5391,12 @@
       <c r="D116" s="1">
         <v>2000</v>
       </c>
-      <c r="E116" s="40" t="str">
+      <c r="E116" s="38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">🌟 EPHANHOUES  BST  Lụa Gấm Cao Cấp Mới </v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>51</v>
       </c>
@@ -5021,7 +5409,7 @@
       <c r="D117" s="1">
         <v>1100</v>
       </c>
-      <c r="E117" s="40" t="str">
+      <c r="E117" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Sportbird 50s seri 15🌱</v>
       </c>
@@ -5039,13 +5427,13 @@
       <c r="D118" s="1">
         <v>2200</v>
       </c>
-      <c r="E118" s="40" t="str">
+      <c r="E118" s="38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">𝗠𝗶𝗻 𝗺𝗶𝗻 
 Đáng yêu như Min Min - Thắp ánh đèn bật tình yêu lên </v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>53</v>
       </c>
@@ -5058,7 +5446,7 @@
       <c r="D119" s="1">
         <v>800</v>
       </c>
-      <c r="E119" s="40" t="str">
+      <c r="E119" s="38" t="str">
         <f t="shared" si="1"/>
         <v>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁</v>
       </c>
@@ -5076,7 +5464,7 @@
       <c r="D120" s="1">
         <v>2190</v>
       </c>
-      <c r="E120" s="40" t="str">
+      <c r="E120" s="38" t="str">
         <f t="shared" si="1"/>
         <v>💁‍♀️ Set chăn ga gối Lụa 100s  thêu hoa thật đẹp và tinh tế, đẳng cấp thêu trên nền vải lụa Hơn cả 1 tác phẩm nghệ thuật đương đại</v>
       </c>
@@ -5094,72 +5482,72 @@
       <c r="D121" s="1">
         <v>2400</v>
       </c>
-      <c r="E121" s="40" t="str">
+      <c r="E121" s="38" t="str">
         <f t="shared" si="1"/>
         <v>TENCEL PIMA</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="4"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="40">
+      <c r="E122" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="4"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="40">
+      <c r="E123" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="4"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="40">
+      <c r="E124" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="4"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="40">
+      <c r="E125" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="4"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="40">
+      <c r="E126" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>61</v>
       </c>
@@ -5170,12 +5558,12 @@
       <c r="D127" s="1">
         <v>600</v>
       </c>
-      <c r="E127" s="40">
+      <c r="E127" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>62</v>
       </c>
@@ -5186,12 +5574,12 @@
       <c r="D128" s="1">
         <v>700</v>
       </c>
-      <c r="E128" s="40">
+      <c r="E128" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>63</v>
       </c>
@@ -5202,12 +5590,12 @@
       <c r="D129" s="1">
         <v>400</v>
       </c>
-      <c r="E129" s="40">
+      <c r="E129" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>64</v>
       </c>
@@ -5218,12 +5606,12 @@
       <c r="D130" s="1">
         <v>400</v>
       </c>
-      <c r="E130" s="40">
+      <c r="E130" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>65</v>
       </c>
@@ -5234,12 +5622,12 @@
       <c r="D131" s="1">
         <v>700</v>
       </c>
-      <c r="E131" s="40">
+      <c r="E131" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>66</v>
       </c>
@@ -5250,12 +5638,12 @@
       <c r="D132" s="1">
         <v>720</v>
       </c>
-      <c r="E132" s="40">
+      <c r="E132" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>67</v>
       </c>
@@ -5266,7 +5654,7 @@
       <c r="D133" s="1">
         <v>460</v>
       </c>
-      <c r="E133" s="40">
+      <c r="E133" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5284,7 +5672,7 @@
       <c r="D134" s="1">
         <v>2400</v>
       </c>
-      <c r="E134" s="40" t="str">
+      <c r="E134" s="38" t="str">
         <f t="shared" si="1"/>
         <v>TENCEL PIMA</v>
       </c>
@@ -5302,12 +5690,12 @@
       <c r="D135" s="1">
         <v>2100</v>
       </c>
-      <c r="E135" s="40" t="str">
+      <c r="E135" s="38" t="str">
         <f t="shared" si="1"/>
         <v>nghệ thuật đương đại</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>70</v>
       </c>
@@ -5320,12 +5708,12 @@
       <c r="D136" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E136" s="40" t="str">
+      <c r="E136" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Siêu đẹp các bác ơi 📣📣 2025 💯</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>71</v>
       </c>
@@ -5338,12 +5726,12 @@
       <c r="D137" s="1">
         <v>800</v>
       </c>
-      <c r="E137" s="40" t="str">
+      <c r="E137" s="38" t="str">
         <f t="shared" si="1"/>
         <v>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>72</v>
       </c>
@@ -5356,7 +5744,7 @@
       <c r="D138" s="1">
         <v>530</v>
       </c>
-      <c r="E138" s="40" t="str">
+      <c r="E138" s="38" t="str">
         <f t="shared" si="1"/>
         <v>💎 LỤA THÁI SIÊU CẤP – SỰ LỰA CHỌN HOÀN HẢO CHO GIẤC NGỦ HOÀNG GIA 💎</v>
       </c>
@@ -5374,7 +5762,7 @@
       <c r="D139" s="1">
         <v>2200</v>
       </c>
-      <c r="E139" s="40" t="str">
+      <c r="E139" s="38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">𝗠𝗶𝗻 𝗺𝗶𝗻 
 Đáng yêu như Min Min - Thắp ánh đèn bật tình yêu lên </v>
@@ -5393,7 +5781,7 @@
       <c r="D140" s="1">
         <v>2000</v>
       </c>
-      <c r="E140" s="40" t="str">
+      <c r="E140" s="38" t="str">
         <f t="shared" si="1"/>
         <v>🌟 EPHANHOUES  BST  Lụa Gấm Cao Cấp Mới 🌟</v>
       </c>
@@ -5411,7 +5799,7 @@
       <c r="D141" s="1">
         <v>1850</v>
       </c>
-      <c r="E141" s="40" t="str">
+      <c r="E141" s="38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">✨ CHĂN GA LỤA THÊU BÁNH BÈO – NÀNG CÔNG CHÚA TRONG MƠ </v>
       </c>
@@ -5429,7 +5817,7 @@
       <c r="D142" s="1">
         <v>2700</v>
       </c>
-      <c r="E142" s="40" t="str">
+      <c r="E142" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Cologne Silk Flower💐</v>
       </c>
@@ -5447,7 +5835,7 @@
       <c r="D143" s="1">
         <v>2000</v>
       </c>
-      <c r="E143" s="40" t="str">
+      <c r="E143" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Wish Design Tencel ⭐️</v>
       </c>
@@ -5465,13 +5853,13 @@
       <c r="D144" s="1">
         <v>1950</v>
       </c>
-      <c r="E144" s="40" t="str">
+      <c r="E144" s="38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">𝓜𝓪𝓻𝓴𝓬𝓻𝓸𝓼𝓼
 🌸 Lụa Thêu Nước Hoa Dior - Sự hòa quyện giữa sắc nét và mềm mại! </v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>79</v>
       </c>
@@ -5484,12 +5872,12 @@
       <c r="D145" s="1">
         <v>1500</v>
       </c>
-      <c r="E145" s="40" t="str">
+      <c r="E145" s="38" t="str">
         <f t="shared" si="1"/>
         <v>BỘ SƯU TẬP TENCEL BASIC – THANH LỊCH &amp; TINH TẾ</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>80</v>
       </c>
@@ -5502,7 +5890,7 @@
       <c r="D146" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E146" s="40" t="str">
+      <c r="E146" s="38" t="str">
         <f t="shared" si="1"/>
         <v>𝗟𝗮𝗯𝘂𝗯𝘂 , 𝗖𝗮𝗽𝘆 𝗕𝗮𝗿𝗮, 𝗕𝗮𝗯𝘆 𝗧𝗵𝗿𝗲𝗲, 𝗧𝗲𝗱𝘆 𝗕𝗲𝗮𝗿</v>
       </c>
@@ -5520,12 +5908,12 @@
       <c r="D147" s="1">
         <v>1900</v>
       </c>
-      <c r="E147" s="40" t="str">
+      <c r="E147" s="38" t="str">
         <f t="shared" ref="E147:E169" si="2">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A147,B147 )</f>
         <v>Họa Tiết Nghệ Thuật Huyền Diệu</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>82</v>
       </c>
@@ -5536,7 +5924,7 @@
       <c r="D148" s="1">
         <v>500</v>
       </c>
-      <c r="E148" s="40">
+      <c r="E148" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5554,12 +5942,12 @@
       <c r="D149" s="1">
         <v>2300</v>
       </c>
-      <c r="E149" s="40" t="str">
+      <c r="E149" s="38" t="str">
         <f t="shared" si="2"/>
         <v>🌿 Leafy Luxe Gấm Cao Cấp</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>84</v>
       </c>
@@ -5572,7 +5960,7 @@
       <c r="D150" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="E150" s="40" t="str">
+      <c r="E150" s="38" t="str">
         <f t="shared" si="2"/>
         <v>𝐋𝐈𝐆𝐇𝐓𝐖𝐀𝐍𝐆｜Spring &amp; Summer 2025 Collection</v>
       </c>
@@ -5590,12 +5978,12 @@
       <c r="D151" s="1">
         <v>1900</v>
       </c>
-      <c r="E151" s="40" t="str">
+      <c r="E151" s="38" t="str">
         <f t="shared" si="2"/>
         <v>YOUNG｜Bộ sưu tập Xuân Hè 2025</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>86</v>
       </c>
@@ -5606,12 +5994,12 @@
       <c r="D152" s="1">
         <v>480</v>
       </c>
-      <c r="E152" s="40">
+      <c r="E152" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>87</v>
       </c>
@@ -5624,12 +6012,12 @@
       <c r="D153" s="1">
         <v>600</v>
       </c>
-      <c r="E153" s="40" t="str">
+      <c r="E153" s="38" t="str">
         <f t="shared" si="2"/>
         <v>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>88</v>
       </c>
@@ -5640,12 +6028,12 @@
       <c r="D154" s="1">
         <v>1100</v>
       </c>
-      <c r="E154" s="40">
+      <c r="E154" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>89</v>
       </c>
@@ -5656,7 +6044,7 @@
       <c r="D155" s="1">
         <v>1000</v>
       </c>
-      <c r="E155" s="40" t="b">
+      <c r="E155" s="38" t="b">
         <f>'Vỏ GA | Vỏ Gối'!E2=HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A155,B155 )</f>
         <v>1</v>
       </c>
@@ -5672,12 +6060,12 @@
       <c r="D156" s="1">
         <v>1800</v>
       </c>
-      <c r="E156" s="40">
+      <c r="E156" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>91</v>
       </c>
@@ -5688,12 +6076,12 @@
       <c r="D157" s="1">
         <v>400</v>
       </c>
-      <c r="E157" s="40">
+      <c r="E157" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>92</v>
       </c>
@@ -5704,12 +6092,12 @@
       <c r="D158" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="E158" s="40">
+      <c r="E158" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>93</v>
       </c>
@@ -5720,7 +6108,7 @@
       <c r="D159" s="1">
         <v>450</v>
       </c>
-      <c r="E159" s="40">
+      <c r="E159" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5736,7 +6124,7 @@
       <c r="D160" s="1">
         <v>1900</v>
       </c>
-      <c r="E160" s="40">
+      <c r="E160" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5754,7 +6142,7 @@
       <c r="D161" s="1">
         <v>1850</v>
       </c>
-      <c r="E161" s="40" t="str">
+      <c r="E161" s="38" t="str">
         <f t="shared" si="2"/>
         <v>✨ ĐẲNG CẤP TINH TẾ – CHẠM LỤA, CHẠM ĐẲNG CẤP ✨
 Bộ chăn ga lụa 80s thêu vân chìm – Sang trọng trong từng chi tiết</v>
@@ -5771,7 +6159,7 @@
       <c r="D162" s="1">
         <v>1850</v>
       </c>
-      <c r="E162" s="40">
+      <c r="E162" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5789,12 +6177,12 @@
       <c r="D163" s="1">
         <v>2300</v>
       </c>
-      <c r="E163" s="40" t="str">
+      <c r="E163" s="38" t="str">
         <f t="shared" si="2"/>
         <v>✨ NEW ARRIVAL | DÒNG 3D THÊU ÁNH KIM CAO CẤP ✨</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>98</v>
       </c>
@@ -5805,12 +6193,12 @@
       <c r="D164" s="1">
         <v>460</v>
       </c>
-      <c r="E164" s="40">
+      <c r="E164" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>99</v>
       </c>
@@ -5821,692 +6209,1375 @@
       <c r="D165" s="1">
         <v>700</v>
       </c>
-      <c r="E165" s="40">
+      <c r="E165" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B166" s="1"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="40">
+      <c r="B166" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E166" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>SET CHĂN – CHIẾU – GA TRẦN BĂNG LẠNH
+MARKCROSS 2025 | MÁT LẠNH – NHẸ ĐẦU – SANG XỊN</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B167" s="1"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="40">
+      <c r="B167" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="D167" s="1">
+        <v>1850</v>
+      </c>
+      <c r="E167" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>𝑩𝒖𝒕𝒕𝒆𝒓𝒇𝒍𝒚 𝒕𝒆𝒏𝒄𝒆𝒍</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B168" s="1"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="40">
+      <c r="B168" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="D168" s="1">
+        <v>400</v>
+      </c>
+      <c r="E168" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>Set chăn hè đũi hoa – Mềm mịn, mát lành như gió đầu hè ☁️🌿
+12 MÀU SIÊU XINH – NGẬP TRÀN SỰ LỰA CHỌN 🎨✨</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B169" s="1"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="40">
+      <c r="B169" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="D169" s="1">
+        <v>880</v>
+      </c>
+      <c r="E169" s="38" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>Yi Cang | Bộ chăn ga Tencel Jacquard cao cấp – Mẫu “BOYA” mới nhất 2025</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B170" s="1"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="40">
+      <c r="B170" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="D170" s="1">
+        <v>2200</v>
+      </c>
+      <c r="E170" s="38" t="str">
         <f t="shared" ref="E170:E179" si="3">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A170,B170 )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>MarriLos Cologne 2024</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B171" s="1"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="40">
+      <c r="B171" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="D171" s="1">
+        <v>570</v>
+      </c>
+      <c r="E171" s="38" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> phòng nghỉ sang-xịn-mịn như khách sạn 5 sao quốc tế!</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="40">
+      <c r="B172" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D172" s="1">
+        <v>600</v>
+      </c>
+      <c r="E172" s="38" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B173" s="1"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="40">
+      <c r="B173" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D173" s="1">
+        <v>1600</v>
+      </c>
+      <c r="E173" s="38" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>Một siêu phẩm lấp lánh ⚡𝑴𝑨𝑹𝑲𝑪𝑹𝑶𝑺𝑺 - Dòng sản phẩm cao cấp hạng sang 
+Siêu phẩm lụa 120s cực sịn xò, đẳng cấp đến từ thương hiệu Mark Cross đình đám 
+Dệt chỉ kim tuyến óng ánh, thêm phần sang trọng, kiêu sa 💫</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B174" s="1"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="40">
+      <c r="B174" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="D174" s="1">
+        <v>1800</v>
+      </c>
+      <c r="E174" s="38" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>𝐋𝐀𝐍 𝐓𝐈𝐌 𝐒𝐈𝐋𝐊 | Siêu phẩm chăn hè sang chảnh ngỡ như khách sạn 5*</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B175" s="1"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="40">
+      <c r="B175" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="D175" s="1">
+        <v>2200</v>
+      </c>
+      <c r="E175" s="38" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>𝐋𝐀𝐍 𝐓𝐎̉𝐀 𝐋𝐔̛𝐍𝐆 𝐋𝐈𝐍𝐇 𝐒𝐀𝐍𝐆 𝐓𝐑𝐎̣𝐍𝐆 - 𝐓𝐄𝐍𝐂𝐄𝐋 𝐒𝐔̛̃𝐀 𝐈𝐂𝐄 𝐁𝐔𝐑𝐊𝐄 𝟏𝟐𝟎𝐒</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B176" s="1"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="40">
+      <c r="B176" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="D176" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E176" s="38" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>LỤA THÊU – CÁNH HOA ĐỒNG NỘI
+Mềm như mây – đẹp như nắng chiều</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B177" s="1"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="40">
+      <c r="B177" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="D177" s="1">
+        <v>580</v>
+      </c>
+      <c r="E177" s="38" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">CHARMING soul 👒
+Saniela dream house </v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B178" s="1"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="40">
+      <c r="C178" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="D178" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E178" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B179" s="1"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="40">
+      <c r="C179" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="D179" s="1">
+        <v>750</v>
+      </c>
+      <c r="E179" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B180" s="1"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="40">
+      <c r="C180" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D180" s="1">
+        <v>720</v>
+      </c>
+      <c r="E180" s="38">
         <f t="shared" ref="E180:E219" si="4">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A180,B180 )</f>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="4"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="40">
+      <c r="E181" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="4"/>
       <c r="D182" s="1"/>
-      <c r="E182" s="40">
+      <c r="E182" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="4"/>
       <c r="D183" s="1"/>
-      <c r="E183" s="40">
+      <c r="E183" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="4"/>
       <c r="D184" s="1"/>
-      <c r="E184" s="40">
+      <c r="E184" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="4"/>
       <c r="D185" s="1"/>
-      <c r="E185" s="40">
+      <c r="E185" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="4"/>
       <c r="D186" s="1"/>
-      <c r="E186" s="40">
+      <c r="E186" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="4"/>
       <c r="D187" s="1"/>
-      <c r="E187" s="40">
+      <c r="E187" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="4"/>
       <c r="D188" s="1"/>
-      <c r="E188" s="40">
+      <c r="E188" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="4"/>
       <c r="D189" s="1"/>
-      <c r="E189" s="40">
+      <c r="E189" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="4"/>
       <c r="D190" s="1"/>
-      <c r="E190" s="40">
+      <c r="E190" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>453</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="4"/>
       <c r="D191" s="1"/>
-      <c r="E191" s="40">
+      <c r="E191" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="4"/>
       <c r="D192" s="1"/>
-      <c r="E192" s="40">
+      <c r="E192" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="4"/>
       <c r="D193" s="1"/>
-      <c r="E193" s="40">
+      <c r="E193" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="4"/>
       <c r="D194" s="1"/>
-      <c r="E194" s="40">
+      <c r="E194" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="4"/>
       <c r="D195" s="1"/>
-      <c r="E195" s="40">
+      <c r="E195" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="4"/>
       <c r="D196" s="1"/>
-      <c r="E196" s="40">
+      <c r="E196" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="4"/>
       <c r="D197" s="1"/>
-      <c r="E197" s="40">
+      <c r="E197" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="4"/>
       <c r="D198" s="1"/>
-      <c r="E198" s="40">
+      <c r="E198" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="4"/>
       <c r="D199" s="1"/>
-      <c r="E199" s="40">
+      <c r="E199" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="4"/>
       <c r="D200" s="1"/>
-      <c r="E200" s="40">
+      <c r="E200" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="4"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="40">
+      <c r="E201" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="4"/>
       <c r="D202" s="1"/>
-      <c r="E202" s="40">
+      <c r="E202" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="4"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="40">
+      <c r="E203" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="4"/>
       <c r="D204" s="1"/>
-      <c r="E204" s="40">
+      <c r="E204" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="4"/>
       <c r="D205" s="1"/>
-      <c r="E205" s="40">
+      <c r="E205" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="4"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="40">
+      <c r="E206" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>469</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="4"/>
       <c r="D207" s="1"/>
-      <c r="E207" s="40">
+      <c r="E207" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="4"/>
       <c r="D208" s="1"/>
-      <c r="E208" s="40">
+      <c r="E208" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="4"/>
       <c r="D209" s="1"/>
-      <c r="E209" s="40">
+      <c r="E209" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="4"/>
       <c r="D210" s="1"/>
-      <c r="E210" s="40">
+      <c r="E210" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="4"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="40">
+      <c r="E211" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="4"/>
       <c r="D212" s="1"/>
-      <c r="E212" s="40">
+      <c r="E212" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="4"/>
       <c r="D213" s="1"/>
-      <c r="E213" s="40">
+      <c r="E213" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>476</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="4"/>
       <c r="D214" s="1"/>
-      <c r="E214" s="40">
+      <c r="E214" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="4"/>
       <c r="D215" s="1"/>
-      <c r="E215" s="40">
+      <c r="E215" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="4"/>
       <c r="D216" s="1"/>
-      <c r="E216" s="40">
+      <c r="E216" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="4"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="40">
+      <c r="E217" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="4"/>
       <c r="D218" s="1"/>
-      <c r="E218" s="40">
+      <c r="E218" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="4"/>
       <c r="D219" s="1"/>
-      <c r="E219" s="40">
+      <c r="E219" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="38">
+        <f t="shared" ref="E220:E222" si="5">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A220,B220 )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="38">
+        <f t="shared" ref="E223:E270" si="6">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A223,B223 )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B240" s="1"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B242" s="1"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="D1:D219" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1650"/>
-        <filter val="1700"/>
-        <filter val="1750"/>
-        <filter val="1800"/>
-        <filter val="1850"/>
-        <filter val="1900"/>
-        <filter val="1950"/>
-        <filter val="2000"/>
-        <filter val="2100"/>
-        <filter val="2150"/>
-        <filter val="2190"/>
-        <filter val="2200"/>
-        <filter val="2300"/>
-        <filter val="2400"/>
-        <filter val="2700"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D219" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}"/>
   <mergeCells count="35">
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="D68:D77"/>
-    <mergeCell ref="E68:E77"/>
-    <mergeCell ref="E55:E67"/>
-    <mergeCell ref="D55:D67"/>
-    <mergeCell ref="B55:B67"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="C55:C67"/>
-    <mergeCell ref="C68:C77"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="E36:E45"/>
+    <mergeCell ref="E46:E54"/>
+    <mergeCell ref="E24:E35"/>
+    <mergeCell ref="E12:E23"/>
+    <mergeCell ref="B36:B45"/>
+    <mergeCell ref="D36:D45"/>
     <mergeCell ref="A36:A45"/>
     <mergeCell ref="B46:B54"/>
     <mergeCell ref="D46:D54"/>
@@ -6521,17 +7592,16 @@
     <mergeCell ref="C24:C35"/>
     <mergeCell ref="C36:C45"/>
     <mergeCell ref="C46:C54"/>
-    <mergeCell ref="E36:E45"/>
-    <mergeCell ref="E46:E54"/>
-    <mergeCell ref="E24:E35"/>
-    <mergeCell ref="E12:E23"/>
-    <mergeCell ref="B36:B45"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="D68:D77"/>
+    <mergeCell ref="E68:E77"/>
+    <mergeCell ref="E55:E67"/>
+    <mergeCell ref="D55:D67"/>
+    <mergeCell ref="B55:B67"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="C55:C67"/>
+    <mergeCell ref="C68:C77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6580,7 +7650,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="125.85546875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="125.85546875" style="42" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6598,7 +7668,7 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6609,7 +7679,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="22"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="43">
+      <c r="E2" s="41">
         <f>HYPERLINK("F:\ChanGa_Personal\VOGAVOGOI\" &amp; A2,B2 )</f>
         <v>0</v>
       </c>
@@ -6625,7 +7695,7 @@
       <c r="D3" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="41">
         <f t="shared" ref="E3:E39" si="0">HYPERLINK("F:\ChanGa_Personal\VOGAVOGOI\" &amp; A3,B3 )</f>
         <v>0</v>
       </c>
@@ -6641,7 +7711,7 @@
       <c r="D4" s="14">
         <v>1250</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6657,7 +7727,7 @@
       <c r="D5" s="14">
         <v>750</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6669,7 +7739,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="22"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="43">
+      <c r="E6" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6681,7 +7751,7 @@
       <c r="B7" s="14"/>
       <c r="C7" s="22"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="43">
+      <c r="E7" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6693,7 +7763,7 @@
       <c r="B8" s="14"/>
       <c r="C8" s="22"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="43">
+      <c r="E8" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6705,7 +7775,7 @@
       <c r="B9" s="14"/>
       <c r="C9" s="22"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="43">
+      <c r="E9" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6717,7 +7787,7 @@
       <c r="B10" s="14"/>
       <c r="C10" s="22"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="43">
+      <c r="E10" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6729,7 +7799,7 @@
       <c r="B11" s="14"/>
       <c r="C11" s="22"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="43">
+      <c r="E11" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6741,7 +7811,7 @@
       <c r="B12" s="14"/>
       <c r="C12" s="22"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="43">
+      <c r="E12" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6753,7 +7823,7 @@
       <c r="B13" s="14"/>
       <c r="C13" s="22"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6765,7 +7835,7 @@
       <c r="B14" s="14"/>
       <c r="C14" s="22"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="43">
+      <c r="E14" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6777,7 +7847,7 @@
       <c r="B15" s="14"/>
       <c r="C15" s="22"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="43">
+      <c r="E15" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6789,7 +7859,7 @@
       <c r="B16" s="14"/>
       <c r="C16" s="22"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="43">
+      <c r="E16" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6801,7 +7871,7 @@
       <c r="B17" s="14"/>
       <c r="C17" s="22"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="43">
+      <c r="E17" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6813,7 +7883,7 @@
       <c r="B18" s="14"/>
       <c r="C18" s="22"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="43">
+      <c r="E18" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6825,7 +7895,7 @@
       <c r="B19" s="14"/>
       <c r="C19" s="22"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="43">
+      <c r="E19" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6837,7 +7907,7 @@
       <c r="B20" s="14"/>
       <c r="C20" s="22"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="43">
+      <c r="E20" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6849,7 +7919,7 @@
       <c r="B21" s="14"/>
       <c r="C21" s="22"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="43">
+      <c r="E21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6861,7 +7931,7 @@
       <c r="B22" s="14"/>
       <c r="C22" s="22"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="43">
+      <c r="E22" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6873,7 +7943,7 @@
       <c r="B23" s="14"/>
       <c r="C23" s="22"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="43">
+      <c r="E23" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6885,7 +7955,7 @@
       <c r="B24" s="14"/>
       <c r="C24" s="22"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="43">
+      <c r="E24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6897,7 +7967,7 @@
       <c r="B25" s="14"/>
       <c r="C25" s="22"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="43">
+      <c r="E25" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6909,7 +7979,7 @@
       <c r="B26" s="14"/>
       <c r="C26" s="22"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="43">
+      <c r="E26" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6921,7 +7991,7 @@
       <c r="B27" s="14"/>
       <c r="C27" s="22"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="43">
+      <c r="E27" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6933,7 +8003,7 @@
       <c r="B28" s="14"/>
       <c r="C28" s="22"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="43">
+      <c r="E28" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6945,7 +8015,7 @@
       <c r="B29" s="14"/>
       <c r="C29" s="22"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="43">
+      <c r="E29" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6957,7 +8027,7 @@
       <c r="B30" s="14"/>
       <c r="C30" s="22"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="43">
+      <c r="E30" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6969,7 +8039,7 @@
       <c r="B31" s="14"/>
       <c r="C31" s="22"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="43">
+      <c r="E31" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6981,7 +8051,7 @@
       <c r="B32" s="14"/>
       <c r="C32" s="22"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="43">
+      <c r="E32" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6993,7 +8063,7 @@
       <c r="B33" s="14"/>
       <c r="C33" s="22"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="43">
+      <c r="E33" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7005,7 +8075,7 @@
       <c r="B34" s="14"/>
       <c r="C34" s="22"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="43">
+      <c r="E34" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7017,7 +8087,7 @@
       <c r="B35" s="14"/>
       <c r="C35" s="22"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="43">
+      <c r="E35" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7029,7 +8099,7 @@
       <c r="B36" s="14"/>
       <c r="C36" s="22"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="43">
+      <c r="E36" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7041,7 +8111,7 @@
       <c r="B37" s="14"/>
       <c r="C37" s="22"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="43">
+      <c r="E37" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7053,7 +8123,7 @@
       <c r="B38" s="14"/>
       <c r="C38" s="22"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="43">
+      <c r="E38" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7065,7 +8135,7 @@
       <c r="B39" s="14"/>
       <c r="C39" s="22"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="43">
+      <c r="E39" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7080,16 +8150,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91D16C2-792D-474A-819C-DD60A0C5D57B}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
@@ -7098,10 +8168,10 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="68" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="14" t="s">
@@ -7115,10 +8185,10 @@
       <c r="A2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="68" t="s">
         <v>245</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -7133,10 +8203,10 @@
       <c r="A3" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>247</v>
       </c>
       <c r="D3" s="14">
@@ -7151,10 +8221,10 @@
       <c r="A4" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>374</v>
       </c>
       <c r="D4" s="14">
@@ -7169,22 +8239,22 @@
       <c r="A5" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="14"/>
       <c r="E5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="108" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="108" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="67" t="s">
         <v>379</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="69" t="s">
         <v>378</v>
       </c>
       <c r="D6" s="25">
@@ -7199,10 +8269,10 @@
       <c r="A7" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>381</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -7217,10 +8287,10 @@
       <c r="A8" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>383</v>
       </c>
       <c r="D8" s="14"/>
@@ -7236,7 +8306,7 @@
       <c r="B9" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>364</v>
       </c>
       <c r="D9" s="14">
@@ -7252,7 +8322,7 @@
       <c r="A10" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="10" t="s">
         <v>580</v>
       </c>
       <c r="D10" s="14">
@@ -7267,8 +8337,8 @@
       <c r="A11" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="8" t="s">
         <v>581</v>
       </c>
       <c r="D11" s="14">
@@ -7283,8 +8353,8 @@
       <c r="A12" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="8" t="s">
         <v>580</v>
       </c>
       <c r="D12" s="14">
@@ -7299,8 +8369,8 @@
       <c r="A13" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="8" t="s">
         <v>597</v>
       </c>
       <c r="D13" s="14">
@@ -7311,24 +8381,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B14" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="D14" s="14">
+        <v>700</v>
+      </c>
+      <c r="E14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Chăn hè Tencel 60s hoa nhã nhặn – Dịu mát như làn gió sớm mai</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="14"/>
       <c r="E15" s="19">
         <f t="shared" si="0"/>
@@ -7339,8 +8415,8 @@
       <c r="A16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="14"/>
       <c r="E16" s="19">
         <f t="shared" si="0"/>
@@ -7351,8 +8427,8 @@
       <c r="A17" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="14"/>
       <c r="E17" s="19">
         <f t="shared" si="0"/>
@@ -7363,8 +8439,8 @@
       <c r="A18" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="14"/>
       <c r="E18" s="19">
         <f t="shared" si="0"/>
@@ -7375,8 +8451,8 @@
       <c r="A19" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="14"/>
       <c r="E19" s="19">
         <f t="shared" si="0"/>
@@ -7387,8 +8463,8 @@
       <c r="A20" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="14"/>
       <c r="E20" s="19">
         <f t="shared" si="0"/>
@@ -7399,8 +8475,8 @@
       <c r="A21" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="14"/>
       <c r="E21" s="19">
         <f t="shared" si="0"/>
@@ -7411,8 +8487,8 @@
       <c r="A22" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="14"/>
       <c r="E22" s="19">
         <f t="shared" si="0"/>
@@ -7423,8 +8499,8 @@
       <c r="A23" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="14"/>
       <c r="E23" s="19">
         <f t="shared" si="0"/>
@@ -7435,8 +8511,8 @@
       <c r="A24" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="14"/>
       <c r="E24" s="19">
         <f t="shared" si="0"/>
@@ -7447,8 +8523,8 @@
       <c r="A25" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="14"/>
       <c r="E25" s="19">
         <f t="shared" si="0"/>
@@ -7459,8 +8535,8 @@
       <c r="A26" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="14"/>
       <c r="E26" s="19">
         <f t="shared" si="0"/>
@@ -7471,8 +8547,8 @@
       <c r="A27" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="14"/>
       <c r="E27" s="19">
         <f t="shared" si="0"/>
@@ -7483,8 +8559,8 @@
       <c r="A28" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="14"/>
       <c r="E28" s="19">
         <f t="shared" si="0"/>
@@ -7495,8 +8571,8 @@
       <c r="A29" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="22"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="14"/>
       <c r="E29" s="19">
         <f t="shared" si="0"/>
@@ -7507,8 +8583,8 @@
       <c r="A30" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="14"/>
       <c r="E30" s="19">
         <f t="shared" si="0"/>
@@ -7519,8 +8595,8 @@
       <c r="A31" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="14"/>
       <c r="E31" s="19">
         <f t="shared" si="0"/>
@@ -7531,8 +8607,8 @@
       <c r="A32" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="14"/>
       <c r="E32" s="19">
         <f t="shared" si="0"/>
@@ -7543,8 +8619,8 @@
       <c r="A33" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="22"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="14"/>
       <c r="E33" s="19">
         <f t="shared" si="0"/>
@@ -7555,8 +8631,8 @@
       <c r="A34" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="22"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="14"/>
       <c r="E34" s="19">
         <f t="shared" si="0"/>
@@ -7567,8 +8643,8 @@
       <c r="A35" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="14"/>
       <c r="E35" s="19">
         <f t="shared" si="0"/>
@@ -7579,8 +8655,8 @@
       <c r="A36" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="14"/>
       <c r="E36" s="19">
         <f t="shared" si="0"/>
@@ -7591,8 +8667,8 @@
       <c r="A37" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="14"/>
       <c r="E37" s="19">
         <f t="shared" si="0"/>
@@ -7603,8 +8679,8 @@
       <c r="A38" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="22"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="14"/>
       <c r="E38" s="19">
         <f t="shared" si="0"/>
@@ -7615,8 +8691,8 @@
       <c r="A39" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="22"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="14"/>
       <c r="E39" s="19">
         <f t="shared" si="0"/>
@@ -7627,8 +8703,8 @@
       <c r="A40" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="22"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="14"/>
       <c r="E40" s="19">
         <f t="shared" si="0"/>
@@ -7639,8 +8715,8 @@
       <c r="A41" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="22"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="14"/>
       <c r="E41" s="19">
         <f t="shared" si="0"/>
@@ -7651,8 +8727,8 @@
       <c r="A42" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="22"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="14"/>
       <c r="E42" s="19">
         <f t="shared" si="0"/>
@@ -7663,8 +8739,8 @@
       <c r="A43" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="22"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="14"/>
       <c r="E43" s="19">
         <f t="shared" si="0"/>
@@ -7675,8 +8751,8 @@
       <c r="A44" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="22"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="14"/>
       <c r="E44" s="19">
         <f t="shared" si="0"/>
@@ -7687,8 +8763,8 @@
       <c r="A45" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="22"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="14"/>
       <c r="E45" s="19">
         <f t="shared" si="0"/>
@@ -7699,8 +8775,8 @@
       <c r="A46" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="22"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="14"/>
       <c r="E46" s="19">
         <f t="shared" si="0"/>
@@ -7711,8 +8787,8 @@
       <c r="A47" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="22"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="14"/>
       <c r="E47" s="19">
         <f t="shared" si="0"/>
@@ -7723,8 +8799,8 @@
       <c r="A48" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="22"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="14"/>
       <c r="E48" s="19">
         <f t="shared" si="0"/>
@@ -7735,8 +8811,8 @@
       <c r="A49" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="22"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="14"/>
       <c r="E49" s="19">
         <f t="shared" si="0"/>
@@ -7747,8 +8823,8 @@
       <c r="A50" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="14"/>
       <c r="E50" s="19">
         <f t="shared" si="0"/>
@@ -9334,8 +10410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB607AA5-F627-436A-BA6E-931B66090DEC}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9508,25 +10584,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>411</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="D11" s="14">
+        <v>700</v>
+      </c>
       <c r="E11" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>766</v>
+      </c>
       <c r="E12" s="17">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/ID_SanPham._ChanGa.xlsx
+++ b/ID_SanPham._ChanGa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChanGa_Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C309CC-5719-4D7E-98E2-23D2F89EEE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0128B2-82D9-4EFB-99BC-E35F74E9260B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6F5E742-A921-4C78-A2CA-E7DD1F27105C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="cmd" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SetChanGa!$D$1:$D$219</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SetChanGa!$D$1:$D$270</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="799">
   <si>
     <t>ID</t>
   </si>
@@ -3288,6 +3288,230 @@
   </si>
   <si>
     <t>Kẻ  ngang</t>
+  </si>
+  <si>
+    <t>✨ 𝐍𝐄𝐖｜𝐂𝐇𝐈𝐍𝐆𝐒𝐎𝐀𝐍 𝟐𝟎𝟐𝟓 – Siêu phẩm chăn hè lụa thượng hạng “𝗠𝗢𝗥𝗢𝗖𝗖𝗔” ✨
+🥂 Cao cấp là khí chất – không cần phô trương
+💎 Chất liệu đỉnh cao:
+A mặt: Lụa cao tinh xảo dệt ánh ngọc trai – mềm mượt như nhung, mát lạnh như tơ
+B mặt: Tencel 60S LF Lenzing – ôm da, thoáng khí, trượt êm từng chuyển động
+🪡 Tỉ mỉ từng chi tiết:
+ • Chần bông bằng máy nhập khẩu
+ • Viền chăn may thủ công tinh xảo
+ • Đường chỉ nổi bật đẳng cấp thêu tay
+🌿 Ruột chăn: 20% tơ tằm thiên nhiên + 80% microfiber siêu mịn
+👉 Có thể giặt máy chế độ nhẹ – cực tiện chăm sóc</t>
+  </si>
+  <si>
+    <t>✨ 𝐍𝐄𝐖｜𝐂𝐇𝐈𝐍𝐆𝐒𝐎𝐀𝐍 𝟐𝟎𝟐𝟓 – Siêu phẩm chăn hè lụa thượng hạng “𝗠𝗢𝗥𝗢𝗖𝗖𝗔” ✨
+🥂 Cao cấp là khí chất – không cần phô trương</t>
+  </si>
+  <si>
+    <t>✨ 𝐋𝐔̣𝐀 𝐓𝐇𝐄̂𝐔 𝟏𝟐𝟎𝐒 – 𝐂𝐀𝐎 𝐂𝐀̂́𝐏 𝐌𝐀𝐍𝐆 𝐃𝐀̂́𝐔 𝐀̂́𝐍 𝐇𝐎𝐀̀𝐍 𝐌𝐈̃ ✨
+🌟 Dòng sản phẩm bán chạy tại showroom CHingsoan– dành riêng cho khách yêu gu thẩm mỹ cao và đòi hỏi chất lượng đỉnh.
+💎 Chất liệu: Lụa satin 120s – bề mặt mượt, bóng nhẹ sang trọng, không nhăn, mịn mát từng lớp vải
+💠 Họa tiết: Thêu tay tỉ mỉ hình chuồn chuồn – điểm nhấn nhẹ nhàng, tinh tế, đầy sức sống
+❄️ Cảm giác nằm: Mùa hè mát lạnh, mùa đông ấm vừa đủ – nâng niu giấc ngủ chuẩn spa
+⸻
+📦 Trọn bộ gồm:
+ • 01 vỏ chăn 200x230cm
+ • 01 ga phủ nhập khẩu
+ • 02 vỏ gối đầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✨ 𝐋𝐔̣𝐀 𝐓𝐇𝐄̂𝐔 𝟏𝟐𝟎𝐒 – 𝐂𝐀𝐎 𝐂𝐀̂́𝐏 𝐌𝐀𝐍𝐆 𝐃𝐀̂́𝐔 𝐀̂́𝐍 𝐇𝐎𝐀̀𝐍 𝐌𝐈̃ </t>
+  </si>
+  <si>
+    <t>𝓐𝓬𝓶𝓮 𝓒𝓸𝓵𝓵𝓪𝓰𝓮
+Bộ sưu tập kẻ Acme đỉnh chóp cập bến! Vải lụa 120s phối cùng hoạ tiết kẻ sao mà trông mê mẩn đến thế! Chả hiểu sao cứ nhìn thấy kẻ là phát cuồng !
+💚 Set tiêu chuẩn 4 món gồm :
+- Vỏ chăn 200*230
+- Ga tấm trải freesize 
+- 02 vỏ gối đầu 48*74</t>
+  </si>
+  <si>
+    <t>𝓐𝓬𝓶𝓮 𝓒𝓸𝓵𝓵𝓪𝓰𝓮</t>
+  </si>
+  <si>
+    <t>𝙁𝙊𝙍 𝙁𝘼𝙉𝙎 𝘾𝘼𝙍𝙏𝙊𝙊𝙉 🐻</t>
+  </si>
+  <si>
+    <t>TENCEL MARK CROSS 100S ĐÍNH ĐÁ Ga trần nhập khẩu- KHẲNG ĐỊNH PHONG CÁCH, NÂNG TẦM KHÔNG GIAN
+Sang trọng kết hợp cùng tinh tế, bộ chăn ga TENCEL MARK CROSS 100S đính đá mang đến trải nghiệm đẳng cấp cho không gian nghỉ ngơi của bạn. 
+✨ Chất liệu 100% TENCEL cao cấp: Mềm mại, thoáng khí, và có khả năng điều chỉnh độ ẩm, mang lại cảm giác dễ chịu, thư thái trong từng giấc ngủ.
+✨ Điểm nhấn đính đá quý tinh tế: Vẻ đẹp lấp lánh và sang trọng, biến không gian của bạn thành một tác phẩm nghệ thuật.
+✨ Phù hợp với mọi phong cách nội thất, TENCEL MARkCROSS 100S không chỉ làm đẹp phòng ngủ mà còn tạo nên không khí thanh lịch, đẳng cấp.
+🍀 Set tiêu chuẩn 4 món gồm:
+Vỏ chăn: 200x230cm
+Ga trần bông free sz
+2 vỏ gối đầu: 48x74cm</t>
+  </si>
+  <si>
+    <t>TENCEL MARK CROSS 100S ĐÍNH ĐÁ Ga trần nhập khẩu- KHẲNG ĐỊNH PHONG CÁCH, NÂNG TẦM KHÔNG GIAN</t>
+  </si>
+  <si>
+    <t>✨ 𝕊𝕒𝕟𝕘 𝕋𝕣𝕠̣𝕟𝕘 -  𝕋𝕒𝕠 ℕ𝕙𝕒̃ ✨
+    Chính là 2 cụm từ khiến người ta nghĩ ngay đến khi thấy set chăn ga  siêu phẩm này 🤩 
+    Lụa Thêu DIOR 120s😘 tone màu trắng ngọc trai kết hợp nhấn nhá viền sang trọng, cao cấp có thể sử dụng làm quà tặng, trải cưới hay nằm thường đều cực kỳ hợp lí 🥰
+🌾full set 4 món:
+ -01 vỏ chăn 200-230
+ -01 ga tấm trải 
+ -02 vỏ gối đầu kt 50-70</t>
+  </si>
+  <si>
+    <t>Lụa Thêu DIOR 120s</t>
+  </si>
+  <si>
+    <t>MARK JACOB seri 12 𝐍𝐄𝐖Sản phẩm mới Xuân Hè 2025 
+Telcel 80s  #[Leyman] 
+[Lenzing]🌿🌿 Telcel Ga trần nhập khẩu 🦢
+Nghệ thuật  in hoa hiện đại từ Phố đông-Thượng Hải màu sắc sắc nét  và thanh lịch, thể hiện vẻ đẹp nghệ thuật trong từng cánh hoa👒
+Từng thớ vải Telcel lenzing🌱mát mịn kết hợp tont màu tươi mới hoạ tiết sắc nét mang tới không gian tuyệt vơi, toả hương thơm mát💧
+Set 5 món
+-1 vỏ chăn 200*230cm
+-1 vo gối ôm trần bông 35*100cm
+-2 vo gối nằm 48*74cm
+-1 ga trần phủ freesize khổ lớn 245*265cm</t>
+  </si>
+  <si>
+    <t>for /f %I in ("%cd%") do set folder=%~nxI</t>
+  </si>
+  <si>
+    <t>for /l %i in (1,1,16) do mkdir  %folder%_%i</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>𝗟𝗢𝗩𝗘 𝗔𝗡𝗗 𝗠𝗘
+✈︎ Đặt ngay một vé hạng thương gia bay thẳng đến trái tim nàng với set chăn ga gối Lụa thượng hạng Love and Me mới nhất! 
+🌹 Như minh chứng cho tình yêu, set chăn ga có hoạ tiết vân chìm và đường thêu logo nổi  tuyệt đẹp, chất liệu vải sợi 100s vô cùng bền bỉ nhưng lại rất mềm và mịn
+🎁 Set tiêu chuẩn 4 món gồm :
+- Vỏ chăn 200*230
+- Ga tấm trải freesize 
+- 02 vỏ gối đầu 48*74</t>
+  </si>
+  <si>
+    <t>🌿【𝗨𝗡𝗜𝗖𝗢𝗥𝗡 𝗧𝗘𝗡𝗖𝗘𝗟 𝟮𝟬𝟮𝟱 · 𝗖𝗛𝗔̆́𝗡 𝗛𝗘̀ 𝗖𝗔𝗣𝗬 𝗕𝗔𝗥🌿
+🥕“Bạn tưởng tôi đang ngơ ngác… Thật ra tôi đang suy nghĩ về nhân sinh!” – Capy Bara nói thế!
+✔️ 𝗧𝗲𝗻𝗰𝗲𝗹™ LF cấp cao từ Áo – siêu mềm, siêu mướt, thoáng mát mịn như sữa
+✔️ Kèm full tag chính hãng, dệt tinh tế, dùng một lần là mê!
+🧵 Thiết kế tinh xảo:
+✨ Thêu Capy Bara “nghĩ sâu sắc” vừa ngố vừa cute
+✨ Kỹ thuật thêu đắp cao cấp, đường kim tỉ mỉ
+✨ AB phối màu cực xinh + chần bông thủ công định vị
+☁️Chăn hè siêu mềm nguyên tấm, không xô lệch – nâng giấc ngủ như ôm gấu bông khổng lồ
+💖 Full set 5 chi tiết:
+✔️ 01 chăn hè 200×230
+✔️ 01 ga tấm trải (free size)
+✔️ 02 vỏ gối 50×70
+✔️ 01 gối trang trí Capy siêu yêu</t>
+  </si>
+  <si>
+    <t>👑 Princess Lullaby – Bộ chăn ga mộng mơ cho nàng thơ hiện đại
+Nhẹ như một bản nhạc ru, mềm như làn gió thoảng – bộ chăn ga Tencel cao cấp là món quà dành riêng cho những cô gái yêu sự tinh tế và thanh lịch.
+💫 Chất liệu Tencel mượt mà, điều hòa nhiệt độ theo mùa – mát về hè, ấm khi đông sang.
+💫 Thiết kế trần bông tinh xảo, bèo nhún duyên dáng như váy dạ hội công chúa.
+💫 Có 3 tông màu thanh nhã: Hồng phấn - Kem vani - Xanh mint dịu mát
+🌸 Set tiêu chuẩn 4 món:
+ • 01 chăn hè 200x230cm
+ • 01 ga tấm trải freesize
+ • 02 vỏ gối đầu 48x74cm</t>
+  </si>
+  <si>
+    <t>👑 Princess Lullaby – Bộ chăn ga mộng mơ cho nàng thơ hiện đại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cạp nhật 29 màu cotton đũi sẵn sll hàng về bổ sung liên tục thoải mái chạy ạ /-heart /-heart 
+</t>
+  </si>
+  <si>
+    <t>Si 
+650 680 700</t>
+  </si>
+  <si>
+    <t>cotton đũi</t>
+  </si>
+  <si>
+    <t>Bộ chăn ga gối Lụa sateen cao cấp, bộ chăn ga gối 4 món mềm mại
+"SilkElegance"
+**Thiết Kế Đơn Giản, Tinh Tế**: Với màu sắc chủ đạo tinh tế và hoạ tiết uốn lượn duyên dáng, sản phẩm chăn ga của chúng tôi tạo điểm nhấn tuyệt vời cho không gian phòng ngủ của bạn. Thiết kế đơn giản nhưng không kém phần tinh tế, chúng tôi tạo nên một không gian thư giãn và trang nhã cho bạn thưởng thức.
+**Chất Liệu Sateen Cao Cấp**: Chúng tôi sử dụng chất liệu sateen cao cấp để đảm bảo bạn có trải nghiệm ngủ tốt nhất. Chất liệu sateen mềm mịn, mát mẻ và êm ái tiếp xúc với da, giúp bạn thư giãn sau một ngày dài và mệt mỏi.
+**Sự Kết Hợp Hoàn Hảo**: Chăn ga của chúng tôi không chỉ đẹp mắt mà còn rất bền và dễ bảo quản. Sự kết hợp hoàn hảo giữa thiết kế và chất liệu tạo nên một sản phẩm cao cấp, đáng đầu tư cho không gian ngủ của bạn.</t>
+  </si>
+  <si>
+    <t>Bộ chăn ga gối Lụa sateen cao cấp, bộ chăn ga gối 4 món mềm mại
+"SilkElegance"</t>
+  </si>
+  <si>
+    <t>✨ LUXE – NÂNG TẦM PHÒNG NGỦ
+Dòng sản phẩm TENCEL THÊU 80s cao cấp – sang trọng, mịn mát, chuẩn khách sạn 5⭐
+💎 Chất liệu: Tencel 80s nhập khẩu, dệt vân ánh nhung – mát tay, mềm mượt, kháng khuẩn tự nhiên
+🪡 Thiết kế:
+• Thêu logo tinh tế
+• Viền satin sang trọng
+• Màu sắc thời thượng: hồng phấn, kem champagne, be sữa, ghi bạc
+📦 Set 4 món tiêu chuẩn
+• 01 ga phủ freesize
+• 01 vỏ chăn 200x230 (khóa kéo)
+• 02 vỏ gối 50x70
+🧳 Phù hợp decor phòng cưới, homestay, villa, phòng ngủ phong cách hiện đại – tối giản</t>
+  </si>
+  <si>
+    <t>🌟 "Premium Love Heart Bedding Set" 💌
+Sự dịu dàng và lãng mạn với bộ chăn ga cao cấp, với ba tông màu hồng, kem và trắng tinh tế. Viền của bộ chăn ga được thêu rất nhiều trái tim, tạo điểm nhấn đầy yêu thương và tinh tế. 
+Set 4 món
+-2 vỏ gối
+-1 vỏ ga
+-1 vỏ chăn</t>
+  </si>
+  <si>
+    <t>Cologne Margaret | Bộ chăn hè tơ tằm &amp; vải dệt jacquard mật độ cao
+“Mềm như ánh trăng – Mát như sương sớm”
+Một tuyệt phẩm chăn hè mang tinh thần hoàng gia, hòa quyện giữa vẻ đẹp cổ điển và công nghệ chất liệu hiện đại, dành riêng cho những giấc ngủ tinh tế và trọn vẹn.
+⸻
+Chất liệu cấu tạo cao cấp:
+ • Mặt A: Vải jacquard dệt hoa văn mật độ cao – họa tiết sắc nét, bề mặt óng ánh, mềm mượt như lụa satin.
+ • Mặt B: 60s tơ tằm tự nhiên – siêu mịn, thấm hút, mát lạnh tức thì khi chạm vào da.
+⸻
+Thiết kế Cologne Margaret – Đẹp ở từng góc nhìn:
+ • Tông màu pastel trang nhã như kem champagne, hồng nude, ánh ngọc trai… dễ dàng decor theo phong cách châu Âu hiện đại hoặc Á Đông thanh lịch.
+ • Họa tiết hoàng gia dệt nổi mang lại chiều sâu thị giác, giúp không gian phòng ngủ bừng sáng và đầy khí chất.
+⸻
+Tính năng nổi bật:
+ • Vải dày dặn nhưng vẫn nhẹ và thoáng – lý tưởng cho mùa hè hoặc thời tiết nồm ẩm.
+ • Tơ tằm tự nhiên kháng khuẩn, thân thiện với làn da nhạy cảm, đặc biệt phù hợp cho người lớn tuổi và phụ nữ yêu thích sản phẩm cao cấp.
+ • Giặt tay hoặc giặt máy chế độ nhẹ, không nhăn, không phai màu, không trượt khỏi nệm.
+⸻
+Bộ sản phẩm bao gồm:
+ • Chăn hè: 200x230cm
+ • Ga phủ: 245x245cm
+ • Vỏ gối: 48x74cm x2</t>
+  </si>
+  <si>
+    <t>🌿 KISSLIFE | 2025
+💠 60S TENCEL CAO CẤP – MÁT LỊM NHƯ ĐIỀU HOÀ THIÊN NHIÊN
+✨ Siêu phẩm “- Silk Delight”
+Mềm mát – Dịu da – Thoáng khí – Sang trọng từng chi tiết 🌬️
+🔸 Chất liệu:80s Tencel nhập khẩu Áo (Lenzing LF) – 100% từ sợi gỗ tự nhiên, thân thiện môi trường và cực kỳ mịn mướt
+🔸 Thiết kế: Viền ren bản lớn + bèo rộng cực kỳ thời thượng
+🔸 Tone màu:
+ • 🍦Khí Chất Kem – ngọt ngào nhẹ nhàng, sang mà không phô
+ • 🩶 Bạc Thanh Lịch – dịu mát &amp; tinh tế đến từng sợi vải
+🧵 Bộ sản phẩm:
+• 1 vỏ chăn 200x230
+• 1 ga phủ 245x250 
+• 2 vỏ gối nằm 48x74</t>
+  </si>
+  <si>
+    <t>✨ Một siêu phẩm lấp lánh – 𝑴𝑯𝑭𝑶𝑹𝑬𝑺𝑻 ✨
+𝐃𝐚̀𝐧𝐡 𝐜𝐡𝐨 𝐜𝐚́𝐜𝐡 𝐭𝐢𝐧𝐡 𝐧𝐡𝐚̂𝐧 𝐲𝐞̂𝐮 𝐬𝐮̛̣ 𝐬𝐚𝐧𝐠 𝐜𝐡𝐢̉𝐧𝐡 𝐦𝐚̀ 𝐤𝐡𝐨̂𝐧𝐠 𝐥𝐨̣̂ 𝐥𝐨𝐬𝐞!
+🌸 Lụa Jacquard 120s cao cấp – mềm mát, bóng nhẹ, họa tiết chìm thanh lịch.
+✨ Dệt kim tuyến ánh nhẹ, lên đèn cực sang – vừa tinh tế vừa nổi bật.
+💼 Bộ sản phẩm gồm:
+• 1 ga tấm trải giường free size
+• 1 vỏ chăn 200x230cm (khóa kéo)
+• 2 vỏ gối đầu 50x70cm</t>
   </si>
 </sst>
 </file>
@@ -3674,40 +3898,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3746,13 +3946,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4073,15 +4297,15 @@
   <dimension ref="A1:J270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K197" sqref="K197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="153.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="156" style="6" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -4111,19 +4335,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="58">
+      <c r="D2" s="50">
         <v>1700</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="47" t="s">
         <v>186</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -4131,610 +4355,610 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="56"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="48"/>
       <c r="J3" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="56"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="48"/>
       <c r="J4" s="2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="56"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="48"/>
       <c r="J5" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="56"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="48"/>
       <c r="J6" s="2" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="56"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="48"/>
       <c r="J7" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="56"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="48"/>
       <c r="J8" s="2" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="56"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="48"/>
       <c r="J9" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="56"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="57"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="60">
         <v>1950</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="59" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="46"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="46"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="46"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="59"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="46"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="46"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="18" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="46"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="46"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="46"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="46"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="59"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="46"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="59"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="46"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="59"/>
     </row>
     <row r="24" spans="1:5" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="63">
         <v>2300</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="59" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="59"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="59"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="59"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="59"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="46"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="59"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="59"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="59"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="59"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="59"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D36" s="44">
+      <c r="D36" s="60">
         <v>1700</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="59" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="46"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="59"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="46"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="59"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="46"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="59"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="46"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="59"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="46"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="59"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="46"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="59"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="46"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="59"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="46"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="59"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="46"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="59"/>
     </row>
     <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D46" s="44">
+      <c r="D46" s="60">
         <v>1950</v>
       </c>
-      <c r="E46" s="46" t="s">
+      <c r="E46" s="59" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="46"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="59"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="46"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="59"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="46"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="59"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="46"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="59"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="46"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="59"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="46"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="59"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="46"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="59"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="46"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="59"/>
     </row>
     <row r="55" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="44">
+      <c r="D55" s="60">
         <v>1650</v>
       </c>
-      <c r="E55" s="46" t="s">
+      <c r="E55" s="59" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="46"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="59"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="46"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="59"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="46"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="59"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="43"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="46"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="59"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="46"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="59"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="46"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="59"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="46"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="59"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="46"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="59"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="46"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="59"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="46"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="59"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="46"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="59"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="43"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="46"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="59"/>
     </row>
     <row r="68" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C68" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="D68" s="45">
+      <c r="D68" s="63">
         <v>1850</v>
       </c>
-      <c r="E68" s="46" t="s">
+      <c r="E68" s="59" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="59"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="46"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="59"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="46"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="59"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="43"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="46"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="59"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="46"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="59"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="46"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="59"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="46"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="59"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="59"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="59"/>
     </row>
     <row r="78" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
@@ -6484,217 +6708,309 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B181" s="1"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="38">
+      <c r="B181" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="D181" s="1">
+        <v>2350</v>
+      </c>
+      <c r="E181" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>✨ 𝐍𝐄𝐖｜𝐂𝐇𝐈𝐍𝐆𝐒𝐎𝐀𝐍 𝟐𝟎𝟐𝟓 – Siêu phẩm chăn hè lụa thượng hạng “𝗠𝗢𝗥𝗢𝗖𝗖𝗔” ✨
+🥂 Cao cấp là khí chất – không cần phô trương</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B182" s="1"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="38">
+      <c r="B182" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D182" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E182" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">✨ 𝐋𝐔̣𝐀 𝐓𝐇𝐄̂𝐔 𝟏𝟐𝟎𝐒 – 𝐂𝐀𝐎 𝐂𝐀̂́𝐏 𝐌𝐀𝐍𝐆 𝐃𝐀̂́𝐔 𝐀̂́𝐍 𝐇𝐎𝐀̀𝐍 𝐌𝐈̃ </v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B183" s="1"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="38">
+      <c r="B183" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="D183" s="1">
+        <v>2100</v>
+      </c>
+      <c r="E183" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>𝓐𝓬𝓶𝓮 𝓒𝓸𝓵𝓵𝓪𝓰𝓮</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B184" s="1"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="38">
+      <c r="B184" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D184" s="1">
+        <v>450</v>
+      </c>
+      <c r="E184" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>𝙁𝙊𝙍 𝙁𝘼𝙉𝙎 𝘾𝘼𝙍𝙏𝙊𝙊𝙉 🐻</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B185" s="1"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="38">
+      <c r="B185" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="D185" s="1">
+        <v>2650</v>
+      </c>
+      <c r="E185" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>TENCEL MARK CROSS 100S ĐÍNH ĐÁ Ga trần nhập khẩu- KHẲNG ĐỊNH PHONG CÁCH, NÂNG TẦM KHÔNG GIAN</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B186" s="1"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="38">
+      <c r="B186" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="D186" s="1">
+        <v>2100</v>
+      </c>
+      <c r="E186" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Lụa Thêu DIOR 120s</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B187" s="1"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="1"/>
+      <c r="C187" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="D187" s="1">
+        <v>2000</v>
+      </c>
       <c r="E187" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B188" s="1"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="1"/>
+      <c r="C188" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="D188" s="1">
+        <v>2100</v>
+      </c>
       <c r="E188" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B189" s="1"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="1"/>
+      <c r="C189" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="D189" s="1">
+        <v>1650</v>
+      </c>
       <c r="E189" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B190" s="1"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="38">
+      <c r="B190" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D190" s="1">
+        <v>2450</v>
+      </c>
+      <c r="E190" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>👑 Princess Lullaby – Bộ chăn ga mộng mơ cho nàng thơ hiện đại</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B191" s="1"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="38">
+      <c r="B191" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E191" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>cotton đũi</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B192" s="1"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="38">
+      <c r="B192" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1950</v>
+      </c>
+      <c r="E192" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Bộ chăn ga gối Lụa sateen cao cấp, bộ chăn ga gối 4 món mềm mại
+"SilkElegance"</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B193" s="1"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="1"/>
+      <c r="C193" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D193" s="1">
+        <v>850</v>
+      </c>
       <c r="E193" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B194" s="1"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="1"/>
+      <c r="C194" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1950</v>
+      </c>
       <c r="E194" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B195" s="1"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="1"/>
+      <c r="C195" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="D195" s="1">
+        <v>2000</v>
+      </c>
       <c r="E195" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B196" s="1"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="1"/>
+      <c r="C196" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="D196" s="1">
+        <v>2650</v>
+      </c>
       <c r="E196" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B197" s="1"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="1"/>
+      <c r="C197" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="D197" s="1">
+        <v>1950</v>
+      </c>
       <c r="E197" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B198" s="1"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="1"/>
+      <c r="C198" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="D198" s="1">
+        <v>1700</v>
+      </c>
       <c r="E198" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6753,7 +7069,9 @@
         <v>465</v>
       </c>
       <c r="B203" s="1"/>
-      <c r="C203" s="4"/>
+      <c r="C203" s="4" t="s">
+        <v>784</v>
+      </c>
       <c r="D203" s="1"/>
       <c r="E203" s="38">
         <f t="shared" si="4"/>
@@ -7565,19 +7883,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D219" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}"/>
+  <autoFilter ref="D1:D270" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}"/>
   <mergeCells count="35">
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="E36:E45"/>
-    <mergeCell ref="E46:E54"/>
-    <mergeCell ref="E24:E35"/>
-    <mergeCell ref="E12:E23"/>
-    <mergeCell ref="B36:B45"/>
-    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="D68:D77"/>
+    <mergeCell ref="E68:E77"/>
+    <mergeCell ref="E55:E67"/>
+    <mergeCell ref="D55:D67"/>
+    <mergeCell ref="B55:B67"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="C55:C67"/>
+    <mergeCell ref="C68:C77"/>
     <mergeCell ref="A36:A45"/>
     <mergeCell ref="B46:B54"/>
     <mergeCell ref="D46:D54"/>
@@ -7592,16 +7909,17 @@
     <mergeCell ref="C24:C35"/>
     <mergeCell ref="C36:C45"/>
     <mergeCell ref="C46:C54"/>
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="D68:D77"/>
-    <mergeCell ref="E68:E77"/>
-    <mergeCell ref="E55:E67"/>
-    <mergeCell ref="D55:D67"/>
-    <mergeCell ref="B55:B67"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="C55:C67"/>
-    <mergeCell ref="C68:C77"/>
+    <mergeCell ref="E36:E45"/>
+    <mergeCell ref="E46:E54"/>
+    <mergeCell ref="E24:E35"/>
+    <mergeCell ref="E12:E23"/>
+    <mergeCell ref="B36:B45"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7620,13 +7938,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C48B2C-3B71-4A97-889A-14151471C093}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -7634,8 +7954,19 @@
         <v>334</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8171,7 +8502,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="14" t="s">
@@ -8188,7 +8519,7 @@
       <c r="B2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="44" t="s">
         <v>245</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -8240,7 +8571,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="68"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="14"/>
       <c r="E5" s="19">
         <f t="shared" si="0"/>
@@ -8251,10 +8582,10 @@
       <c r="A6" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="45" t="s">
         <v>378</v>
       </c>
       <c r="D6" s="25">
@@ -8404,7 +8735,7 @@
         <v>117</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="68"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="14"/>
       <c r="E15" s="19">
         <f t="shared" si="0"/>
@@ -8416,7 +8747,7 @@
         <v>118</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="68"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="14"/>
       <c r="E16" s="19">
         <f t="shared" si="0"/>
@@ -8428,7 +8759,7 @@
         <v>119</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="68"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="14"/>
       <c r="E17" s="19">
         <f t="shared" si="0"/>
@@ -8440,7 +8771,7 @@
         <v>120</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="68"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="14"/>
       <c r="E18" s="19">
         <f t="shared" si="0"/>
@@ -8452,7 +8783,7 @@
         <v>121</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="68"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="14"/>
       <c r="E19" s="19">
         <f t="shared" si="0"/>
@@ -8464,7 +8795,7 @@
         <v>122</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="68"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="14"/>
       <c r="E20" s="19">
         <f t="shared" si="0"/>
@@ -8476,7 +8807,7 @@
         <v>123</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="68"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="14"/>
       <c r="E21" s="19">
         <f t="shared" si="0"/>
@@ -8488,7 +8819,7 @@
         <v>124</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="68"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="14"/>
       <c r="E22" s="19">
         <f t="shared" si="0"/>
@@ -8500,7 +8831,7 @@
         <v>125</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="68"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="14"/>
       <c r="E23" s="19">
         <f t="shared" si="0"/>
@@ -8512,7 +8843,7 @@
         <v>126</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="68"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="14"/>
       <c r="E24" s="19">
         <f t="shared" si="0"/>
@@ -8524,7 +8855,7 @@
         <v>127</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="68"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="14"/>
       <c r="E25" s="19">
         <f t="shared" si="0"/>
@@ -8536,7 +8867,7 @@
         <v>128</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="68"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="14"/>
       <c r="E26" s="19">
         <f t="shared" si="0"/>
@@ -8548,7 +8879,7 @@
         <v>129</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="68"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="14"/>
       <c r="E27" s="19">
         <f t="shared" si="0"/>
@@ -8560,7 +8891,7 @@
         <v>130</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="68"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="14"/>
       <c r="E28" s="19">
         <f t="shared" si="0"/>
@@ -8572,7 +8903,7 @@
         <v>131</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="68"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="14"/>
       <c r="E29" s="19">
         <f t="shared" si="0"/>
@@ -8584,7 +8915,7 @@
         <v>132</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="68"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="14"/>
       <c r="E30" s="19">
         <f t="shared" si="0"/>
@@ -8596,7 +8927,7 @@
         <v>133</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="68"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="14"/>
       <c r="E31" s="19">
         <f t="shared" si="0"/>
@@ -8608,7 +8939,7 @@
         <v>134</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="68"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="14"/>
       <c r="E32" s="19">
         <f t="shared" si="0"/>
@@ -8620,7 +8951,7 @@
         <v>135</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="68"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="14"/>
       <c r="E33" s="19">
         <f t="shared" si="0"/>
@@ -8632,7 +8963,7 @@
         <v>136</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="68"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="14"/>
       <c r="E34" s="19">
         <f t="shared" si="0"/>
@@ -8644,7 +8975,7 @@
         <v>137</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="68"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="14"/>
       <c r="E35" s="19">
         <f t="shared" si="0"/>
@@ -8656,7 +8987,7 @@
         <v>138</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="68"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="14"/>
       <c r="E36" s="19">
         <f t="shared" si="0"/>
@@ -8668,7 +8999,7 @@
         <v>139</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="68"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="14"/>
       <c r="E37" s="19">
         <f t="shared" si="0"/>
@@ -8680,7 +9011,7 @@
         <v>140</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="68"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="14"/>
       <c r="E38" s="19">
         <f t="shared" si="0"/>
@@ -8692,7 +9023,7 @@
         <v>141</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="68"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="14"/>
       <c r="E39" s="19">
         <f t="shared" si="0"/>
@@ -8704,7 +9035,7 @@
         <v>142</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="68"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="14"/>
       <c r="E40" s="19">
         <f t="shared" si="0"/>
@@ -8716,7 +9047,7 @@
         <v>143</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="68"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="14"/>
       <c r="E41" s="19">
         <f t="shared" si="0"/>
@@ -8728,7 +9059,7 @@
         <v>144</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="68"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="14"/>
       <c r="E42" s="19">
         <f t="shared" si="0"/>
@@ -8740,7 +9071,7 @@
         <v>145</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="68"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="14"/>
       <c r="E43" s="19">
         <f t="shared" si="0"/>
@@ -8752,7 +9083,7 @@
         <v>146</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="68"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="14"/>
       <c r="E44" s="19">
         <f t="shared" si="0"/>
@@ -8764,7 +9095,7 @@
         <v>147</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="68"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="14"/>
       <c r="E45" s="19">
         <f t="shared" si="0"/>
@@ -8776,7 +9107,7 @@
         <v>148</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="68"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="14"/>
       <c r="E46" s="19">
         <f t="shared" si="0"/>
@@ -8788,7 +9119,7 @@
         <v>149</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="68"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="14"/>
       <c r="E47" s="19">
         <f t="shared" si="0"/>
@@ -8800,7 +9131,7 @@
         <v>150</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="68"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="14"/>
       <c r="E48" s="19">
         <f t="shared" si="0"/>
@@ -8812,7 +9143,7 @@
         <v>151</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="68"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="14"/>
       <c r="E49" s="19">
         <f t="shared" si="0"/>
@@ -8824,7 +9155,7 @@
         <v>152</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="68"/>
+      <c r="C50" s="44"/>
       <c r="D50" s="14"/>
       <c r="E50" s="19">
         <f t="shared" si="0"/>
@@ -9305,8 +9636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8069A21-3383-4151-AB2E-581D906FD6A7}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ID_SanPham._ChanGa.xlsx
+++ b/ID_SanPham._ChanGa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChanGa_Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0128B2-82D9-4EFB-99BC-E35F74E9260B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5652455-CCEF-4F6D-BFD6-F469E176BD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6F5E742-A921-4C78-A2CA-E7DD1F27105C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="807">
   <si>
     <t>ID</t>
   </si>
@@ -3380,9 +3380,6 @@
     <t>for /l %i in (1,1,16) do mkdir  %folder%_%i</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>𝗟𝗢𝗩𝗘 𝗔𝗡𝗗 𝗠𝗘
 ✈︎ Đặt ngay một vé hạng thương gia bay thẳng đến trái tim nàng với set chăn ga gối Lụa thượng hạng Love and Me mới nhất! 
 🌹 Như minh chứng cho tình yêu, set chăn ga có hoạ tiết vân chìm và đường thêu logo nổi  tuyệt đẹp, chất liệu vải sợi 100s vô cùng bền bỉ nhưng lại rất mềm và mịn
@@ -3512,6 +3509,62 @@
 • 1 ga tấm trải giường free size
 • 1 vỏ chăn 200x230cm (khóa kéo)
 • 2 vỏ gối đầu 50x70cm</t>
+  </si>
+  <si>
+    <t>🌙 Cologne | Midnight in Paris – Paris về đêm| Hàng ga chần sẵn
+🎞️ Tựa như một khung hình trong phim cổ điển Pháp
+💋 Gam hồng trầm quyến rũ kết hợp hoa văn cổ điển Á – Âu như những thước phim từ thập niên vàng son. Từng cánh hoa như khắc họa câu chuyện tình ẩn giấu trong ánh đèn vàng mờ ảo của Paris lúc nửa đêm.
+✨ Chi tiết chất liệu cao cấp:
+Mặt A: 🫧 Lụa satin tự nhiên – mềm mịn, mượt mà
+Mặt B: 🍃 Tencel cotton – mát lành, thoáng khí
+Kỹ thuật: 🎨 In kỹ thuật số + YKK khóa kéo</t>
+  </si>
+  <si>
+    <t>Sỉ sẵn sll 530 540 560</t>
+  </si>
+  <si>
+    <t>Hot new 2025❄️❄️
+Dòng vải thế hệ mới lần đầu tiên xuất hiện ✨👌
+Cotton linen 3 chiều Magnetic mặt vải sợi lanh đc dệt từ cây gai dầu đanh mịn mềm mát chống ẩm mốc cực kì hiệu quả kết hợp phong cách trần bông hàn quốc sang trọng 🇰🇷
+Đặc biệt chăn chần vẫn có khoá kéo lồng dc ruột cực kì tiện lợi
+Thật sự rất xứng đáng để trải nghiệm 🫧
+Full set 5 món 
+-1 chăn trần 200*230cm có khoá kéo lồng ruột
+-2 vỏ gối trần 48*74cm
+-1 ga chun trần ( m6 -m8 -2m2 cao 25cm )
+1 vỏ ôm trần bông 48*74cm</t>
+  </si>
+  <si>
+    <t>ập nhật  ga gối cotton living về bù 16 mau fullsize 
+Cotton living thì vải quá nhiều ưu điểm ko cần giới thiệu nhiều ạ ;p ;p 
+cứ cotton dùng yên tâm tuyệt đối 💯</t>
+  </si>
+  <si>
+    <t>for /f %%I in ("%cd%") do set folder=%%~nxI</t>
+  </si>
+  <si>
+    <t>for /l %%i in (1,1,%1) do mkdir  %folder%_%%i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call  F:\make_folder.bat </t>
+  </si>
+  <si>
+    <t>✨ MỘNG YÊN NHIÊN - TENCEL THÊU CAO CẤP ✨
+BST Xuân Hè mới – Lấy cảm hứng từ khăn lụa hoa thương hiệu H
+🌸 Thêu hoa nghệ thuật - Nữ tính đầy tinh tế
+Mẫu hoa thêu tỉ mỉ trên nền Tencel mềm mượt, sang trọng, từng đường kim như bước ra từ thời trang cao cấp.
+Tone xanh non nhẹ nhàng – hợp từ phòng đơn giản đến hiện đại.
+☁️ Chất liệu 100% Tencel Lenzing – mát lạnh như lụa thật
+ • Mỏng nhẹ chỉ 0.1mm
+ • Thoáng khí, khô ráo
+ • Dịu mát suốt đêm hè
+Set gồm:
+ • 1 vỏ chăn 200x230 (thêu cao cấp)
+ • 1 ga trải giường 245x250
+ • 2 vỏ gối đầu 50x70</t>
+  </si>
+  <si>
+    <t>730 750 780</t>
   </si>
 </sst>
 </file>
@@ -4297,8 +4350,8 @@
   <dimension ref="A1:J270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K197" sqref="K197"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,7 +5031,7 @@
         <v>𝐍ế𝐮 𝐞𝐦 𝐭𝐡𝐢́𝐜𝐡 𝐬ự 𝐥𝐚̃𝐧𝐠 𝐦ạ𝐧 𝐜ủ𝐚 𝐂𝐡𝐚̂𝐮 𝐀̂𝐮 𝐡𝐚̃𝐲 đế𝐧 đ𝐚̂𝐲 𝐯ớ𝐢 𝐚𝐧𝐡✨</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
         <v>13</v>
       </c>
@@ -5602,7 +5655,7 @@
         <v>✨ CHĂN GA LỤA THÊU BÁNH BÈO – NÀNG CÔNG CHÚA TRONG MƠ ✨</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>50</v>
       </c>
@@ -5992,7 +6045,7 @@
 Đáng yêu như Min Min - Thắp ánh đèn bật tình yêu lên </v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>74</v>
       </c>
@@ -6137,7 +6190,7 @@
         <v>Họa Tiết Nghệ Thuật Huyền Diệu</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>82</v>
       </c>
@@ -6257,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>89</v>
       </c>
@@ -6799,7 +6852,7 @@
         <v>TENCEL MARK CROSS 100S ĐÍNH ĐÁ Ga trần nhập khẩu- KHẲNG ĐỊNH PHONG CÁCH, NÂNG TẦM KHÔNG GIAN</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>448</v>
       </c>
@@ -6839,7 +6892,7 @@
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D188" s="1">
         <v>2100</v>
@@ -6855,7 +6908,7 @@
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D189" s="1">
         <v>1650</v>
@@ -6870,10 +6923,10 @@
         <v>452</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D190" s="1">
         <v>2450</v>
@@ -6888,13 +6941,13 @@
         <v>453</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C191" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="E191" s="38" t="str">
         <f t="shared" si="4"/>
@@ -6906,10 +6959,10 @@
         <v>454</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D192" s="1">
         <v>1950</v>
@@ -6942,7 +6995,7 @@
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D194" s="1">
         <v>1950</v>
@@ -6958,7 +7011,7 @@
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D195" s="1">
         <v>2000</v>
@@ -6974,7 +7027,7 @@
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D196" s="1">
         <v>2650</v>
@@ -6990,7 +7043,7 @@
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D197" s="1">
         <v>1950</v>
@@ -7006,7 +7059,7 @@
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D198" s="1">
         <v>1700</v>
@@ -7016,49 +7069,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B199" s="1"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="1"/>
+      <c r="C199" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="D199" s="1">
+        <v>2300</v>
+      </c>
       <c r="E199" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B200" s="1"/>
-      <c r="C200" s="4"/>
-      <c r="D200" s="1"/>
+      <c r="C200" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>799</v>
+      </c>
       <c r="E200" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B201" s="1"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="1"/>
+      <c r="C201" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>806</v>
+      </c>
       <c r="E201" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B202" s="1"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="1"/>
+      <c r="C202" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="D202" s="1">
+        <v>2000</v>
+      </c>
       <c r="E202" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7069,9 +7138,7 @@
         <v>465</v>
       </c>
       <c r="B203" s="1"/>
-      <c r="C203" s="4" t="s">
-        <v>784</v>
-      </c>
+      <c r="C203" s="4"/>
       <c r="D203" s="1"/>
       <c r="E203" s="38">
         <f t="shared" si="4"/>
@@ -7938,30 +8005,42 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C48B2C-3B71-4A97-889A-14151471C093}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>804</v>
       </c>
     </row>
   </sheetData>

--- a/ID_SanPham._ChanGa.xlsx
+++ b/ID_SanPham._ChanGa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChanGa_Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5652455-CCEF-4F6D-BFD6-F469E176BD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3459B1-771B-43AA-9EF9-D46B7F3DC3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6F5E742-A921-4C78-A2CA-E7DD1F27105C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="809">
   <si>
     <t>ID</t>
   </si>
@@ -3565,6 +3565,32 @@
   </si>
   <si>
     <t>730 750 780</t>
+  </si>
+  <si>
+    <t>𝐄𝐏𝐇𝐀𝐍 | 𝐋𝐔𝐗𝐄𝐌𝐁𝐑𝐎𝐂𝐀𝐃𝐄™ 𝟐𝟎𝟐𝟓 — ĐỈ𝐍𝐇 𝐂𝐀𝐎 𝐆Ấ𝐌 𝐓𝐇Ê𝐔 𝐇𝐎À𝐍𝐆 𝐆𝐈𝐀
+✨✨✨
+️🌟 Chất liệu đẳng cấp: Gấm lụa cao cấp phối thêu ánh kim sang trọng – từng đường nét mềm mại như dệt bằng ánh sáng.
+🎨 Tone màu thời thượng: Ghi đá &amp; Kem champagne – phối viền thêu hoa văn hoàng gia, decor phòng cực nổi bật.
+💯 Được ưa chuộng: Phòng cưới – khách sạn – showroom cao cấp.
+⸻
+️⚜️ Chất liệu: LUXEMBROCADE™ độc quyền từ Ephan – mềm, mát, không bai xù, thêu sắc nét.
+️📦 Trọn bộ gồm:
+ • 01 vỏ chăn 200×230
+ • 01 ga chun/phủ tuỳ chọn
+ • 02 vỏ gối đầu 50×70</t>
+  </si>
+  <si>
+    <t>TENCEL THÊU CHĂN HÈ – CẢ THẾ GIỚI “CƯNG XỈU” TRÊN GIƯỜNG
+[Bé chó – Bé cừu – Bé vịt cùng rủ nhau vào giấc ngủ]
+“Ngủ ngoan nha, hôm nay có cả hội thú bông nằm chung rồi đó!”
+🐶 Chăn hè siêu mát từ vải Tencel mịn như da bé
+🧸 Thêu tay từng bé thú cưng siêu yêu, nằm đâu cũng thấy đáng yêu
+☁️ Chăn nhẹ như mây, mát rượi – cuộn tròn mà không bí bách
+🌸 Màu trắng ngà &amp; hồng phấn – xinh nhẹ, sạch sẽ, nhìn là muốn ôm liền!
+Full set 4 món “iu hết sức”:
+ • 01 chăn hè thêu 200×230
+ • 02 vỏ gối 50×70
+ • 01 ga trải giường free size</t>
   </si>
 </sst>
 </file>
@@ -3960,7 +3986,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3998,39 +4057,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4350,8 +4376,8 @@
   <dimension ref="A1:J270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C225" sqref="C225"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4388,19 +4414,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="61">
         <v>1700</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="58" t="s">
         <v>186</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -4408,610 +4434,610 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="59"/>
       <c r="J3" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="48"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="59"/>
       <c r="J4" s="2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="48"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="59"/>
       <c r="J5" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="48"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="59"/>
       <c r="J6" s="2" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="48"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="59"/>
       <c r="J7" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="48"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="59"/>
       <c r="J8" s="2" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="48"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="59"/>
       <c r="J9" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="48"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="59"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="49"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="60"/>
     </row>
     <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="47">
         <v>1950</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="49" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="59"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="59"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="59"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="59"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="59"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="49"/>
     </row>
     <row r="18" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="59"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="59"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="59"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="49"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="59"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="59"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="49"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="59"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="1:5" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="48">
         <v>2300</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="49" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="59"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="59"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="59"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="59"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="59"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="59"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="59"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="59"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="59"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="59"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="59"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="47">
         <v>1700</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="49" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="59"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="49"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="59"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="49"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="59"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="49"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="59"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="49"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="59"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="49"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="59"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="49"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="59"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="49"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="59"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="49"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="59"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="49"/>
     </row>
     <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="D46" s="60">
+      <c r="D46" s="47">
         <v>1950</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="49" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="59"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="49"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="59"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="49"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="59"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="49"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="59"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="49"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="59"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="49"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="59"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="49"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="59"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="49"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="59"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="49"/>
     </row>
     <row r="55" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="60">
+      <c r="D55" s="47">
         <v>1650</v>
       </c>
-      <c r="E55" s="59" t="s">
+      <c r="E55" s="49" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="59"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="49"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="59"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="49"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="59"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="49"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="59"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="49"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="59"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="49"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="59"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="49"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="59"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="49"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="59"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="49"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="59"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="49"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="59"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="49"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="59"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="49"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="59"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="49"/>
     </row>
     <row r="68" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="61" t="s">
+      <c r="A68" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="60" t="s">
+      <c r="B68" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="D68" s="63">
+      <c r="D68" s="48">
         <v>1850</v>
       </c>
-      <c r="E68" s="59" t="s">
+      <c r="E68" s="49" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="59"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="49"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="59"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="49"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="59"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="49"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="59"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="49"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="59"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="49"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="59"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="59"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="49"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="59"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="49"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="59"/>
+      <c r="A77" s="46"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="49"/>
     </row>
     <row r="78" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
@@ -7133,25 +7159,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B203" s="1"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="1"/>
+      <c r="C203" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="D203" s="1">
+        <v>2300</v>
+      </c>
       <c r="E203" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B204" s="1"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="1"/>
+      <c r="C204" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1750</v>
+      </c>
       <c r="E204" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7952,16 +7986,17 @@
   </sheetData>
   <autoFilter ref="D1:D270" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}"/>
   <mergeCells count="35">
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="D68:D77"/>
-    <mergeCell ref="E68:E77"/>
-    <mergeCell ref="E55:E67"/>
-    <mergeCell ref="D55:D67"/>
-    <mergeCell ref="B55:B67"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="C55:C67"/>
-    <mergeCell ref="C68:C77"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="E36:E45"/>
+    <mergeCell ref="E46:E54"/>
+    <mergeCell ref="E24:E35"/>
+    <mergeCell ref="E12:E23"/>
+    <mergeCell ref="B36:B45"/>
+    <mergeCell ref="D36:D45"/>
     <mergeCell ref="A36:A45"/>
     <mergeCell ref="B46:B54"/>
     <mergeCell ref="D46:D54"/>
@@ -7976,17 +8011,16 @@
     <mergeCell ref="C24:C35"/>
     <mergeCell ref="C36:C45"/>
     <mergeCell ref="C46:C54"/>
-    <mergeCell ref="E36:E45"/>
-    <mergeCell ref="E46:E54"/>
-    <mergeCell ref="E24:E35"/>
-    <mergeCell ref="E12:E23"/>
-    <mergeCell ref="B36:B45"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="D68:D77"/>
+    <mergeCell ref="E68:E77"/>
+    <mergeCell ref="E55:E67"/>
+    <mergeCell ref="D55:D67"/>
+    <mergeCell ref="B55:B67"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="C55:C67"/>
+    <mergeCell ref="C68:C77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/ID_SanPham._ChanGa.xlsx
+++ b/ID_SanPham._ChanGa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChanGa_Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3459B1-771B-43AA-9EF9-D46B7F3DC3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA60899-A0CC-4A0F-9698-085321959281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6F5E742-A921-4C78-A2CA-E7DD1F27105C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="812">
   <si>
     <t>ID</t>
   </si>
@@ -3591,6 +3591,44 @@
  • 01 chăn hè thêu 200×230
  • 02 vỏ gối 50×70
  • 01 ga trải giường free size</t>
+  </si>
+  <si>
+    <t>🌸 Bộ sưu tập 2025
+NO.15 – Helena Light Pink
+Set 4 món
+-1 chăn hè tơ tằm
+-1 ga chần sẵn
+-2 vỏ gối nằm
+“Chạm khẽ sắc xuân, đánh thức vẻ đẹp ẩn sâu trong sự tối giản.”
+Một thiết kế hiện đại kết hợp tinh thần lãng mạn mùa xuân mang đến trải nghiệm nghỉ ngơi đầy cảm xúc. Vải mềm mượt, nhẹ tênh như tơ trời, điểm xuyết chi tiết thêu tinh tế mà không rườm rà.
+✨ Chất liệu vượt trội:
+ • Vải: 65% Tencel Lenzing + 35% Cotton
+ • Ruột chăn: 15% Silk(tơ tằm) tự nhiên + 85% sợi polyester siêu nhẹ
+ • Công nghệ: Laser cắt hoa Italy + thêu không giấy cao cấp
+Tone màu nhẹ nhàng:
+🎀 Hồng phấn nhẹ – Tươi mới, đầy nữ tính
+🌫 Xám khói – Lịch lãm và hiện đại
+🕊 Trắng tinh khôi – Tối giản chuẩn châu Âu
+🍃 Xanh mint – Tươi mát, thanh thoát
+☁️ Kem sữa – Nhẹ nhàng như sương mai
+🌷 Tím pastel – Dịu dàng, đầy chất thơ
+💬 “Less is more” – khi bạn chọn sự đơn giản, bạn đang chọn đẳng cấp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">𝗠𝗔𝗥𝗞 𝗖𝗥𝗢𝗦𝗦Maloch·𝐍𝐄𝐖Sản phẩm mới mùa xuân hè · đơn giản thêu nhẹ nhàng sang trọng #[Agnes] tinh tế 𝐍𝐎.seri 6
+[Agne]
+Telcel lụa 80s Detail🌿
+Cảm hứng thiết kế:
+Hình thêu trang nhã trên cành và lá tạo nên phong cách duyên dáng sử dụng hình dạng cây nho để thể hiện vẻ đẹp sang trong và hơi thở sống động của thời đại.🔔🔔
+♣️màu sắc trang nhã, đường thêu tỉ mỉ, tô điểm bằng chỉ thêu ánh kim toát kết hợp những đường thêu tinh tế 🔝🔝
+Set 4 món full 3 màu
+-1 ga freesize 245*250cm
+-1 vỏ chăn 200*230cm
+-2 vỏ gối nằm 48*74
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cotton fabric mới đẹp</t>
   </si>
 </sst>
 </file>
@@ -3986,40 +4024,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4057,6 +4062,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4376,8 +4414,8 @@
   <dimension ref="A1:J270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D204" sqref="D204"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4414,19 +4452,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="50">
         <v>1700</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="47" t="s">
         <v>186</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -4434,610 +4472,610 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="48"/>
       <c r="J3" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="48"/>
       <c r="J4" s="2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="59"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="48"/>
       <c r="J5" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="59"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="48"/>
       <c r="J6" s="2" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="59"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="48"/>
       <c r="J7" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="59"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="48"/>
       <c r="J8" s="2" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="59"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="48"/>
       <c r="J9" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="59"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="60"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="60">
         <v>1950</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="59" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="49"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="49"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="59"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="49"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="49"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="18" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="49"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="49"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="49"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="49"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="59"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="49"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="59"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="49"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="59"/>
     </row>
     <row r="24" spans="1:5" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="63">
         <v>2300</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="59" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="59"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="59"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="59"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="59"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="59"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="59"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="59"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="59"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="59"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="60">
         <v>1700</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="59" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="49"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="59"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="49"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="59"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="49"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="59"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="49"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="59"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="49"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="59"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="49"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="59"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="49"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="59"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="49"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="59"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="49"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="59"/>
     </row>
     <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D46" s="47">
+      <c r="D46" s="60">
         <v>1950</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="59" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="49"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="59"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="49"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="59"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="49"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="59"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="49"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="59"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="49"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="59"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="49"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="59"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="49"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="59"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="49"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="59"/>
     </row>
     <row r="55" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="47">
+      <c r="D55" s="60">
         <v>1650</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="59" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="49"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="59"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="49"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="59"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="46"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="49"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="59"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="49"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="59"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="46"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="49"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="59"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="49"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="59"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="49"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="59"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="49"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="59"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="49"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="59"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="49"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="59"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="49"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="59"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="49"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="59"/>
     </row>
     <row r="68" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="D68" s="48">
+      <c r="D68" s="63">
         <v>1850</v>
       </c>
-      <c r="E68" s="49" t="s">
+      <c r="E68" s="59" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="49"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="59"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="46"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="49"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="59"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="46"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="49"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="59"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="46"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="49"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="59"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="49"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="59"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="49"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="59"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="49"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="59"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="46"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="49"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="59"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="46"/>
-      <c r="B77" s="47"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="49"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="59"/>
     </row>
     <row r="78" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
@@ -7191,25 +7229,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B205" s="1"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="1"/>
+      <c r="C205" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D205" s="1">
+        <v>2650</v>
+      </c>
       <c r="E205" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B206" s="1"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="1"/>
+      <c r="C206" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D206" s="1">
+        <v>2300</v>
+      </c>
       <c r="E206" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7220,8 +7266,12 @@
         <v>469</v>
       </c>
       <c r="B207" s="1"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="1"/>
+      <c r="C207" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="D207" s="1">
+        <v>580</v>
+      </c>
       <c r="E207" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7986,17 +8036,16 @@
   </sheetData>
   <autoFilter ref="D1:D270" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}"/>
   <mergeCells count="35">
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="E36:E45"/>
-    <mergeCell ref="E46:E54"/>
-    <mergeCell ref="E24:E35"/>
-    <mergeCell ref="E12:E23"/>
-    <mergeCell ref="B36:B45"/>
-    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="D68:D77"/>
+    <mergeCell ref="E68:E77"/>
+    <mergeCell ref="E55:E67"/>
+    <mergeCell ref="D55:D67"/>
+    <mergeCell ref="B55:B67"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="C55:C67"/>
+    <mergeCell ref="C68:C77"/>
     <mergeCell ref="A36:A45"/>
     <mergeCell ref="B46:B54"/>
     <mergeCell ref="D46:D54"/>
@@ -8011,16 +8060,17 @@
     <mergeCell ref="C24:C35"/>
     <mergeCell ref="C36:C45"/>
     <mergeCell ref="C46:C54"/>
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="D68:D77"/>
-    <mergeCell ref="E68:E77"/>
-    <mergeCell ref="E55:E67"/>
-    <mergeCell ref="D55:D67"/>
-    <mergeCell ref="B55:B67"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="C55:C67"/>
-    <mergeCell ref="C68:C77"/>
+    <mergeCell ref="E36:E45"/>
+    <mergeCell ref="E46:E54"/>
+    <mergeCell ref="E24:E35"/>
+    <mergeCell ref="E12:E23"/>
+    <mergeCell ref="B36:B45"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/ID_SanPham._ChanGa.xlsx
+++ b/ID_SanPham._ChanGa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChanGa_Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA60899-A0CC-4A0F-9698-085321959281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB21891-448D-4D2A-9E6B-CD8CE443C2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6F5E742-A921-4C78-A2CA-E7DD1F27105C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="817">
   <si>
     <t>ID</t>
   </si>
@@ -3629,6 +3629,63 @@
   </si>
   <si>
     <t xml:space="preserve"> cotton fabric mới đẹp</t>
+  </si>
+  <si>
+    <t>Panson Maze gấm lụa Royal siêu cấp đến từ London 🏴󠁧󠁢󠁥󠁮󠁧󠁿🏴󠁧󠁢󠁥󠁮󠁧󠁿
+Vẻ đẹp sang trọng quyền quý hấp dẫn mang đến sự cao quý cho căn phòng của bạn🛎️🛎️
+Chất vải gấm lụa tơ tằm dành riêng cho giới thượng lưu mềm mại óng mịn từng thớ vải 
+Mật độ sợi 120s/inch siêu dày dặn chạm là mê☺️
+Full set 4 món
+-1 chăn 200*230cm
+-1 ga freesize 245*250cm
+-2 gối nằm 48*74cm</t>
+  </si>
+  <si>
+    <t>𝐍𝐄𝐖 𝐃𝐄𝐒𝐈𝐆𝐍 
+🌱🌱 Set hè phi lụa chăn hè thêu họa tiết Summer Viber 
+💕 Vải óng,có độ mềm mịn mang lại vẻ đẹp hiện đại
+💕 Hình thêu nổi bật, bắt trend, gam màu tươi sáng phù hợp không gian sống
+💕 Chăn hè chần bông mỏng, độ dày vừa phải, phù hợp thời tiết quanh năm
+💟 Set 4 món tiêu chuẩn: 
+1 ga trải giường
+1 chăn chần hè 2mx2m3
+2 vỏ gối 48x74cm</t>
+  </si>
+  <si>
+    <t>🌸 Bộ chăn ga thêu Tencel 80s – “LADY WHITE” 🌸
+Một bản giao hưởng nhẹ nhàng giữa chất liệu thiên nhiên cao cấp và nghệ thuật thêu tay tinh xảo, dành riêng cho những tâm hồn yêu vẻ đẹp tiểu thư thanh lịch.
+✨ Chất liệu: 100% Tencel 80s – mềm mịn, mát lạnh, nâng niu làn da như lụa trời.
+🪡 Thêu ren nổi thủ công – hoa văn cổ điển, viền bèo ngọt ngào và nơ trắng trang nhã.
+☁️ Tone trắng kem tinh khôi – sáng bừng không gian, dễ phối nội thất.
+👸 Phong cách: Tiểu thư vintage – lãng mạn và quý phái trong từng chi tiết.
+✅ Mềm mại – Dịu mát – Thấm hút mồ hôi nhanh
+✅ Không bai xù – Không phai màu – Càng giặt càng mềm
+✅ An toàn cho da nhạy cảm – Thân thiện môi trường
+🌷”LADY WHITE” không chỉ là một bộ chăn ga – mà là không gian mộng mơ để mỗi sớm mai thức dậy thấy lòng nhẹ tênh…</t>
+  </si>
+  <si>
+    <t>✨ TENCEL 80s – MẪU BÁN CHẠY NHẤT MARKCROSS ✨
+🌿 Chất liệu: 100% Tencel 80s nhập khẩu – mịn mượt, mềm mát như lụa, thân thiện với làn da và môi trường.
+👁‍🗨 Hoạ tiết sọc chéo cách điệu – thanh lịch và hiện đại, tạo hiệu ứng thị giác tinh tế, giúp chiếc giường thêm phần sang trọng, phù hợp cả phong cách tối giản lẫn hiện đại.
+🖤 Phối viền chỉ đen nổi bật chạy quanh chăn – nhấn nhá vừa đủ để giữ nét thời thượng.
+🛏 Gối phối ren đen phá cách, tăng chiều sâu thẩm mỹ cho không gian nghỉ ngơi.
+📌 Mẫu này chính là lựa chọn “best-seller” được săn đón tại showroom Markcross – vì vừa tinh giản, vừa đậm chất sang xịn cho mọi không gian phòng ngủ.</t>
+  </si>
+  <si>
+    <t>✨ Panson Maze | Bộ sưu tập Chăn Ga Cao Cấp ✨
+Dòng 100s Cotton Dài Sợi + Mật Độ Cao Màu Dệt Jacquard
+🔥 Chất liệu đỉnh cao – chạm là mê:
+ • A mặt: 🌿 10% tơ tằm + 90% Modal mềm mượt, phối cùng lụa bóng cao cấp, tạo hiệu ứng màu sắc sống động và ánh sắc 3D như vũ trụ.
+ • B mặt: 🌾 100% cotton dài sợi, thoáng mát – thấm hút – dịu nhẹ như lớp da thứ hai.
+🎨 Cảm hứng thiết kế:
+Mang đậm phong cách urban luxury &amp; hoang dã nghệ thuật, từ họa tiết da báo, vân hổ đến những đường xoáy trừu tượng táo bạo. Panson không chỉ là chăn ga – mà là một tuyên ngôn cá tính trong phòng ngủ.
+📌 Ưu điểm vượt trội:
+ • Mật độ vải cao, sắc nét đến từng chi tiết
+ • Không phai màu, không xù lông
+ • Hiệu ứng ánh sáng sang trọng
+ • Phối viền màu tương phản tạo chiều sâu
+💼 Phù hợp cho:
+Chủ nhân cá tính mạnh – yêu thích sự độc bản – hoặc làm điểm nhấn nội thất trong các khách sạn boutique, căn hộ cao cấp, homestay nghệ thuật.</t>
   </si>
 </sst>
 </file>
@@ -4024,7 +4081,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4062,39 +4152,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4414,8 +4471,8 @@
   <dimension ref="A1:J270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D208" sqref="D208"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4452,19 +4509,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="61">
         <v>1700</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="58" t="s">
         <v>186</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -4472,610 +4529,610 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="59"/>
       <c r="J3" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="48"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="59"/>
       <c r="J4" s="2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="48"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="59"/>
       <c r="J5" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="48"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="59"/>
       <c r="J6" s="2" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="48"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="59"/>
       <c r="J7" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="48"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="59"/>
       <c r="J8" s="2" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="48"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="59"/>
       <c r="J9" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="48"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="59"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="49"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="60"/>
     </row>
     <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="47">
         <v>1950</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="49" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="59"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="59"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="59"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="59"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="59"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="49"/>
     </row>
     <row r="18" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="59"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="59"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="59"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="49"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="59"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="59"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="49"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="59"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="1:5" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="48">
         <v>2300</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="49" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="59"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="59"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="59"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="59"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="59"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="59"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="59"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="59"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="59"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="59"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="59"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="47">
         <v>1700</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="49" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="59"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="49"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="59"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="49"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="59"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="49"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="59"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="49"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="59"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="49"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="59"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="49"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="59"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="49"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="59"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="49"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="59"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="49"/>
     </row>
     <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="D46" s="60">
+      <c r="D46" s="47">
         <v>1950</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="49" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="59"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="49"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="59"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="49"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="59"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="49"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="59"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="49"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="59"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="49"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="59"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="49"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="59"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="49"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="59"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="49"/>
     </row>
     <row r="55" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="60">
+      <c r="D55" s="47">
         <v>1650</v>
       </c>
-      <c r="E55" s="59" t="s">
+      <c r="E55" s="49" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="59"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="49"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="59"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="49"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="59"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="49"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="59"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="49"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="59"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="49"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="59"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="49"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="59"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="49"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="59"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="49"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="59"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="49"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="59"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="49"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="59"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="49"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="59"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="49"/>
     </row>
     <row r="68" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="61" t="s">
+      <c r="A68" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="60" t="s">
+      <c r="B68" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="D68" s="63">
+      <c r="D68" s="48">
         <v>1850</v>
       </c>
-      <c r="E68" s="59" t="s">
+      <c r="E68" s="49" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="59"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="49"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="59"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="49"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="59"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="49"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="59"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="49"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="59"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="49"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="59"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="49"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="59"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="49"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="59"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="49"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="59"/>
+      <c r="A77" s="46"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="49"/>
     </row>
     <row r="78" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
@@ -7277,85 +7334,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B208" s="1"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="1"/>
+      <c r="C208" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="D208" s="1">
+        <v>2300</v>
+      </c>
       <c r="E208" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B209" s="1"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="1"/>
+      <c r="C209" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="D209" s="1">
+        <v>2200</v>
+      </c>
       <c r="E209" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B210" s="1"/>
-      <c r="C210" s="4"/>
-      <c r="D210" s="1"/>
+      <c r="C210" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="D210" s="1">
+        <v>520</v>
+      </c>
       <c r="E210" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B211" s="1"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="1"/>
+      <c r="C211" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D211" s="1">
+        <v>750</v>
+      </c>
       <c r="E211" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B212" s="1"/>
-      <c r="C212" s="4"/>
-      <c r="D212" s="1"/>
+      <c r="C212" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="D212" s="1">
+        <v>2150</v>
+      </c>
       <c r="E212" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B213" s="1"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="1"/>
+      <c r="C213" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1950</v>
+      </c>
       <c r="E213" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>476</v>
       </c>
       <c r="B214" s="1"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="1"/>
+      <c r="C214" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D214" s="1">
+        <v>2150</v>
+      </c>
       <c r="E214" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8036,16 +8121,17 @@
   </sheetData>
   <autoFilter ref="D1:D270" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}"/>
   <mergeCells count="35">
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="D68:D77"/>
-    <mergeCell ref="E68:E77"/>
-    <mergeCell ref="E55:E67"/>
-    <mergeCell ref="D55:D67"/>
-    <mergeCell ref="B55:B67"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="C55:C67"/>
-    <mergeCell ref="C68:C77"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="E36:E45"/>
+    <mergeCell ref="E46:E54"/>
+    <mergeCell ref="E24:E35"/>
+    <mergeCell ref="E12:E23"/>
+    <mergeCell ref="B36:B45"/>
+    <mergeCell ref="D36:D45"/>
     <mergeCell ref="A36:A45"/>
     <mergeCell ref="B46:B54"/>
     <mergeCell ref="D46:D54"/>
@@ -8060,17 +8146,16 @@
     <mergeCell ref="C24:C35"/>
     <mergeCell ref="C36:C45"/>
     <mergeCell ref="C46:C54"/>
-    <mergeCell ref="E36:E45"/>
-    <mergeCell ref="E46:E54"/>
-    <mergeCell ref="E24:E35"/>
-    <mergeCell ref="E12:E23"/>
-    <mergeCell ref="B36:B45"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="D68:D77"/>
+    <mergeCell ref="E68:E77"/>
+    <mergeCell ref="E55:E67"/>
+    <mergeCell ref="D55:D67"/>
+    <mergeCell ref="B55:B67"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="C55:C67"/>
+    <mergeCell ref="C68:C77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8091,7 +8176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C48B2C-3B71-4A97-889A-14151471C093}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/ID_SanPham._ChanGa.xlsx
+++ b/ID_SanPham._ChanGa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChanGa_Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB21891-448D-4D2A-9E6B-CD8CE443C2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADD7B2C-89AB-4868-A554-2EDF39BB3C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6F5E742-A921-4C78-A2CA-E7DD1F27105C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="822">
   <si>
     <t>ID</t>
   </si>
@@ -3686,6 +3686,54 @@
  • Phối viền màu tương phản tạo chiều sâu
 💼 Phù hợp cho:
 Chủ nhân cá tính mạnh – yêu thích sự độc bản – hoặc làm điểm nhấn nội thất trong các khách sạn boutique, căn hộ cao cấp, homestay nghệ thuật.</t>
+  </si>
+  <si>
+    <t>Đũi viền ren vintagate – 18 mầu xinh xắn ngắm là mê
+☁️ Vải đũi mềm – nhẹ – mát rượi, nằm thoáng cả hè
+🎀 Viền ren hoa nhỏ siêu xinh, thêu nét nào ra nét nấy
+🎨 18 mầu vintage nhẹ nhàng: be, kem, ghi, hồng pastel…
+🛏️ Decor phòng là auto “xinh xỉu”, khách tiểu thư mê tít
+🧺 Dễ phối nội thất – hợp cả phòng tone sáng hay tối
+📸 Có ảnh thật, đủ bảng mầu 
+🧵 Đũi ren vintage | Nhẹ – xinh – mát tay | Mầu nào cũng yêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đũi kẻ ghi huyền thoại </t>
+  </si>
+  <si>
+    <t>🦢 𝐓𝐇𝐈𝐄̂𝐍 𝐍𝐆𝐀 𝐕𝐔̃ – Vũ điệu của sự thanh thoát và tinh khôi ✨
+Lấy cảm hứng từ những chiếc lông vũ nhẹ nhàng bay trong gió, bộ chăn ga LANBOR Tencel mang đến một không gian ngủ mơ màng, nơi từng họa tiết đều thấm đẫm hơi thở nghệ thuật.
+🌾 Lông vũ thêu nổi, uyển chuyển mà mềm mại, phối cùng viền lúa mạch ánh vàng như sóng lúa lăn tăn trong nắng chiều, tạo nên tổng thể hài hòa và ấm áp.
+🎀 Điểm nhấn là thiên nga thêu tay tinh xảo, khi thì dịu dàng tĩnh lặng, lúc lại giang cánh kiêu kỳ – như kể lại câu chuyện thanh lịch và tự do giữa hồ nước trong veo.
+Ánh đèn rọi qua mặt vải, phản chiếu những họa tiết mờ ảo – tạo nên không gian ngủ vừa sang trọng vừa an yên, nơi giấc mơ dịu dàng khẽ ghé qua mỗi đêm.
+⸻
+📌 Tên bộ: Thiên Nga Vũ
+📌 Chất liệu: 100% Tencel Lyocell (Lenzing – Áo)
+📦 Bộ 4 món gồm:
+▪ Vỏ chăn 200x230cm
+▪ Ga trải 245x245cm
+▪ Vỏ gối 48x74cm x2</t>
+  </si>
+  <si>
+    <t>Hot new✨✨
+Bedding beautiful life🎊🎊
+Telcel chăn hè vân chìm sang trọng hiện đại🫦🫦
+Chất liệu Telcel 80s mềm mát chăn dc chần 1 lớp bông nanogel mỏng siêu trơn mềm kháng khuẩn thấm hút cực tốt ❄️❄️
+🍒mang phong cách đơn giản hiện đại👘
+💦full set 4 món
+-1 chăn chần hè 200*230cm
+-2 gối nằm 48*74cm
+-1 ga freesize 245*250cm</t>
+  </si>
+  <si>
+    <t>✨ 𝐓𝐞𝐧𝐜𝐞𝐥 𝟖𝟎𝐬 | Viền ren lỗ tinh tế
+Chạm nhẹ vào làn gió mùa hè 💨
+Chạm sâu vào gu thẩm mỹ đẳng cấp 💎
+🛏️ Chất vải Tencel 80s siêu mềm, thoáng mát – đổ rũ nhẹ nhàng như lụa
+🎨 Hoạ tiết dệt chìm sang trọng, nền nã – tone màu trung tính cực dễ decor
+🪡 Viền ren lỗ tạo điểm nhấn mềm mại mà không kém phần quý phái
+📦 Full bộ tiêu chuẩn cao cấp
+💬 Một lựa chọn thanh lịch cho phòng ngủ hiện đại, khách sạn &amp; showroom nội thất.</t>
   </si>
 </sst>
 </file>
@@ -3771,7 +3819,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3835,6 +3883,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3948,7 +4002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4080,6 +4134,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4470,9 +4539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}">
   <dimension ref="A1:J270"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C215" sqref="C215"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4509,19 +4578,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="66">
         <v>1700</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="63" t="s">
         <v>186</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -4529,610 +4598,610 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="64"/>
       <c r="J3" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="64"/>
       <c r="J4" s="2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="59"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="64"/>
       <c r="J5" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="59"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="64"/>
       <c r="J6" s="2" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="59"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="64"/>
       <c r="J7" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="59"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="64"/>
       <c r="J8" s="2" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="59"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="64"/>
       <c r="J9" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="59"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="64"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="60"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="52">
         <v>1950</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="54" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="49"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="49"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="49"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="49"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="54"/>
     </row>
     <row r="18" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="49"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="54"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="49"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="49"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="54"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="49"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="54"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="49"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="54"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="49"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:5" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="53">
         <v>2300</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="54" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="52">
         <v>1700</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="54" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="49"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="54"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="49"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="54"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="49"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="54"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="49"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="54"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="49"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="54"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="49"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="54"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="49"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="54"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="49"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="54"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="49"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="54"/>
     </row>
     <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="D46" s="47">
+      <c r="D46" s="52">
         <v>1950</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="54" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="49"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="54"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="49"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="49"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="54"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="49"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="54"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="49"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="54"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="49"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="54"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="49"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="54"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="49"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="54"/>
     </row>
     <row r="55" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="47">
+      <c r="D55" s="52">
         <v>1650</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="54" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="49"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="54"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="49"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="54"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="46"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="49"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="54"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="49"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="54"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="46"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="49"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="54"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="49"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="54"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="49"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="54"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="49"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="54"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="49"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="54"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="49"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="54"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="49"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="54"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="49"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="54"/>
     </row>
     <row r="68" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="D68" s="48">
+      <c r="D68" s="53">
         <v>1850</v>
       </c>
-      <c r="E68" s="49" t="s">
+      <c r="E68" s="54" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="49"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="54"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="46"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="49"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="54"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="46"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="49"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="54"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="46"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="49"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="54"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="49"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="54"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="49"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="54"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="49"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="54"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="46"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="49"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="54"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="46"/>
-      <c r="B77" s="47"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="49"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="54"/>
     </row>
     <row r="78" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
@@ -5188,61 +5257,64 @@
         <v>🌟YOUNG｜2024 Xuân Hè - Bộ sưu tập Playful</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A81" s="33" t="s">
+    <row r="81" spans="1:6" s="49" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A81" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="46">
         <v>1700</v>
       </c>
-      <c r="E81" s="38" t="str">
+      <c r="E81" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Young Summer Tencel 🪷🪷</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A82" s="33" t="s">
+      <c r="F81" s="46"/>
+    </row>
+    <row r="82" spans="1:6" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A82" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="46">
         <v>2600</v>
       </c>
-      <c r="E82" s="38" t="str">
+      <c r="E82" s="48" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A82,B82 )</f>
         <v>Cologne</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A83" s="34" t="s">
+      <c r="F82" s="46"/>
+    </row>
+    <row r="83" spans="1:6" s="49" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A83" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="46">
         <v>1550</v>
       </c>
-      <c r="E83" s="38" t="str">
+      <c r="E83" s="48" t="str">
         <f t="shared" ref="E83:E146" si="1">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A83,B83 )</f>
         <v>𝕐𝕖𝕤𝕊𝕒𝕚𝕟𝕥𝕃𝕒𝕦𝕣𝕖𝕟𝕥🍒🍒</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="F83" s="46"/>
+    </row>
+    <row r="84" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A84" s="34" t="s">
         <v>18</v>
       </c>
@@ -5260,25 +5332,26 @@
         <v>𝗗𝗿𝗲𝗮𝗺 𝗰𝗶𝘁𝘆</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="34" t="s">
+    <row r="85" spans="1:6" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A85" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="D85" s="26">
+      <c r="D85" s="46">
         <v>1850</v>
       </c>
-      <c r="E85" s="39" t="str">
+      <c r="E85" s="50" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A85,B85 )</f>
         <v>Tencel 𝓒𝓮𝓵𝓵𝓾𝓵𝓸𝓼𝓮 ✨✨✨</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A86" s="34" t="s">
         <v>20</v>
       </c>
@@ -5296,43 +5369,45 @@
         <v>🌈 𝓒𝓐𝓟𝓟𝓨𝓟𝓐𝓡𝓐</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A87" s="34" t="s">
+    <row r="87" spans="1:6" s="49" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A87" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="46">
         <v>1850</v>
       </c>
-      <c r="E87" s="38" t="str">
+      <c r="E87" s="48" t="str">
         <f t="shared" si="1"/>
         <v>Graceful Silken Nights ✨✨</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" s="49" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A88" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="46">
         <v>1850</v>
       </c>
-      <c r="E88" s="38" t="str">
+      <c r="E88" s="48" t="str">
         <f t="shared" si="1"/>
         <v>ᴘʀᴇsᴛɪɢᴇ ᴄᴏᴍғᴏʀᴛ ✨✨</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="46"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>23</v>
       </c>
@@ -5350,79 +5425,83 @@
         <v>Set đũi 5 món chăn hè</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A90" s="35" t="s">
+    <row r="90" spans="1:6" s="49" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A90" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="46">
         <v>1750</v>
       </c>
-      <c r="E90" s="38" t="str">
+      <c r="E90" s="48" t="str">
         <f t="shared" si="1"/>
         <v>𝗛𝗮𝘃𝗲 𝗮 𝗚𝗿𝗲𝗮𝘁 𝗱𝗮𝘆</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A91" s="35" t="s">
+      <c r="F90" s="46"/>
+    </row>
+    <row r="91" spans="1:6" s="49" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A91" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D91" s="26">
+      <c r="D91" s="46">
         <v>1750</v>
       </c>
-      <c r="E91" s="38" t="str">
+      <c r="E91" s="48" t="str">
         <f t="shared" si="1"/>
         <v>𝓝𝓪𝓽𝓾𝓻𝓮 𝓡𝓮𝓣𝓻𝓮𝓪𝓽</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A92" s="35" t="s">
+      <c r="F91" s="46"/>
+    </row>
+    <row r="92" spans="1:6" s="49" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A92" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="46">
         <v>1700</v>
       </c>
-      <c r="E92" s="38" t="str">
+      <c r="E92" s="48" t="str">
         <f t="shared" si="1"/>
         <v>Light Home ButterFly Tencel✨</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="F92" s="46"/>
+    </row>
+    <row r="93" spans="1:6" s="49" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A93" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="D93" s="26">
+      <c r="D93" s="46">
         <v>1600</v>
       </c>
-      <c r="E93" s="39" t="str">
+      <c r="E93" s="50" t="str">
         <f>HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A93,B93 )</f>
         <v>𝙉𝙚𝙬 𝙝𝙤𝙪𝙨𝙚</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F93" s="46"/>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
@@ -5440,25 +5519,26 @@
         <v>cotton living bán quanh năm luôn sẵn hàng :)) :)) :))</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="1:6" s="49" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A95" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="46">
         <v>1750</v>
       </c>
-      <c r="E95" s="38" t="str">
+      <c r="E95" s="48" t="str">
         <f t="shared" si="1"/>
         <v>Ephan Summer Tencel 🌺</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="F95" s="46"/>
+    </row>
+    <row r="96" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -7446,13 +7526,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B215" s="1"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="1"/>
+      <c r="C215" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D215" s="1">
+        <v>480</v>
+      </c>
       <c r="E215" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7463,44 +7547,60 @@
         <v>478</v>
       </c>
       <c r="B216" s="1"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="1"/>
+      <c r="C216" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="D216" s="1">
+        <v>380</v>
+      </c>
       <c r="E216" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B217" s="1"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="1"/>
+      <c r="C217" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="D217" s="1">
+        <v>1950</v>
+      </c>
       <c r="E217" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B218" s="1"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="1"/>
+      <c r="C218" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="D218" s="1">
+        <v>1950</v>
+      </c>
       <c r="E218" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B219" s="1"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="1"/>
+      <c r="C219" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D219" s="1">
+        <v>2100</v>
+      </c>
       <c r="E219" s="38">
         <f t="shared" si="4"/>
         <v>0</v>

--- a/ID_SanPham._ChanGa.xlsx
+++ b/ID_SanPham._ChanGa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ChanGa_Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADD7B2C-89AB-4868-A554-2EDF39BB3C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139E62D-5D02-46FE-962E-8D007021D336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6F5E742-A921-4C78-A2CA-E7DD1F27105C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="833">
   <si>
     <t>ID</t>
   </si>
@@ -3734,6 +3734,124 @@
 🪡 Viền ren lỗ tạo điểm nhấn mềm mại mà không kém phần quý phái
 📦 Full bộ tiêu chuẩn cao cấp
 💬 Một lựa chọn thanh lịch cho phòng ngủ hiện đại, khách sạn &amp; showroom nội thất.</t>
+  </si>
+  <si>
+    <t>✨ 𝐄𝐏𝐇𝐀𝐍 - Bộ chăn ga cao cấp “Luxe Épure” ✨
+Sự kết hợp giữa kỹ thuật dệt hiện đại và phong cách tối giản tinh tế, bộ sưu tập mới từ Ephan House mang đến trải nghiệm nghỉ ngơi đỉnh cao trong từng chi tiết.
+🪡 Chất liệu đẳng cấp:
+ • Mặt A: Vải gấm cao mật độ, tạo hiệu ứng ánh ngọc trai sang trọng, độ bền cao và giữ form tuyệt vời.
+ • Mặt B: 100% cotton mềm mịn, an toàn tuyệt đối cho da, thích hợp với cả làn da nhạy cảm – lý tưởng cho giấc ngủ không chăn gối.
+📐 Kích thước tiêu chuẩn:
+ • Vỏ chăn: 200x230cm
+ • Ga trải giường: 245x250cm
+ • Vỏ gối: 48x74cm
+💼 Set gồm 4 món: 1 vỏ chăn, 1 ga trải, 2 vỏ gối nằm
+💎 Từng đường may được hoàn thiện với độ chính xác cao, tạo nên tổng thể tinh tế, không chỉ là sản phẩm chăn ga mà còn là điểm nhấn nội thất trong không gian phòng ngủ của bạn.</t>
+  </si>
+  <si>
+    <t>✨ CHĂN TUYẾT MỎNG MARKCROSS – MỊN MƯỢT NHƯ KHÓI SƯƠNG, NHẸ NHƯ LÀN GIÓ ✨
+💨 Dành cho mùa hè – thu, khi những cơn gió điều hoà vẫn cần chút ấm êm chạm da, nhưng không hề bí bách.
+💎 Chất tuyết cao cấp siêu mịn, không rụng lông – không bám bụi
+💼 Kích thước rộng rãi 200x230cm, đi kèm túi xách sang chảnh tông đen viền vàng
+🚗 Dễ dàng mang theo khi đi oto, du lịch, công tác, hay trải sofa, đắp phòng lạnh tại nhà
+📍 Màu sắc trung tính thanh lịch, nổi bật logo Markcross thêu nổi – đẳng cấp mà không phô trương.
+📦 Trọng lượng vừa phải ~2kg – đủ để ôm ấm cả giấc ngủ mà vẫn dễ gấp gọn
+🌿 Một chiếc chăn không thể thiếu cho những ai yêu thích chất sống tinh tế – sạch sẽ, sang trọng, tiện dụng.</t>
+  </si>
+  <si>
+    <t>Bộ chăn ga gối “𝐂𝐚𝐦𝐢𝐥𝐥𝐞” - Tinh hoa từ nghệ thuật dệt may
+🌟 𝐍𝐄𝐖 𝐂𝐎𝐋𝐋𝐄𝐂𝐓𝐈𝐎𝐍 𝟐𝟎𝟐𝟒 𝐀/𝐖 - 𝐓𝐡𝐮 𝐃𝐨̂𝐧𝐠 𝐆𝐨̣𝐢 𝐘𝐞̂𝐮 𝐓𝐡𝐮̛𝐨̛𝐧𝐠
+🌾 Chất liệu cao cấp: Tinh chọn từ sợi bông Pima (𝘗𝘪𝘮𝘢 𝘊𝘰𝘵𝘵𝘰𝘯) cao cấp, nổi tiếng với độ mềm mại vượt trội, độ bền và cảm giác thoải mái đẳng cấp. Sợi bông dài mịn được xử lý tỉ mỉ, giữ nguyên vẻ đẹp tự nhiên thuần khiết, giúp bạn cảm nhận sự khác biệt ngay từ lần đầu chạm vào.
+🎨 Nghệ thuật dệt hoa văn: Công nghệ dệt Jacquard màu sắc tinh tế, mỗi đường nét hoa văn được tạo hình tỉ mỉ, như một tác phẩm nghệ thuật sống động trên từng lớp vải. Kỹ thuật xử lý tạo nên hiệu ứng hoa nổi trên bề mặt, vừa cổ điển vừa hiện đại, làm bừng sáng không gian phòng ngủ.
+🎁 Hoàn hảo cho món quà ý nghĩa: Bộ sản phẩm được đóng gói sang trọng trong hộp quà cao cấp, là lựa chọn lý tưởng để dành tặng cho những người bạn yêu thương hoặc nâng tầm không gian sống của chính mình.
+✨ Đặc điểm nổi bật:
+ • Màu sắc trung tính nhẹ nhàng, dễ dàng phối hợp với mọi phong cách nội thất.
+ • Khả năng thoáng khí tuyệt vời, mang đến giấc ngủ sâu, thư thái.
+ • Chống nhăn và giữ phom dáng bền đẹp sau nhiều lần giặt.
+Hãy để bộ chăn ga “𝐂𝐚𝐦𝐢𝐥𝐥𝐞” tô điểm cho không gian phòng ngủ của bạn, mang đến cảm giác thư giãn, sang trọng như trong khách sạn 5 sao.</t>
+  </si>
+  <si>
+    <t>TENCEL Hoa 80S MARKCOSS - Sự Kết Hợp Hoàn Hảo Cho Mùa Hè
+Khám phá không gian nghỉ ngơi sang trọng và tinh tế với bộ chăn ga gối TENCEL Hoa MARKCOSS. Sản phẩm mang đến sự hòa quyện tuyệt vời giữa chất liệu Tencel cao cấp và thiết kế họa tiết hoa nổi bật, chắc chắn sẽ làm say đắm bất kỳ ai.
+Điểm nhấn sản phẩm:
+Chất liệu cao cấp: Bề mặt sử dụng vải Tencel mát mẻ và mềm mại, mang lại cảm giác thoải mái vượt trội khi tiếp xúc với làn da. Lớp chần bông nhập khẩu bên trong không chỉ tăng độ bền mà còn giúp duy trì độ thông thoáng tối ưu.
+Thiết kế tinh xảo: Họa tiết hoa Paisley sang trọng, kết hợp giữa cổ điển và hiện đại, tạo điểm nhấn ấn tượng cho không gian sống của bạn.
+Chăn hè tơ tằm: Được trang bị thêm lớp chăn hè làm từ tơ tằm tự nhiên, sản phẩm giữ cho cơ thể không bị nóng bức trong những đêm hè oi ả.
+Công nghệ tiên tiến: Sợi Girato mới được tích hợp bên trong, với khả năng quản lý độ ẩm và đẩy lùi vi khuẩn, mang đến sự thoáng mát và sạch sẽ suốt đêm.
+Hãy tận hưởng giấc ngủ yên bình và nhẹ nhàng như ở trong một khu vườn mùa hè với bộ chăn ga gối TENCEL Hoa MARKCOSS. Đây chắc chắn là sự lựa chọn hoàn hảo cho không gian sống tinh tế của bạn! 🌸🛌</t>
+  </si>
+  <si>
+    <t>🌿 Tencel trơn 40s – đơn giản mà sang
+Không cần cầu kỳ, chỉ cần một bộ chăn ga tông trơn, nhẹ nhàng – là phòng ngủ đã đủ tinh tế.
+💧 Vải Tencel 40s mềm mát – đổ lụa nhẹ tay
+Chạm vào là mát, nằm lên là thích.
+Form chuẩn – màu sắc lên cực sang, có đủ nhiều gam từ dịu nhẹ đến trung tính.
+🛏 Dễ phối nội thất – hợp từ phòng ngủ gia đình đến homestay, spa…</t>
+  </si>
+  <si>
+    <t>𝗥𝗼𝗺𝗮𝗻𝗰𝗲 𝗾𝘂𝗶𝗹𝘁
+✅ Sản phẩm đũi thêu hoa viền bèo cho mọi gia đình sử dụng 4 mùa quanh năm ! 
+🆗 Giá thành hấp dẫn nhưng vẫn đạt độ tinh xảo trong đường may cũng như thiết kế, chất liệu đũi mềm mát ngày càng có nhiều sản phẩm được mọi người tin dùng
+🆗 Set tiêu chuẩn 4 món gồm :
+- Vỏ chăn 200*230cm
+- Ga tấm trải freesize 
+- 02 vỏ gối đầu 48*74cm</t>
+  </si>
+  <si>
+    <t>Amazing Cat
+BỘ CHĂN GA LINEN THÊU HỌA TIẾT CHÚ MÈO – CHẠM VÀO SỰ DỄ THƯƠNG
+Bạn là một người yêu mèo và thích sự mềm mại, tinh tế? Bộ chăn ga Linen thêu họa tiết chú mèo ngộ nghĩnh chính là lựa chọn hoàn hảo để mang đến không gian nghỉ ngơi ấm áp và đáng yêu.
+✨ Chất liệu Linen cao cấp – Thoáng mát, mềm mại và có khả năng thấm hút tốt, giúp bạn luôn cảm thấy dễ chịu suốt cả đêm dài.
+🐱 Họa tiết thêu tỉ mỉ – Những chú mèo đáng yêu được thêu thủ công tinh xảo, tạo điểm nhấn sinh động cho phòng ngủ.
+🌿 Gam màu kẻ nhẹ nhàng, trẻ trung – Phù hợp với nhiều phong cách nội thất, mang đến cảm giác thư thái, gần gũi với thiên nhiên.
+🍀 Set tiêu chuẩn 5 món gồm :
+- Vỏ chăn 200*230cm
+- Ga tấm trải freesize
+- 02 vỏ gối đầu 48*74cm
+-01 gối trang trí</t>
+  </si>
+  <si>
+    <t>✨ Serenity Bloom – Vẻ đẹp gấm lụa tinh khôi ✨
+Như một khu vườn khẽ nở trong ánh nắng sớm mai, từng nhành hoa trên nền gấm lụa mềm mại hiện lên thanh thoát và tinh xảo. Chất liệu gấm lụa cao cấp mang đến:
+ • 🌸 Bề mặt mịn màng, óng ánh – lướt tay là cảm nhận sự sang trọng.
+ • 🍃 Hoa văn dệt nổi tinh tế – mềm mại như hoa khẽ rung trong gió.
+ • 🛏️ Cảm giác nằm êm ái, thoáng mát – biến phòng ngủ thành một ốc đảo nghỉ ngơi chuẩn khách sạn 5*.
+Bộ chăn ga này không chỉ để ngủ, mà còn là một món trang sức lặng lẽ cho phòng ngủ, nâng tầm gu thẩm mỹ cho cả không gian.</t>
+  </si>
+  <si>
+    <t>FREYA HOME｜2025 COLLECTION
+Bộ chăn ga gối “My Doll House” 
+• Chất liệu: 100S Cotton Xinjiang cao cấp (Sợi dài mềm mại, thoáng mát, an toàn cho làn da)
+ • Công nghệ: In kỹ thuật số sắc nét + thêu tay tinh tế hình thú bông
+ • Thiết kế dễ thương với hình ảnh chú thỏ và họa tiết chữ “My Doll House” đặc trưng
+ • Màu sắc pastel nhẹ nhàng, mang lại cảm giác thư giãn, dễ chịu
+ • Chất vải mềm mượt, thấm hút tốt, an toàn cho mọi loại da
+Phù hợp với:
+ • Phòng ngủ phong cách Hàn Quốc, vintage, dễ thương
+ • Quà tặng sinh nhật, quà tặng bé gái, bạn gái, hoặc những cô nàng yêu thích sự dễ thương</t>
+  </si>
+  <si>
+    <t>Tiểu thư...công chúa như này pải lsao😍😍😍
+😍😍Đẹp lồng lộn ❤️❤️❤️
+💗 Lụa ren chất quá. Đẹp từng xentimet luôn nè😘
+👰🏼 Dùng trải cưới đẹp lồng lộnnn luôn ế✌🏻✌🏻
+🎊 Nhìn e ý đã muốn iu rồi, đừng nói gì là nằm phê dã man, k muốn dậy ý ạ 😘😘😘
+👑 Set gồm:
+👉🏻 1 vỏ chăn (2m-2m3)
+👉🏻 2 vỏ gối (50*70) 
+👉🏻1 ga phủ theo sz m8</t>
+  </si>
+  <si>
+    <t>LOEWE S·𝐍𝐄𝐖Sản phẩm mới Xuân Hè 2025 
+Telcel 80s  #[Leyman] tinh tế 𝐍𝐎.12
+[Lenzing]🌿🌿 Ga trần nhập khẩu chăn trần bông tơ tằm🦢
+Nghệ thuật  dệt in hoa hiện đại màu sắc sắc nét  và thanh lịch, thể hiện vẻ đẹp nghệ thuật trong từng cánh hoa👒
+ Tông màu tươi mới hoạ tiết sắc nét tươi mới toả hương thơm mát🍁
+Set 5 món
+-1 chăn trần hè 200*230cm
+-1 vo gối ôm trần bông 35*100cm
+-2 vo gối nằm 48*74cm
+-1 ga trần phủ freesize khổ lớn 245*265cm</t>
   </si>
 </sst>
 </file>
@@ -4537,11 +4655,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C219" sqref="C219"/>
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4597,7 +4716,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70"/>
       <c r="B3" s="73"/>
       <c r="C3" s="58"/>
@@ -4607,7 +4726,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70"/>
       <c r="B4" s="73"/>
       <c r="C4" s="58"/>
@@ -4617,7 +4736,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="73"/>
       <c r="C5" s="58"/>
@@ -4627,7 +4746,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="70"/>
       <c r="B6" s="73"/>
       <c r="C6" s="58"/>
@@ -4637,7 +4756,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="70"/>
       <c r="B7" s="73"/>
       <c r="C7" s="58"/>
@@ -4647,7 +4766,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="70"/>
       <c r="B8" s="73"/>
       <c r="C8" s="58"/>
@@ -4657,7 +4776,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70"/>
       <c r="B9" s="73"/>
       <c r="C9" s="58"/>
@@ -4667,14 +4786,14 @@
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70"/>
       <c r="B10" s="73"/>
       <c r="C10" s="58"/>
       <c r="D10" s="67"/>
       <c r="E10" s="64"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="71"/>
       <c r="B11" s="74"/>
       <c r="C11" s="58"/>
@@ -4698,77 +4817,77 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
       <c r="B13" s="52"/>
       <c r="C13" s="58"/>
       <c r="D13" s="52"/>
       <c r="E13" s="54"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
       <c r="B14" s="52"/>
       <c r="C14" s="58"/>
       <c r="D14" s="52"/>
       <c r="E14" s="54"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="52"/>
       <c r="C15" s="58"/>
       <c r="D15" s="52"/>
       <c r="E15" s="54"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
       <c r="B16" s="52"/>
       <c r="C16" s="58"/>
       <c r="D16" s="52"/>
       <c r="E16" s="54"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
       <c r="B17" s="52"/>
       <c r="C17" s="58"/>
       <c r="D17" s="52"/>
       <c r="E17" s="54"/>
     </row>
-    <row r="18" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
       <c r="B18" s="52"/>
       <c r="C18" s="58"/>
       <c r="D18" s="52"/>
       <c r="E18" s="54"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
       <c r="B19" s="52"/>
       <c r="C19" s="58"/>
       <c r="D19" s="52"/>
       <c r="E19" s="54"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="59"/>
       <c r="B20" s="52"/>
       <c r="C20" s="58"/>
       <c r="D20" s="52"/>
       <c r="E20" s="54"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
       <c r="B21" s="52"/>
       <c r="C21" s="58"/>
       <c r="D21" s="52"/>
       <c r="E21" s="54"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59"/>
       <c r="B22" s="52"/>
       <c r="C22" s="58"/>
       <c r="D22" s="52"/>
       <c r="E22" s="54"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="59"/>
       <c r="B23" s="52"/>
       <c r="C23" s="58"/>
@@ -4792,77 +4911,77 @@
         <v>355</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="52"/>
       <c r="C25" s="61"/>
       <c r="D25" s="53"/>
       <c r="E25" s="54"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
       <c r="B26" s="52"/>
       <c r="C26" s="61"/>
       <c r="D26" s="53"/>
       <c r="E26" s="54"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51"/>
       <c r="B27" s="52"/>
       <c r="C27" s="61"/>
       <c r="D27" s="53"/>
       <c r="E27" s="54"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51"/>
       <c r="B28" s="52"/>
       <c r="C28" s="61"/>
       <c r="D28" s="53"/>
       <c r="E28" s="54"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
       <c r="B29" s="52"/>
       <c r="C29" s="61"/>
       <c r="D29" s="53"/>
       <c r="E29" s="54"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
       <c r="B30" s="52"/>
       <c r="C30" s="61"/>
       <c r="D30" s="53"/>
       <c r="E30" s="54"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
       <c r="B31" s="52"/>
       <c r="C31" s="61"/>
       <c r="D31" s="53"/>
       <c r="E31" s="54"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
       <c r="B32" s="52"/>
       <c r="C32" s="61"/>
       <c r="D32" s="53"/>
       <c r="E32" s="54"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51"/>
       <c r="B33" s="52"/>
       <c r="C33" s="61"/>
       <c r="D33" s="53"/>
       <c r="E33" s="54"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51"/>
       <c r="B34" s="52"/>
       <c r="C34" s="61"/>
       <c r="D34" s="53"/>
       <c r="E34" s="54"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="52"/>
       <c r="C35" s="62"/>
@@ -4886,63 +5005,63 @@
         <v>356</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
       <c r="B37" s="52"/>
       <c r="C37" s="56"/>
       <c r="D37" s="52"/>
       <c r="E37" s="54"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51"/>
       <c r="B38" s="52"/>
       <c r="C38" s="56"/>
       <c r="D38" s="52"/>
       <c r="E38" s="54"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="51"/>
       <c r="B39" s="52"/>
       <c r="C39" s="56"/>
       <c r="D39" s="52"/>
       <c r="E39" s="54"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
       <c r="B40" s="52"/>
       <c r="C40" s="56"/>
       <c r="D40" s="52"/>
       <c r="E40" s="54"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
       <c r="B41" s="52"/>
       <c r="C41" s="56"/>
       <c r="D41" s="52"/>
       <c r="E41" s="54"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="51"/>
       <c r="B42" s="52"/>
       <c r="C42" s="56"/>
       <c r="D42" s="52"/>
       <c r="E42" s="54"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="51"/>
       <c r="B43" s="52"/>
       <c r="C43" s="56"/>
       <c r="D43" s="52"/>
       <c r="E43" s="54"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="51"/>
       <c r="B44" s="52"/>
       <c r="C44" s="56"/>
       <c r="D44" s="52"/>
       <c r="E44" s="54"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="51"/>
       <c r="B45" s="52"/>
       <c r="C45" s="57"/>
@@ -4966,56 +5085,56 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="51"/>
       <c r="B47" s="52"/>
       <c r="C47" s="56"/>
       <c r="D47" s="52"/>
       <c r="E47" s="54"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="51"/>
       <c r="B48" s="52"/>
       <c r="C48" s="56"/>
       <c r="D48" s="52"/>
       <c r="E48" s="54"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="51"/>
       <c r="B49" s="52"/>
       <c r="C49" s="56"/>
       <c r="D49" s="52"/>
       <c r="E49" s="54"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="51"/>
       <c r="B50" s="52"/>
       <c r="C50" s="56"/>
       <c r="D50" s="52"/>
       <c r="E50" s="54"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="51"/>
       <c r="B51" s="52"/>
       <c r="C51" s="56"/>
       <c r="D51" s="52"/>
       <c r="E51" s="54"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51"/>
       <c r="B52" s="52"/>
       <c r="C52" s="56"/>
       <c r="D52" s="52"/>
       <c r="E52" s="54"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="51"/>
       <c r="B53" s="52"/>
       <c r="C53" s="56"/>
       <c r="D53" s="52"/>
       <c r="E53" s="54"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="51"/>
       <c r="B54" s="52"/>
       <c r="C54" s="57"/>
@@ -5039,84 +5158,84 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="51"/>
       <c r="B56" s="52"/>
       <c r="C56" s="56"/>
       <c r="D56" s="52"/>
       <c r="E56" s="54"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="51"/>
       <c r="B57" s="52"/>
       <c r="C57" s="56"/>
       <c r="D57" s="52"/>
       <c r="E57" s="54"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="51"/>
       <c r="B58" s="52"/>
       <c r="C58" s="56"/>
       <c r="D58" s="52"/>
       <c r="E58" s="54"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="51"/>
       <c r="B59" s="52"/>
       <c r="C59" s="56"/>
       <c r="D59" s="52"/>
       <c r="E59" s="54"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="51"/>
       <c r="B60" s="52"/>
       <c r="C60" s="56"/>
       <c r="D60" s="52"/>
       <c r="E60" s="54"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="51"/>
       <c r="B61" s="52"/>
       <c r="C61" s="56"/>
       <c r="D61" s="52"/>
       <c r="E61" s="54"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="51"/>
       <c r="B62" s="52"/>
       <c r="C62" s="56"/>
       <c r="D62" s="52"/>
       <c r="E62" s="54"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="51"/>
       <c r="B63" s="52"/>
       <c r="C63" s="56"/>
       <c r="D63" s="52"/>
       <c r="E63" s="54"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="51"/>
       <c r="B64" s="52"/>
       <c r="C64" s="56"/>
       <c r="D64" s="52"/>
       <c r="E64" s="54"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="51"/>
       <c r="B65" s="52"/>
       <c r="C65" s="56"/>
       <c r="D65" s="52"/>
       <c r="E65" s="54"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="51"/>
       <c r="B66" s="52"/>
       <c r="C66" s="56"/>
       <c r="D66" s="52"/>
       <c r="E66" s="54"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="51"/>
       <c r="B67" s="52"/>
       <c r="C67" s="57"/>
@@ -5140,63 +5259,63 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="51"/>
       <c r="B69" s="52"/>
       <c r="C69" s="56"/>
       <c r="D69" s="53"/>
       <c r="E69" s="54"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="51"/>
       <c r="B70" s="52"/>
       <c r="C70" s="56"/>
       <c r="D70" s="53"/>
       <c r="E70" s="54"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="51"/>
       <c r="B71" s="52"/>
       <c r="C71" s="56"/>
       <c r="D71" s="53"/>
       <c r="E71" s="54"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="51"/>
       <c r="B72" s="52"/>
       <c r="C72" s="56"/>
       <c r="D72" s="53"/>
       <c r="E72" s="54"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="51"/>
       <c r="B73" s="52"/>
       <c r="C73" s="56"/>
       <c r="D73" s="53"/>
       <c r="E73" s="54"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="51"/>
       <c r="B74" s="52"/>
       <c r="C74" s="56"/>
       <c r="D74" s="53"/>
       <c r="E74" s="54"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="51"/>
       <c r="B75" s="52"/>
       <c r="C75" s="56"/>
       <c r="D75" s="53"/>
       <c r="E75" s="54"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="51"/>
       <c r="B76" s="52"/>
       <c r="C76" s="56"/>
       <c r="D76" s="53"/>
       <c r="E76" s="54"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="51"/>
       <c r="B77" s="52"/>
       <c r="C77" s="57"/>
@@ -5295,7 +5414,7 @@
       </c>
       <c r="F82" s="46"/>
     </row>
-    <row r="83" spans="1:6" s="49" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" s="49" customFormat="1" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="46" t="s">
         <v>17</v>
       </c>
@@ -5314,7 +5433,7 @@
       </c>
       <c r="F83" s="46"/>
     </row>
-    <row r="84" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="34" t="s">
         <v>18</v>
       </c>
@@ -5351,7 +5470,7 @@
       </c>
       <c r="F85" s="46"/>
     </row>
-    <row r="86" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="34" t="s">
         <v>20</v>
       </c>
@@ -5407,7 +5526,7 @@
       </c>
       <c r="F88" s="46"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>23</v>
       </c>
@@ -5482,7 +5601,7 @@
       </c>
       <c r="F92" s="46"/>
     </row>
-    <row r="93" spans="1:6" s="49" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" s="49" customFormat="1" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="46" t="s">
         <v>27</v>
       </c>
@@ -5501,7 +5620,7 @@
       </c>
       <c r="F93" s="46"/>
     </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
@@ -5538,7 +5657,7 @@
       </c>
       <c r="F95" s="46"/>
     </row>
-    <row r="96" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -5592,7 +5711,7 @@
         <v>⛅️𝓣𝓮𝓷𝓬𝓮𝓵 𝓟𝓻𝓲𝓷𝓬𝓮𝓼𝓼</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>33</v>
       </c>
@@ -5610,7 +5729,7 @@
         <v>𝗡𝗲𝘄 𝗧𝗲𝗻𝗰𝗲𝗹 𝗖𝗼𝗹𝗹𝗲𝗰𝘁𝗶𝗼𝗻</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>34</v>
       </c>
@@ -5682,7 +5801,7 @@
         <v>Cologne  ✨✨✨</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>38</v>
       </c>
@@ -5700,7 +5819,7 @@
         <v>𝗠𝗶𝗻 𝗺𝗶𝗻</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>39</v>
       </c>
@@ -5736,7 +5855,7 @@
         <v>Bộ chăn ga LeoPard 120s Sateen</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>41</v>
       </c>
@@ -5754,7 +5873,7 @@
         <v>𝗧𝗶𝗰𝗶 𝗻𝗼𝘁𝗮𝗴</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>42</v>
       </c>
@@ -5766,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>43</v>
       </c>
@@ -5778,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>44</v>
       </c>
@@ -5790,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>45</v>
       </c>
@@ -5802,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>46</v>
       </c>
@@ -5814,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>47</v>
       </c>
@@ -5826,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>48</v>
       </c>
@@ -5874,7 +5993,7 @@
         <v xml:space="preserve">🌟 EPHANHOUES  BST  Lụa Gấm Cao Cấp Mới </v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>51</v>
       </c>
@@ -5911,7 +6030,7 @@
 Đáng yêu như Min Min - Thắp ánh đèn bật tình yêu lên </v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>53</v>
       </c>
@@ -5965,7 +6084,7 @@
         <v>TENCEL PIMA</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -5977,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>57</v>
       </c>
@@ -5989,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>58</v>
       </c>
@@ -6001,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>59</v>
       </c>
@@ -6013,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>60</v>
       </c>
@@ -6025,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>61</v>
       </c>
@@ -6041,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>62</v>
       </c>
@@ -6057,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>63</v>
       </c>
@@ -6073,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>64</v>
       </c>
@@ -6089,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>65</v>
       </c>
@@ -6105,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>66</v>
       </c>
@@ -6121,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>67</v>
       </c>
@@ -6173,7 +6292,7 @@
         <v>nghệ thuật đương đại</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>70</v>
       </c>
@@ -6191,7 +6310,7 @@
         <v>Siêu đẹp các bác ơi 📣📣 2025 💯</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,7 +6328,7 @@
         <v>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>72</v>
       </c>
@@ -6337,7 +6456,7 @@
 🌸 Lụa Thêu Nước Hoa Dior - Sự hòa quyện giữa sắc nét và mềm mại! </v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>79</v>
       </c>
@@ -6355,7 +6474,7 @@
         <v>BỘ SƯU TẬP TENCEL BASIC – THANH LỊCH &amp; TINH TẾ</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>80</v>
       </c>
@@ -6391,7 +6510,7 @@
         <v>Họa Tiết Nghệ Thuật Huyền Diệu</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>82</v>
       </c>
@@ -6425,7 +6544,7 @@
         <v>🌿 Leafy Luxe Gấm Cao Cấp</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>84</v>
       </c>
@@ -6461,7 +6580,7 @@
         <v>YOUNG｜Bộ sưu tập Xuân Hè 2025</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>86</v>
       </c>
@@ -6477,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>87</v>
       </c>
@@ -6495,7 +6614,7 @@
         <v>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>88</v>
       </c>
@@ -6511,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>89</v>
       </c>
@@ -6543,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>91</v>
       </c>
@@ -6559,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>92</v>
       </c>
@@ -6575,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>93</v>
       </c>
@@ -6660,7 +6779,7 @@
         <v>✨ NEW ARRIVAL | DÒNG 3D THÊU ÁNH KIM CAO CẤP ✨</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>98</v>
       </c>
@@ -6676,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>99</v>
       </c>
@@ -6692,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>100</v>
       </c>
@@ -6729,7 +6848,7 @@
         <v>𝑩𝒖𝒕𝒕𝒆𝒓𝒇𝒍𝒚 𝒕𝒆𝒏𝒄𝒆𝒍</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>102</v>
       </c>
@@ -6748,7 +6867,7 @@
 12 MÀU SIÊU XINH – NGẬP TRÀN SỰ LỰA CHỌN 🎨✨</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>103</v>
       </c>
@@ -6784,7 +6903,7 @@
         <v>MarriLos Cologne 2024</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>433</v>
       </c>
@@ -6802,7 +6921,7 @@
         <v xml:space="preserve"> phòng nghỉ sang-xịn-mịn như khách sạn 5 sao quốc tế!</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>434</v>
       </c>
@@ -6820,7 +6939,7 @@
         <v>𝗞𝗼𝗿𝗲𝗮 𝗡𝗶𝗻𝗲 𝗦𝘄𝗲𝗲𝘁</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>435</v>
       </c>
@@ -6895,7 +7014,7 @@
 Mềm như mây – đẹp như nắng chiều</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>439</v>
       </c>
@@ -6930,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>441</v>
       </c>
@@ -6946,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>442</v>
       </c>
@@ -7017,7 +7136,7 @@
         <v>𝓐𝓬𝓶𝓮 𝓒𝓸𝓵𝓵𝓪𝓰𝓮</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>446</v>
       </c>
@@ -7137,7 +7256,7 @@
         <v>👑 Princess Lullaby – Bộ chăn ga mộng mơ cho nàng thơ hiện đại</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>453</v>
       </c>
@@ -7174,7 +7293,7 @@
 "SilkElegance"</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>455</v>
       </c>
@@ -7286,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>462</v>
       </c>
@@ -7302,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>463</v>
       </c>
@@ -7398,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>469</v>
       </c>
@@ -7446,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>472</v>
       </c>
@@ -7462,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>473</v>
       </c>
@@ -7526,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>477</v>
       </c>
@@ -7542,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>478</v>
       </c>
@@ -7606,139 +7725,183 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>688</v>
       </c>
       <c r="B220" s="1"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="1"/>
+      <c r="C220" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D220" s="1">
+        <v>2000</v>
+      </c>
       <c r="E220" s="38">
         <f t="shared" ref="E220:E222" si="5">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A220,B220 )</f>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>689</v>
       </c>
       <c r="B221" s="1"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="1"/>
+      <c r="C221" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D221" s="1">
+        <v>2300</v>
+      </c>
       <c r="E221" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>690</v>
       </c>
       <c r="B222" s="1"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="1"/>
+      <c r="C222" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="D222" s="1">
+        <v>520</v>
+      </c>
       <c r="E222" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>691</v>
       </c>
       <c r="B223" s="1"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="1"/>
+      <c r="C223" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="D223" s="1">
+        <v>2300</v>
+      </c>
       <c r="E223" s="38">
         <f t="shared" ref="E223:E270" si="6">HYPERLINK("F:\ChanGa_Personal\SCG\" &amp; A223,B223 )</f>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>692</v>
       </c>
       <c r="B224" s="1"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="1"/>
+      <c r="C224" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="D224" s="1">
+        <v>1200</v>
+      </c>
       <c r="E224" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>693</v>
       </c>
       <c r="B225" s="1"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="1"/>
+      <c r="C225" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="D225" s="1">
+        <v>830</v>
+      </c>
       <c r="E225" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>694</v>
       </c>
       <c r="B226" s="1"/>
-      <c r="C226" s="4"/>
-      <c r="D226" s="1"/>
+      <c r="C226" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D226" s="1">
+        <v>1350</v>
+      </c>
       <c r="E226" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>695</v>
       </c>
       <c r="B227" s="1"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="1"/>
+      <c r="C227" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D227" s="1">
+        <v>1950</v>
+      </c>
       <c r="E227" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>696</v>
       </c>
       <c r="B228" s="1"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="1"/>
+      <c r="C228" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="D228" s="1">
+        <v>1600</v>
+      </c>
       <c r="E228" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>697</v>
       </c>
       <c r="B229" s="1"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="1"/>
+      <c r="C229" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="D229" s="1">
+        <v>1950</v>
+      </c>
       <c r="E229" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>698</v>
       </c>
       <c r="B230" s="1"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="1"/>
+      <c r="C230" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D230" s="1">
+        <v>2200</v>
+      </c>
       <c r="E230" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>699</v>
       </c>
@@ -7750,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>700</v>
       </c>
@@ -7762,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>701</v>
       </c>
@@ -7774,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>702</v>
       </c>
@@ -7786,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>703</v>
       </c>
@@ -7798,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>704</v>
       </c>
@@ -7810,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>705</v>
       </c>
@@ -7822,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>706</v>
       </c>
@@ -7834,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>707</v>
       </c>
@@ -7846,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>708</v>
       </c>
@@ -7858,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>709</v>
       </c>
@@ -7870,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>710</v>
       </c>
@@ -7882,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>711</v>
       </c>
@@ -7894,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>712</v>
       </c>
@@ -7906,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>713</v>
       </c>
@@ -7918,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>714</v>
       </c>
@@ -7930,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>715</v>
       </c>
@@ -7942,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>716</v>
       </c>
@@ -7954,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>717</v>
       </c>
@@ -7966,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>718</v>
       </c>
@@ -7978,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>719</v>
       </c>
@@ -7990,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>720</v>
       </c>
@@ -8002,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>721</v>
       </c>
@@ -8014,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>722</v>
       </c>
@@ -8026,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>723</v>
       </c>
@@ -8038,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>724</v>
       </c>
@@ -8050,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>725</v>
       </c>
@@ -8062,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>726</v>
       </c>
@@ -8074,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>727</v>
       </c>
@@ -8086,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>728</v>
       </c>
@@ -8098,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>729</v>
       </c>
@@ -8110,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>730</v>
       </c>
@@ -8122,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>731</v>
       </c>
@@ -8134,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>732</v>
       </c>
@@ -8146,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>733</v>
       </c>
@@ -8158,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>734</v>
       </c>
@@ -8170,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>735</v>
       </c>
@@ -8182,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>736</v>
       </c>
@@ -8194,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>737</v>
       </c>
@@ -8206,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>738</v>
       </c>
@@ -8219,7 +8382,32 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D270" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}"/>
+  <autoFilter ref="D1:D270" xr:uid="{4B77AF4A-863B-4858-8141-65534D476F71}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1650"/>
+        <filter val="1700"/>
+        <filter val="1750"/>
+        <filter val="1800"/>
+        <filter val="1850"/>
+        <filter val="1900"/>
+        <filter val="1950"/>
+        <filter val="2000"/>
+        <filter val="2100"/>
+        <filter val="2150"/>
+        <filter val="2190"/>
+        <filter val="2200"/>
+        <filter val="2300"/>
+        <filter val="2350"/>
+        <filter val="2400"/>
+        <filter val="2450"/>
+        <filter val="2500"/>
+        <filter val="2600"/>
+        <filter val="2650"/>
+        <filter val="2700"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="35">
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="E2:E11"/>
@@ -8829,8 +9017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91D16C2-792D-474A-819C-DD60A0C5D57B}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9078,13 +9266,17 @@
         <v>Chăn hè Tencel 60s hoa nhã nhặn – Dịu mát như làn gió sớm mai</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>117</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="D15" s="14">
+        <v>470</v>
+      </c>
       <c r="E15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
